--- a/Фопи/Зарплата ФОП 2021/Табель ФОП 2022/Табель 02.xlsx
+++ b/Фопи/Зарплата ФОП 2021/Табель ФОП 2022/Табель 02.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="96" windowWidth="15120" windowHeight="7776" tabRatio="874" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="96" windowWidth="15120" windowHeight="7776" tabRatio="874" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Угринчук" sheetId="25" r:id="rId1"/>
@@ -977,6 +977,42 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1022,57 +1058,51 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1088,35 +1118,14 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1127,14 +1136,20 @@
     <xf numFmtId="2" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1157,25 +1172,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1507,49 +1507,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="105"/>
-      <c r="R1" s="105"/>
-      <c r="S1" s="105"/>
-      <c r="T1" s="105"/>
-      <c r="U1" s="105"/>
-      <c r="V1" s="105"/>
-      <c r="W1" s="105"/>
-      <c r="X1" s="105"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="P1" s="117"/>
+      <c r="Q1" s="117"/>
+      <c r="R1" s="117"/>
+      <c r="S1" s="117"/>
+      <c r="T1" s="117"/>
+      <c r="U1" s="117"/>
+      <c r="V1" s="117"/>
+      <c r="W1" s="117"/>
+      <c r="X1" s="117"/>
     </row>
     <row r="2" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="118" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="106"/>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="106"/>
-      <c r="R2" s="106"/>
-      <c r="S2" s="106"/>
-      <c r="T2" s="106"/>
-      <c r="U2" s="106"/>
-      <c r="V2" s="106"/>
-      <c r="W2" s="106"/>
-      <c r="X2" s="106"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="118"/>
+      <c r="P2" s="118"/>
+      <c r="Q2" s="118"/>
+      <c r="R2" s="118"/>
+      <c r="S2" s="118"/>
+      <c r="T2" s="118"/>
+      <c r="U2" s="118"/>
+      <c r="V2" s="118"/>
+      <c r="W2" s="118"/>
+      <c r="X2" s="118"/>
     </row>
     <row r="3" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="93"/>
@@ -1659,147 +1659,147 @@
       <c r="X6" s="2"/>
     </row>
     <row r="7" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="107" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
-      <c r="S7" s="107"/>
-      <c r="T7" s="107"/>
-      <c r="U7" s="107"/>
-      <c r="V7" s="107"/>
-      <c r="W7" s="107"/>
-      <c r="X7" s="107"/>
+      <c r="A7" s="119" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="119"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="119"/>
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
+      <c r="S7" s="119"/>
+      <c r="T7" s="119"/>
+      <c r="U7" s="119"/>
+      <c r="V7" s="119"/>
+      <c r="W7" s="119"/>
+      <c r="X7" s="119"/>
     </row>
     <row r="8" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="108" t="str">
+      <c r="A8" s="120" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЛЮТИЙ 2022 р.</v>
       </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="108"/>
-      <c r="H8" s="108"/>
-      <c r="I8" s="108"/>
-      <c r="J8" s="108"/>
-      <c r="K8" s="108"/>
-      <c r="L8" s="108"/>
-      <c r="M8" s="108"/>
-      <c r="N8" s="108"/>
-      <c r="O8" s="108"/>
-      <c r="P8" s="108"/>
-      <c r="Q8" s="108"/>
-      <c r="R8" s="108"/>
-      <c r="S8" s="108"/>
-      <c r="T8" s="108"/>
-      <c r="U8" s="108"/>
-      <c r="V8" s="108"/>
-      <c r="W8" s="108"/>
-      <c r="X8" s="108"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="120"/>
+      <c r="M8" s="120"/>
+      <c r="N8" s="120"/>
+      <c r="O8" s="120"/>
+      <c r="P8" s="120"/>
+      <c r="Q8" s="120"/>
+      <c r="R8" s="120"/>
+      <c r="S8" s="120"/>
+      <c r="T8" s="120"/>
+      <c r="U8" s="120"/>
+      <c r="V8" s="120"/>
+      <c r="W8" s="120"/>
+      <c r="X8" s="120"/>
     </row>
     <row r="9" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="110"/>
-      <c r="C9" s="109" t="s">
+      <c r="B9" s="122"/>
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="109" t="s">
+      <c r="D9" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="111" t="s">
+      <c r="E9" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="112"/>
-      <c r="G9" s="112"/>
-      <c r="H9" s="112"/>
-      <c r="I9" s="112"/>
-      <c r="J9" s="112"/>
-      <c r="K9" s="112"/>
-      <c r="L9" s="112"/>
-      <c r="M9" s="112"/>
-      <c r="N9" s="112"/>
-      <c r="O9" s="112"/>
-      <c r="P9" s="112"/>
-      <c r="Q9" s="112"/>
-      <c r="R9" s="112"/>
-      <c r="S9" s="112"/>
-      <c r="T9" s="113"/>
-      <c r="U9" s="117" t="s">
+      <c r="F9" s="124"/>
+      <c r="G9" s="124"/>
+      <c r="H9" s="124"/>
+      <c r="I9" s="124"/>
+      <c r="J9" s="124"/>
+      <c r="K9" s="124"/>
+      <c r="L9" s="124"/>
+      <c r="M9" s="124"/>
+      <c r="N9" s="124"/>
+      <c r="O9" s="124"/>
+      <c r="P9" s="124"/>
+      <c r="Q9" s="124"/>
+      <c r="R9" s="124"/>
+      <c r="S9" s="124"/>
+      <c r="T9" s="125"/>
+      <c r="U9" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="117" t="s">
+      <c r="V9" s="129" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="117" t="s">
+      <c r="W9" s="129" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="117" t="s">
+      <c r="X9" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="117" t="s">
+      <c r="Y9" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="103" t="s">
+      <c r="Z9" s="115" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="109"/>
-      <c r="B10" s="110"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="115"/>
-      <c r="G10" s="115"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="115"/>
-      <c r="J10" s="115"/>
-      <c r="K10" s="115"/>
-      <c r="L10" s="115"/>
-      <c r="M10" s="115"/>
-      <c r="N10" s="115"/>
-      <c r="O10" s="115"/>
-      <c r="P10" s="115"/>
-      <c r="Q10" s="115"/>
-      <c r="R10" s="115"/>
-      <c r="S10" s="115"/>
-      <c r="T10" s="116"/>
-      <c r="U10" s="117"/>
-      <c r="V10" s="117"/>
-      <c r="W10" s="117"/>
-      <c r="X10" s="117"/>
-      <c r="Y10" s="117"/>
-      <c r="Z10" s="103"/>
+      <c r="A10" s="121"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="127"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="127"/>
+      <c r="K10" s="127"/>
+      <c r="L10" s="127"/>
+      <c r="M10" s="127"/>
+      <c r="N10" s="127"/>
+      <c r="O10" s="127"/>
+      <c r="P10" s="127"/>
+      <c r="Q10" s="127"/>
+      <c r="R10" s="127"/>
+      <c r="S10" s="127"/>
+      <c r="T10" s="128"/>
+      <c r="U10" s="129"/>
+      <c r="V10" s="129"/>
+      <c r="W10" s="129"/>
+      <c r="X10" s="129"/>
+      <c r="Y10" s="129"/>
+      <c r="Z10" s="115"/>
     </row>
     <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="118">
+      <c r="A11" s="112">
         <v>1</v>
       </c>
-      <c r="B11" s="118"/>
-      <c r="C11" s="119" t="s">
+      <c r="B11" s="112"/>
+      <c r="C11" s="113" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="120" t="s">
+      <c r="D11" s="114" t="s">
         <v>84</v>
       </c>
       <c r="E11" s="25">
@@ -1850,28 +1850,28 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="124" t="s">
+      <c r="U11" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="103" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="89"/>
-      <c r="Y11" s="124">
+      <c r="Y11" s="103">
         <v>20</v>
       </c>
-      <c r="Z11" s="127">
+      <c r="Z11" s="106">
         <v>6500</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="118"/>
-      <c r="B12" s="118"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="120"/>
+      <c r="A12" s="112"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="114"/>
       <c r="E12" s="26">
         <v>4</v>
       </c>
@@ -1920,22 +1920,22 @@
       <c r="T12" s="26">
         <v>4</v>
       </c>
-      <c r="U12" s="122"/>
-      <c r="V12" s="122"/>
-      <c r="W12" s="125"/>
+      <c r="U12" s="110"/>
+      <c r="V12" s="110"/>
+      <c r="W12" s="104"/>
       <c r="X12" s="90"/>
-      <c r="Y12" s="126"/>
-      <c r="Z12" s="127"/>
+      <c r="Y12" s="105"/>
+      <c r="Z12" s="106"/>
       <c r="AA12" s="2">
         <f>SUM(E12:T12)</f>
         <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="118"/>
-      <c r="B13" s="118"/>
-      <c r="C13" s="119"/>
-      <c r="D13" s="120"/>
+      <c r="A13" s="112"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="114"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -1984,25 +1984,25 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="122"/>
-      <c r="V13" s="122"/>
-      <c r="W13" s="125"/>
+      <c r="U13" s="110"/>
+      <c r="V13" s="110"/>
+      <c r="W13" s="104"/>
       <c r="X13" s="90"/>
-      <c r="Y13" s="124">
+      <c r="Y13" s="103">
         <f>AB13</f>
         <v>80</v>
       </c>
-      <c r="Z13" s="127"/>
+      <c r="Z13" s="106"/>
       <c r="AB13" s="2">
         <f>AA12+AA14</f>
         <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="118"/>
-      <c r="B14" s="118"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="120"/>
+      <c r="A14" s="112"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="114"/>
       <c r="E14" s="26">
         <v>4</v>
       </c>
@@ -2051,12 +2051,12 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="123"/>
-      <c r="V14" s="123"/>
-      <c r="W14" s="126"/>
+      <c r="U14" s="111"/>
+      <c r="V14" s="111"/>
+      <c r="W14" s="105"/>
       <c r="X14" s="91"/>
-      <c r="Y14" s="126"/>
-      <c r="Z14" s="127"/>
+      <c r="Y14" s="105"/>
+      <c r="Z14" s="106"/>
       <c r="AA14" s="2">
         <f>SUM(E14:T14)</f>
         <v>32</v>
@@ -2141,18 +2141,18 @@
       <c r="X17" s="9"/>
     </row>
     <row r="18" spans="1:24" s="92" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="B18" s="128" t="s">
+      <c r="B18" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="128"/>
-      <c r="D18" s="129">
+      <c r="C18" s="107"/>
+      <c r="D18" s="108">
         <f>Мельницький!C36</f>
         <v>44621</v>
       </c>
-      <c r="E18" s="129"/>
-      <c r="F18" s="129"/>
-      <c r="G18" s="129"/>
-      <c r="H18" s="129"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="108"/>
+      <c r="H18" s="108"/>
       <c r="L18" s="92" t="s">
         <v>98</v>
       </c>
@@ -2194,18 +2194,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Z11:Z14"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
     <mergeCell ref="Z9:Z10"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="P1:X1"/>
@@ -2222,6 +2210,18 @@
     <mergeCell ref="W9:W10"/>
     <mergeCell ref="X9:X10"/>
     <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Z11:Z14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="V11:V14"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
@@ -2386,63 +2386,63 @@
       <c r="Y5" s="65"/>
     </row>
     <row r="6" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A6" s="107" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="107"/>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="107"/>
-      <c r="K6" s="107"/>
-      <c r="L6" s="107"/>
-      <c r="M6" s="107"/>
-      <c r="N6" s="107"/>
-      <c r="O6" s="107"/>
-      <c r="P6" s="107"/>
-      <c r="Q6" s="107"/>
-      <c r="R6" s="107"/>
-      <c r="S6" s="107"/>
-      <c r="T6" s="107"/>
-      <c r="U6" s="107"/>
-      <c r="V6" s="107"/>
-      <c r="W6" s="107"/>
-      <c r="X6" s="107"/>
-      <c r="Y6" s="107"/>
+      <c r="A6" s="119" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="119"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="119"/>
+      <c r="L6" s="119"/>
+      <c r="M6" s="119"/>
+      <c r="N6" s="119"/>
+      <c r="O6" s="119"/>
+      <c r="P6" s="119"/>
+      <c r="Q6" s="119"/>
+      <c r="R6" s="119"/>
+      <c r="S6" s="119"/>
+      <c r="T6" s="119"/>
+      <c r="U6" s="119"/>
+      <c r="V6" s="119"/>
+      <c r="W6" s="119"/>
+      <c r="X6" s="119"/>
+      <c r="Y6" s="119"/>
     </row>
     <row r="7" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="107" t="str">
+      <c r="A7" s="119" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЛЮТИЙ 2022 р.</v>
       </c>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
-      <c r="S7" s="107"/>
-      <c r="T7" s="107"/>
-      <c r="U7" s="107"/>
-      <c r="V7" s="107"/>
-      <c r="W7" s="107"/>
-      <c r="X7" s="107"/>
-      <c r="Y7" s="107"/>
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="119"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="119"/>
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
+      <c r="S7" s="119"/>
+      <c r="T7" s="119"/>
+      <c r="U7" s="119"/>
+      <c r="V7" s="119"/>
+      <c r="W7" s="119"/>
+      <c r="X7" s="119"/>
+      <c r="Y7" s="119"/>
     </row>
     <row r="8" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="63"/>
@@ -2472,94 +2472,94 @@
       <c r="Y8" s="63"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="110" t="s">
+      <c r="B9" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="109" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="109" t="s">
+      <c r="D9" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="109" t="s">
+      <c r="E9" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="109"/>
-      <c r="J9" s="109"/>
-      <c r="K9" s="109"/>
-      <c r="L9" s="109"/>
-      <c r="M9" s="109"/>
-      <c r="N9" s="109"/>
-      <c r="O9" s="109"/>
-      <c r="P9" s="109"/>
-      <c r="Q9" s="109"/>
-      <c r="R9" s="109"/>
-      <c r="S9" s="109"/>
-      <c r="T9" s="109"/>
-      <c r="U9" s="117" t="s">
+      <c r="F9" s="121"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="121"/>
+      <c r="K9" s="121"/>
+      <c r="L9" s="121"/>
+      <c r="M9" s="121"/>
+      <c r="N9" s="121"/>
+      <c r="O9" s="121"/>
+      <c r="P9" s="121"/>
+      <c r="Q9" s="121"/>
+      <c r="R9" s="121"/>
+      <c r="S9" s="121"/>
+      <c r="T9" s="121"/>
+      <c r="U9" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="117" t="s">
+      <c r="V9" s="129" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="117" t="s">
+      <c r="W9" s="129" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="117" t="s">
+      <c r="X9" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="117" t="s">
+      <c r="Y9" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="103" t="s">
+      <c r="Z9" s="115" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="109"/>
-      <c r="B10" s="110"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="109"/>
-      <c r="M10" s="109"/>
-      <c r="N10" s="109"/>
-      <c r="O10" s="109"/>
-      <c r="P10" s="109"/>
-      <c r="Q10" s="109"/>
-      <c r="R10" s="109"/>
-      <c r="S10" s="109"/>
-      <c r="T10" s="109"/>
-      <c r="U10" s="117"/>
-      <c r="V10" s="117"/>
-      <c r="W10" s="117"/>
-      <c r="X10" s="117"/>
-      <c r="Y10" s="117"/>
-      <c r="Z10" s="103"/>
+      <c r="A10" s="121"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="121"/>
+      <c r="K10" s="121"/>
+      <c r="L10" s="121"/>
+      <c r="M10" s="121"/>
+      <c r="N10" s="121"/>
+      <c r="O10" s="121"/>
+      <c r="P10" s="121"/>
+      <c r="Q10" s="121"/>
+      <c r="R10" s="121"/>
+      <c r="S10" s="121"/>
+      <c r="T10" s="121"/>
+      <c r="U10" s="129"/>
+      <c r="V10" s="129"/>
+      <c r="W10" s="129"/>
+      <c r="X10" s="129"/>
+      <c r="Y10" s="129"/>
+      <c r="Z10" s="115"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="118">
+      <c r="A11" s="112">
         <v>1</v>
       </c>
-      <c r="B11" s="118">
+      <c r="B11" s="112">
         <v>1</v>
       </c>
-      <c r="C11" s="119" t="s">
+      <c r="C11" s="113" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="120" t="s">
+      <c r="D11" s="114" t="s">
         <v>74</v>
       </c>
       <c r="E11" s="25">
@@ -2610,28 +2610,28 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="124" t="s">
-        <v>8</v>
-      </c>
-      <c r="X11" s="163"/>
-      <c r="Y11" s="124" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z11" s="167">
+      <c r="U11" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="103" t="s">
+        <v>8</v>
+      </c>
+      <c r="X11" s="156"/>
+      <c r="Y11" s="103" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z11" s="169">
         <v>4770</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="118"/>
-      <c r="B12" s="118"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="120"/>
+      <c r="A12" s="112"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="114"/>
       <c r="E12" s="26" t="s">
         <v>88</v>
       </c>
@@ -2680,18 +2680,18 @@
       <c r="T12" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="U12" s="122"/>
-      <c r="V12" s="122"/>
-      <c r="W12" s="125"/>
-      <c r="X12" s="164"/>
-      <c r="Y12" s="126"/>
-      <c r="Z12" s="167"/>
+      <c r="U12" s="110"/>
+      <c r="V12" s="110"/>
+      <c r="W12" s="104"/>
+      <c r="X12" s="157"/>
+      <c r="Y12" s="105"/>
+      <c r="Z12" s="169"/>
     </row>
     <row r="13" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="118"/>
-      <c r="B13" s="118"/>
-      <c r="C13" s="119"/>
-      <c r="D13" s="120"/>
+      <c r="A13" s="112"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="114"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -2740,20 +2740,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="122"/>
-      <c r="V13" s="122"/>
-      <c r="W13" s="125"/>
-      <c r="X13" s="164"/>
-      <c r="Y13" s="124" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z13" s="167"/>
+      <c r="U13" s="110"/>
+      <c r="V13" s="110"/>
+      <c r="W13" s="104"/>
+      <c r="X13" s="157"/>
+      <c r="Y13" s="103" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z13" s="169"/>
     </row>
     <row r="14" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="118"/>
-      <c r="B14" s="118"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="120"/>
+      <c r="A14" s="112"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="114"/>
       <c r="E14" s="26" t="s">
         <v>88</v>
       </c>
@@ -2802,18 +2802,18 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="123"/>
-      <c r="V14" s="123"/>
-      <c r="W14" s="126"/>
-      <c r="X14" s="165"/>
-      <c r="Y14" s="126"/>
-      <c r="Z14" s="167"/>
+      <c r="U14" s="111"/>
+      <c r="V14" s="111"/>
+      <c r="W14" s="105"/>
+      <c r="X14" s="158"/>
+      <c r="Y14" s="105"/>
+      <c r="Z14" s="169"/>
     </row>
     <row r="15" spans="1:26" s="64" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="128" t="s">
+      <c r="B15" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="128"/>
+      <c r="C15" s="107"/>
       <c r="D15" s="66">
         <f>Мельницький!C36</f>
         <v>44621</v>
@@ -2877,18 +2877,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A6:Y6"/>
-    <mergeCell ref="A7:Y7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="Z9:Z10"/>
     <mergeCell ref="A11:A14"/>
@@ -2902,6 +2890,18 @@
     <mergeCell ref="Y11:Y12"/>
     <mergeCell ref="Z11:Z14"/>
     <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="A6:Y6"/>
+    <mergeCell ref="A7:Y7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -3089,147 +3089,147 @@
       <c r="X6" s="19"/>
     </row>
     <row r="7" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="107" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
-      <c r="S7" s="107"/>
-      <c r="T7" s="107"/>
-      <c r="U7" s="107"/>
-      <c r="V7" s="107"/>
-      <c r="W7" s="107"/>
-      <c r="X7" s="107"/>
+      <c r="A7" s="119" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="119"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="119"/>
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
+      <c r="S7" s="119"/>
+      <c r="T7" s="119"/>
+      <c r="U7" s="119"/>
+      <c r="V7" s="119"/>
+      <c r="W7" s="119"/>
+      <c r="X7" s="119"/>
     </row>
     <row r="8" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="107" t="str">
+      <c r="A8" s="119" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЛЮТИЙ 2022 р.</v>
       </c>
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="107"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="107"/>
-      <c r="N8" s="107"/>
-      <c r="O8" s="107"/>
-      <c r="P8" s="107"/>
-      <c r="Q8" s="107"/>
-      <c r="R8" s="107"/>
-      <c r="S8" s="107"/>
-      <c r="T8" s="107"/>
-      <c r="U8" s="107"/>
-      <c r="V8" s="107"/>
-      <c r="W8" s="107"/>
-      <c r="X8" s="107"/>
+      <c r="B8" s="119"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="119"/>
+      <c r="K8" s="119"/>
+      <c r="L8" s="119"/>
+      <c r="M8" s="119"/>
+      <c r="N8" s="119"/>
+      <c r="O8" s="119"/>
+      <c r="P8" s="119"/>
+      <c r="Q8" s="119"/>
+      <c r="R8" s="119"/>
+      <c r="S8" s="119"/>
+      <c r="T8" s="119"/>
+      <c r="U8" s="119"/>
+      <c r="V8" s="119"/>
+      <c r="W8" s="119"/>
+      <c r="X8" s="119"/>
     </row>
     <row r="9" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="110" t="s">
+      <c r="B9" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="109" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="109" t="s">
+      <c r="D9" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="109" t="s">
+      <c r="E9" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="109"/>
-      <c r="J9" s="109"/>
-      <c r="K9" s="109"/>
-      <c r="L9" s="109"/>
-      <c r="M9" s="109"/>
-      <c r="N9" s="109"/>
-      <c r="O9" s="109"/>
-      <c r="P9" s="109"/>
-      <c r="Q9" s="109"/>
-      <c r="R9" s="109"/>
-      <c r="S9" s="109"/>
-      <c r="T9" s="109"/>
-      <c r="U9" s="117" t="s">
+      <c r="F9" s="121"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="121"/>
+      <c r="K9" s="121"/>
+      <c r="L9" s="121"/>
+      <c r="M9" s="121"/>
+      <c r="N9" s="121"/>
+      <c r="O9" s="121"/>
+      <c r="P9" s="121"/>
+      <c r="Q9" s="121"/>
+      <c r="R9" s="121"/>
+      <c r="S9" s="121"/>
+      <c r="T9" s="121"/>
+      <c r="U9" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="117" t="s">
+      <c r="V9" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="W9" s="117" t="s">
+      <c r="W9" s="129" t="s">
         <v>14</v>
       </c>
-      <c r="X9" s="117" t="s">
+      <c r="X9" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="Y9" s="103" t="s">
+      <c r="Y9" s="115" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="109"/>
-      <c r="B10" s="110"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="109"/>
-      <c r="M10" s="109"/>
-      <c r="N10" s="109"/>
-      <c r="O10" s="109"/>
-      <c r="P10" s="109"/>
-      <c r="Q10" s="109"/>
-      <c r="R10" s="109"/>
-      <c r="S10" s="109"/>
-      <c r="T10" s="109"/>
-      <c r="U10" s="117"/>
-      <c r="V10" s="117"/>
-      <c r="W10" s="117"/>
-      <c r="X10" s="117"/>
-      <c r="Y10" s="103"/>
+      <c r="A10" s="121"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="121"/>
+      <c r="K10" s="121"/>
+      <c r="L10" s="121"/>
+      <c r="M10" s="121"/>
+      <c r="N10" s="121"/>
+      <c r="O10" s="121"/>
+      <c r="P10" s="121"/>
+      <c r="Q10" s="121"/>
+      <c r="R10" s="121"/>
+      <c r="S10" s="121"/>
+      <c r="T10" s="121"/>
+      <c r="U10" s="129"/>
+      <c r="V10" s="129"/>
+      <c r="W10" s="129"/>
+      <c r="X10" s="129"/>
+      <c r="Y10" s="115"/>
     </row>
     <row r="11" spans="1:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="118">
+      <c r="A11" s="112">
         <v>1</v>
       </c>
-      <c r="B11" s="118">
+      <c r="B11" s="112">
         <v>1</v>
       </c>
-      <c r="C11" s="119" t="s">
+      <c r="C11" s="113" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="120" t="s">
+      <c r="D11" s="114" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="25">
@@ -3280,29 +3280,29 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="124" t="s">
-        <v>8</v>
-      </c>
-      <c r="X11" s="124">
+      <c r="U11" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="103" t="s">
+        <v>8</v>
+      </c>
+      <c r="X11" s="103">
         <v>21</v>
       </c>
-      <c r="Y11" s="124"/>
+      <c r="Y11" s="103"/>
       <c r="Z11" s="3">
         <f>SUM(E12:T12)</f>
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="118"/>
-      <c r="B12" s="118"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="120"/>
+      <c r="A12" s="112"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="114"/>
       <c r="E12" s="26" t="s">
         <v>13</v>
       </c>
@@ -3351,17 +3351,17 @@
       <c r="T12" s="26">
         <v>2</v>
       </c>
-      <c r="U12" s="122"/>
-      <c r="V12" s="122"/>
-      <c r="W12" s="125"/>
-      <c r="X12" s="125"/>
-      <c r="Y12" s="125"/>
+      <c r="U12" s="110"/>
+      <c r="V12" s="110"/>
+      <c r="W12" s="104"/>
+      <c r="X12" s="104"/>
+      <c r="Y12" s="104"/>
     </row>
     <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="118"/>
-      <c r="B13" s="118"/>
-      <c r="C13" s="119"/>
-      <c r="D13" s="120"/>
+      <c r="A13" s="112"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="114"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -3410,23 +3410,23 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="122"/>
-      <c r="V13" s="122"/>
-      <c r="W13" s="125"/>
-      <c r="X13" s="125">
+      <c r="U13" s="110"/>
+      <c r="V13" s="110"/>
+      <c r="W13" s="104"/>
+      <c r="X13" s="104">
         <v>42</v>
       </c>
-      <c r="Y13" s="125"/>
+      <c r="Y13" s="104"/>
       <c r="AA13" s="2">
         <f>Z11+Z14</f>
         <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="118"/>
-      <c r="B14" s="118"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="120"/>
+      <c r="A14" s="112"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="114"/>
       <c r="E14" s="26">
         <v>2</v>
       </c>
@@ -3475,11 +3475,11 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="123"/>
-      <c r="V14" s="123"/>
-      <c r="W14" s="126"/>
-      <c r="X14" s="126"/>
-      <c r="Y14" s="126"/>
+      <c r="U14" s="111"/>
+      <c r="V14" s="111"/>
+      <c r="W14" s="105"/>
+      <c r="X14" s="105"/>
+      <c r="Y14" s="105"/>
       <c r="Z14" s="3">
         <f>SUM(E14:T14)</f>
         <v>22</v>
@@ -3538,10 +3538,10 @@
       <c r="X16" s="9"/>
     </row>
     <row r="17" spans="2:12" s="36" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="159" t="s">
+      <c r="B17" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="159"/>
+      <c r="C17" s="164"/>
       <c r="D17" s="37">
         <f>Мельницький!C36</f>
         <v>44621</v>
@@ -3605,6 +3605,20 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
     <mergeCell ref="A7:X7"/>
     <mergeCell ref="A8:X8"/>
     <mergeCell ref="A9:A10"/>
@@ -3614,20 +3628,6 @@
     <mergeCell ref="E9:T10"/>
     <mergeCell ref="U9:U10"/>
     <mergeCell ref="V9:V10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="Y11:Y14"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
@@ -3815,147 +3815,147 @@
       <c r="X6" s="19"/>
     </row>
     <row r="7" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="107" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
-      <c r="S7" s="107"/>
-      <c r="T7" s="107"/>
-      <c r="U7" s="107"/>
-      <c r="V7" s="107"/>
-      <c r="W7" s="107"/>
-      <c r="X7" s="107"/>
+      <c r="A7" s="119" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="119"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="119"/>
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
+      <c r="S7" s="119"/>
+      <c r="T7" s="119"/>
+      <c r="U7" s="119"/>
+      <c r="V7" s="119"/>
+      <c r="W7" s="119"/>
+      <c r="X7" s="119"/>
     </row>
     <row r="8" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="107" t="str">
+      <c r="A8" s="119" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЛЮТИЙ 2022 р.</v>
       </c>
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="107"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="107"/>
-      <c r="N8" s="107"/>
-      <c r="O8" s="107"/>
-      <c r="P8" s="107"/>
-      <c r="Q8" s="107"/>
-      <c r="R8" s="107"/>
-      <c r="S8" s="107"/>
-      <c r="T8" s="107"/>
-      <c r="U8" s="107"/>
-      <c r="V8" s="107"/>
-      <c r="W8" s="107"/>
-      <c r="X8" s="107"/>
+      <c r="B8" s="119"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="119"/>
+      <c r="K8" s="119"/>
+      <c r="L8" s="119"/>
+      <c r="M8" s="119"/>
+      <c r="N8" s="119"/>
+      <c r="O8" s="119"/>
+      <c r="P8" s="119"/>
+      <c r="Q8" s="119"/>
+      <c r="R8" s="119"/>
+      <c r="S8" s="119"/>
+      <c r="T8" s="119"/>
+      <c r="U8" s="119"/>
+      <c r="V8" s="119"/>
+      <c r="W8" s="119"/>
+      <c r="X8" s="119"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="110" t="s">
+      <c r="B9" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="109" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="109" t="s">
+      <c r="D9" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="109" t="s">
+      <c r="E9" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="109"/>
-      <c r="J9" s="109"/>
-      <c r="K9" s="109"/>
-      <c r="L9" s="109"/>
-      <c r="M9" s="109"/>
-      <c r="N9" s="109"/>
-      <c r="O9" s="109"/>
-      <c r="P9" s="109"/>
-      <c r="Q9" s="109"/>
-      <c r="R9" s="109"/>
-      <c r="S9" s="109"/>
-      <c r="T9" s="109"/>
-      <c r="U9" s="117" t="s">
+      <c r="F9" s="121"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="121"/>
+      <c r="K9" s="121"/>
+      <c r="L9" s="121"/>
+      <c r="M9" s="121"/>
+      <c r="N9" s="121"/>
+      <c r="O9" s="121"/>
+      <c r="P9" s="121"/>
+      <c r="Q9" s="121"/>
+      <c r="R9" s="121"/>
+      <c r="S9" s="121"/>
+      <c r="T9" s="121"/>
+      <c r="U9" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="117" t="s">
+      <c r="V9" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="W9" s="117" t="s">
+      <c r="W9" s="129" t="s">
         <v>14</v>
       </c>
-      <c r="X9" s="117" t="s">
+      <c r="X9" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="Y9" s="103" t="s">
+      <c r="Y9" s="115" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="109"/>
-      <c r="B10" s="110"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="109"/>
-      <c r="M10" s="109"/>
-      <c r="N10" s="109"/>
-      <c r="O10" s="109"/>
-      <c r="P10" s="109"/>
-      <c r="Q10" s="109"/>
-      <c r="R10" s="109"/>
-      <c r="S10" s="109"/>
-      <c r="T10" s="109"/>
-      <c r="U10" s="117"/>
-      <c r="V10" s="117"/>
-      <c r="W10" s="117"/>
-      <c r="X10" s="117"/>
-      <c r="Y10" s="103"/>
+      <c r="A10" s="121"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="121"/>
+      <c r="K10" s="121"/>
+      <c r="L10" s="121"/>
+      <c r="M10" s="121"/>
+      <c r="N10" s="121"/>
+      <c r="O10" s="121"/>
+      <c r="P10" s="121"/>
+      <c r="Q10" s="121"/>
+      <c r="R10" s="121"/>
+      <c r="S10" s="121"/>
+      <c r="T10" s="121"/>
+      <c r="U10" s="129"/>
+      <c r="V10" s="129"/>
+      <c r="W10" s="129"/>
+      <c r="X10" s="129"/>
+      <c r="Y10" s="115"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="118">
+      <c r="A11" s="112">
         <v>1</v>
       </c>
-      <c r="B11" s="118">
+      <c r="B11" s="112">
         <v>1</v>
       </c>
-      <c r="C11" s="119" t="s">
+      <c r="C11" s="113" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="120" t="s">
+      <c r="D11" s="114" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="25">
@@ -4006,29 +4006,29 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="124" t="s">
-        <v>8</v>
-      </c>
-      <c r="X11" s="124">
+      <c r="U11" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="103" t="s">
+        <v>8</v>
+      </c>
+      <c r="X11" s="103">
         <v>21</v>
       </c>
-      <c r="Y11" s="156"/>
+      <c r="Y11" s="161"/>
       <c r="Z11" s="3">
         <f>SUM(E12:T12)</f>
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="118"/>
-      <c r="B12" s="118"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="120"/>
+      <c r="A12" s="112"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="114"/>
       <c r="E12" s="26" t="s">
         <v>13</v>
       </c>
@@ -4077,17 +4077,17 @@
       <c r="T12" s="26">
         <v>2</v>
       </c>
-      <c r="U12" s="122"/>
-      <c r="V12" s="122"/>
-      <c r="W12" s="125"/>
-      <c r="X12" s="126"/>
-      <c r="Y12" s="157"/>
+      <c r="U12" s="110"/>
+      <c r="V12" s="110"/>
+      <c r="W12" s="104"/>
+      <c r="X12" s="105"/>
+      <c r="Y12" s="162"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="118"/>
-      <c r="B13" s="118"/>
-      <c r="C13" s="119"/>
-      <c r="D13" s="120"/>
+      <c r="A13" s="112"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="114"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -4136,20 +4136,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="122"/>
-      <c r="V13" s="122"/>
-      <c r="W13" s="125"/>
-      <c r="X13" s="124">
+      <c r="U13" s="110"/>
+      <c r="V13" s="110"/>
+      <c r="W13" s="104"/>
+      <c r="X13" s="103">
         <f>Z11+Z14</f>
         <v>42</v>
       </c>
-      <c r="Y13" s="157"/>
+      <c r="Y13" s="162"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="118"/>
-      <c r="B14" s="118"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="120"/>
+      <c r="A14" s="112"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="114"/>
       <c r="E14" s="26">
         <v>2</v>
       </c>
@@ -4198,11 +4198,11 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="123"/>
-      <c r="V14" s="123"/>
-      <c r="W14" s="126"/>
-      <c r="X14" s="126"/>
-      <c r="Y14" s="158"/>
+      <c r="U14" s="111"/>
+      <c r="V14" s="111"/>
+      <c r="W14" s="105"/>
+      <c r="X14" s="105"/>
+      <c r="Y14" s="163"/>
       <c r="Z14" s="3">
         <f>SUM(E14:T14)</f>
         <v>22</v>
@@ -4261,10 +4261,10 @@
       <c r="X16" s="9"/>
     </row>
     <row r="17" spans="2:12" s="39" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="159" t="s">
+      <c r="B17" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="159"/>
+      <c r="C17" s="164"/>
       <c r="D17" s="40">
         <f>Мельницький!C36</f>
         <v>44621</v>
@@ -4328,19 +4328,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
     <mergeCell ref="A7:X7"/>
     <mergeCell ref="A8:X8"/>
     <mergeCell ref="A9:A10"/>
@@ -4351,6 +4338,19 @@
     <mergeCell ref="U9:U10"/>
     <mergeCell ref="V9:V10"/>
     <mergeCell ref="W9:W10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="X11:X12"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
@@ -4379,12 +4379,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
       <c r="Q1" s="15" t="s">
         <v>40</v>
       </c>
@@ -4528,149 +4528,149 @@
       <c r="X6" s="19"/>
     </row>
     <row r="7" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="107" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
-      <c r="S7" s="107"/>
-      <c r="T7" s="107"/>
-      <c r="U7" s="107"/>
-      <c r="V7" s="107"/>
-      <c r="W7" s="107"/>
-      <c r="X7" s="107"/>
-      <c r="Y7" s="107"/>
-      <c r="Z7" s="107"/>
+      <c r="A7" s="119" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="119"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="119"/>
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
+      <c r="S7" s="119"/>
+      <c r="T7" s="119"/>
+      <c r="U7" s="119"/>
+      <c r="V7" s="119"/>
+      <c r="W7" s="119"/>
+      <c r="X7" s="119"/>
+      <c r="Y7" s="119"/>
+      <c r="Z7" s="119"/>
     </row>
     <row r="8" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="108" t="str">
+      <c r="A8" s="120" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЛЮТИЙ 2022 р.</v>
       </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="108"/>
-      <c r="H8" s="108"/>
-      <c r="I8" s="108"/>
-      <c r="J8" s="108"/>
-      <c r="K8" s="108"/>
-      <c r="L8" s="108"/>
-      <c r="M8" s="108"/>
-      <c r="N8" s="108"/>
-      <c r="O8" s="108"/>
-      <c r="P8" s="108"/>
-      <c r="Q8" s="108"/>
-      <c r="R8" s="108"/>
-      <c r="S8" s="108"/>
-      <c r="T8" s="108"/>
-      <c r="U8" s="108"/>
-      <c r="V8" s="108"/>
-      <c r="W8" s="108"/>
-      <c r="X8" s="108"/>
-      <c r="Y8" s="108"/>
-      <c r="Z8" s="108"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="120"/>
+      <c r="M8" s="120"/>
+      <c r="N8" s="120"/>
+      <c r="O8" s="120"/>
+      <c r="P8" s="120"/>
+      <c r="Q8" s="120"/>
+      <c r="R8" s="120"/>
+      <c r="S8" s="120"/>
+      <c r="T8" s="120"/>
+      <c r="U8" s="120"/>
+      <c r="V8" s="120"/>
+      <c r="W8" s="120"/>
+      <c r="X8" s="120"/>
+      <c r="Y8" s="120"/>
+      <c r="Z8" s="120"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="110" t="s">
+      <c r="B9" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="109" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="109" t="s">
+      <c r="D9" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="109" t="s">
+      <c r="E9" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="109"/>
-      <c r="J9" s="109"/>
-      <c r="K9" s="109"/>
-      <c r="L9" s="109"/>
-      <c r="M9" s="109"/>
-      <c r="N9" s="109"/>
-      <c r="O9" s="109"/>
-      <c r="P9" s="109"/>
-      <c r="Q9" s="109"/>
-      <c r="R9" s="109"/>
-      <c r="S9" s="109"/>
-      <c r="T9" s="109"/>
-      <c r="U9" s="117" t="s">
+      <c r="F9" s="121"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="121"/>
+      <c r="K9" s="121"/>
+      <c r="L9" s="121"/>
+      <c r="M9" s="121"/>
+      <c r="N9" s="121"/>
+      <c r="O9" s="121"/>
+      <c r="P9" s="121"/>
+      <c r="Q9" s="121"/>
+      <c r="R9" s="121"/>
+      <c r="S9" s="121"/>
+      <c r="T9" s="121"/>
+      <c r="U9" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="117" t="s">
+      <c r="V9" s="129" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="117" t="s">
+      <c r="W9" s="129" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="117" t="s">
+      <c r="X9" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="117" t="s">
+      <c r="Y9" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="103" t="s">
+      <c r="Z9" s="115" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="109"/>
-      <c r="B10" s="110"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="109"/>
-      <c r="M10" s="109"/>
-      <c r="N10" s="109"/>
-      <c r="O10" s="109"/>
-      <c r="P10" s="109"/>
-      <c r="Q10" s="109"/>
-      <c r="R10" s="109"/>
-      <c r="S10" s="109"/>
-      <c r="T10" s="109"/>
-      <c r="U10" s="117"/>
-      <c r="V10" s="117"/>
-      <c r="W10" s="117"/>
-      <c r="X10" s="117"/>
-      <c r="Y10" s="117"/>
-      <c r="Z10" s="103"/>
+      <c r="A10" s="121"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="121"/>
+      <c r="K10" s="121"/>
+      <c r="L10" s="121"/>
+      <c r="M10" s="121"/>
+      <c r="N10" s="121"/>
+      <c r="O10" s="121"/>
+      <c r="P10" s="121"/>
+      <c r="Q10" s="121"/>
+      <c r="R10" s="121"/>
+      <c r="S10" s="121"/>
+      <c r="T10" s="121"/>
+      <c r="U10" s="129"/>
+      <c r="V10" s="129"/>
+      <c r="W10" s="129"/>
+      <c r="X10" s="129"/>
+      <c r="Y10" s="129"/>
+      <c r="Z10" s="115"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="118">
+      <c r="A11" s="112">
         <v>1</v>
       </c>
-      <c r="B11" s="118">
+      <c r="B11" s="112">
         <v>2</v>
       </c>
       <c r="C11" s="130" t="s">
@@ -4727,26 +4727,26 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="124" t="s">
+      <c r="U11" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="103" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="22"/>
-      <c r="Y11" s="124">
+      <c r="Y11" s="103">
         <v>21</v>
       </c>
-      <c r="Z11" s="127">
+      <c r="Z11" s="106">
         <v>3232</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="118"/>
-      <c r="B12" s="118"/>
+      <c r="A12" s="112"/>
+      <c r="B12" s="112"/>
       <c r="C12" s="130"/>
       <c r="D12" s="131"/>
       <c r="E12" s="26" t="s">
@@ -4797,16 +4797,16 @@
       <c r="T12" s="26">
         <v>2</v>
       </c>
-      <c r="U12" s="122"/>
-      <c r="V12" s="122"/>
-      <c r="W12" s="125"/>
+      <c r="U12" s="110"/>
+      <c r="V12" s="110"/>
+      <c r="W12" s="104"/>
       <c r="X12" s="23"/>
-      <c r="Y12" s="126"/>
-      <c r="Z12" s="127"/>
+      <c r="Y12" s="105"/>
+      <c r="Z12" s="106"/>
     </row>
     <row r="13" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="118"/>
-      <c r="B13" s="118"/>
+      <c r="A13" s="112"/>
+      <c r="B13" s="112"/>
       <c r="C13" s="130"/>
       <c r="D13" s="131"/>
       <c r="E13" s="27">
@@ -4857,18 +4857,18 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="122"/>
-      <c r="V13" s="122"/>
-      <c r="W13" s="125"/>
+      <c r="U13" s="110"/>
+      <c r="V13" s="110"/>
+      <c r="W13" s="104"/>
       <c r="X13" s="23"/>
-      <c r="Y13" s="124">
+      <c r="Y13" s="103">
         <v>42</v>
       </c>
-      <c r="Z13" s="127"/>
+      <c r="Z13" s="106"/>
     </row>
     <row r="14" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="118"/>
-      <c r="B14" s="118"/>
+      <c r="A14" s="112"/>
+      <c r="B14" s="112"/>
       <c r="C14" s="130"/>
       <c r="D14" s="131"/>
       <c r="E14" s="26">
@@ -4919,18 +4919,18 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="123"/>
-      <c r="V14" s="123"/>
-      <c r="W14" s="126"/>
+      <c r="U14" s="111"/>
+      <c r="V14" s="111"/>
+      <c r="W14" s="105"/>
       <c r="X14" s="24"/>
-      <c r="Y14" s="126"/>
-      <c r="Z14" s="127"/>
+      <c r="Y14" s="105"/>
+      <c r="Z14" s="106"/>
     </row>
     <row r="16" spans="1:26" ht="18" x14ac:dyDescent="0.3">
-      <c r="B16" s="128" t="s">
+      <c r="B16" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="128"/>
+      <c r="C16" s="107"/>
       <c r="D16" s="30">
         <v>42916</v>
       </c>
@@ -5012,6 +5012,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
     <mergeCell ref="Y11:Y12"/>
     <mergeCell ref="Z11:Z14"/>
     <mergeCell ref="Y13:Y14"/>
@@ -5028,15 +5037,6 @@
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="Y9:Y10"/>
     <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -5069,11 +5069,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:27" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
       <c r="Q2" s="15" t="s">
         <v>40</v>
       </c>
@@ -5187,141 +5187,141 @@
       <c r="W6" s="18"/>
     </row>
     <row r="7" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="107" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
-      <c r="S7" s="107"/>
-      <c r="T7" s="107"/>
-      <c r="U7" s="107"/>
-      <c r="V7" s="107"/>
-      <c r="W7" s="107"/>
+      <c r="A7" s="119" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="119"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="119"/>
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
+      <c r="S7" s="119"/>
+      <c r="T7" s="119"/>
+      <c r="U7" s="119"/>
+      <c r="V7" s="119"/>
+      <c r="W7" s="119"/>
     </row>
     <row r="8" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="107" t="s">
+      <c r="A8" s="119" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="107"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="107"/>
-      <c r="N8" s="107"/>
-      <c r="O8" s="107"/>
-      <c r="P8" s="107"/>
-      <c r="Q8" s="107"/>
-      <c r="R8" s="107"/>
-      <c r="S8" s="107"/>
-      <c r="T8" s="107"/>
-      <c r="U8" s="107"/>
-      <c r="V8" s="107"/>
-      <c r="W8" s="107"/>
+      <c r="B8" s="119"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="119"/>
+      <c r="K8" s="119"/>
+      <c r="L8" s="119"/>
+      <c r="M8" s="119"/>
+      <c r="N8" s="119"/>
+      <c r="O8" s="119"/>
+      <c r="P8" s="119"/>
+      <c r="Q8" s="119"/>
+      <c r="R8" s="119"/>
+      <c r="S8" s="119"/>
+      <c r="T8" s="119"/>
+      <c r="U8" s="119"/>
+      <c r="V8" s="119"/>
+      <c r="W8" s="119"/>
     </row>
     <row r="9" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="109" t="s">
+      <c r="B9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="109" t="s">
+      <c r="C9" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="109" t="s">
+      <c r="D9" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="109"/>
-      <c r="J9" s="109"/>
-      <c r="K9" s="109"/>
-      <c r="L9" s="109"/>
-      <c r="M9" s="109"/>
-      <c r="N9" s="109"/>
-      <c r="O9" s="109"/>
-      <c r="P9" s="109"/>
-      <c r="Q9" s="109"/>
-      <c r="R9" s="109"/>
-      <c r="S9" s="109"/>
-      <c r="T9" s="117" t="s">
+      <c r="E9" s="121"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="121"/>
+      <c r="K9" s="121"/>
+      <c r="L9" s="121"/>
+      <c r="M9" s="121"/>
+      <c r="N9" s="121"/>
+      <c r="O9" s="121"/>
+      <c r="P9" s="121"/>
+      <c r="Q9" s="121"/>
+      <c r="R9" s="121"/>
+      <c r="S9" s="121"/>
+      <c r="T9" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="U9" s="117" t="s">
+      <c r="U9" s="129" t="s">
         <v>49</v>
       </c>
-      <c r="V9" s="117" t="s">
+      <c r="V9" s="129" t="s">
         <v>50</v>
       </c>
-      <c r="W9" s="117" t="s">
+      <c r="W9" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="X9" s="117" t="s">
+      <c r="X9" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="Y9" s="103" t="s">
+      <c r="Y9" s="115" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="109"/>
-      <c r="B10" s="109"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="109"/>
-      <c r="M10" s="109"/>
-      <c r="N10" s="109"/>
-      <c r="O10" s="109"/>
-      <c r="P10" s="109"/>
-      <c r="Q10" s="109"/>
-      <c r="R10" s="109"/>
-      <c r="S10" s="109"/>
-      <c r="T10" s="117"/>
-      <c r="U10" s="117"/>
-      <c r="V10" s="117"/>
-      <c r="W10" s="117"/>
-      <c r="X10" s="117"/>
-      <c r="Y10" s="103"/>
+      <c r="A10" s="121"/>
+      <c r="B10" s="121"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="121"/>
+      <c r="K10" s="121"/>
+      <c r="L10" s="121"/>
+      <c r="M10" s="121"/>
+      <c r="N10" s="121"/>
+      <c r="O10" s="121"/>
+      <c r="P10" s="121"/>
+      <c r="Q10" s="121"/>
+      <c r="R10" s="121"/>
+      <c r="S10" s="121"/>
+      <c r="T10" s="129"/>
+      <c r="U10" s="129"/>
+      <c r="V10" s="129"/>
+      <c r="W10" s="129"/>
+      <c r="X10" s="129"/>
+      <c r="Y10" s="115"/>
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="118">
+      <c r="A11" s="112">
         <v>1</v>
       </c>
-      <c r="B11" s="119" t="s">
+      <c r="B11" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="120" t="s">
+      <c r="C11" s="114" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="25">
@@ -5372,20 +5372,20 @@
       <c r="S11" s="25">
         <v>16</v>
       </c>
-      <c r="T11" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="U11" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="124" t="s">
+      <c r="T11" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="U11" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="103" t="s">
         <v>8</v>
       </c>
       <c r="W11" s="22"/>
-      <c r="X11" s="124">
+      <c r="X11" s="103">
         <v>20</v>
       </c>
-      <c r="Y11" s="127">
+      <c r="Y11" s="106">
         <v>6565</v>
       </c>
       <c r="Z11" s="2">
@@ -5394,9 +5394,9 @@
       </c>
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="118"/>
-      <c r="B12" s="119"/>
-      <c r="C12" s="120"/>
+      <c r="A12" s="112"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="114"/>
       <c r="D12" s="26">
         <v>8</v>
       </c>
@@ -5445,12 +5445,12 @@
       <c r="S12" s="26">
         <v>8</v>
       </c>
-      <c r="T12" s="122"/>
-      <c r="U12" s="122"/>
-      <c r="V12" s="125"/>
+      <c r="T12" s="110"/>
+      <c r="U12" s="110"/>
+      <c r="V12" s="104"/>
       <c r="W12" s="23"/>
-      <c r="X12" s="126"/>
-      <c r="Y12" s="127"/>
+      <c r="X12" s="105"/>
+      <c r="Y12" s="106"/>
       <c r="Z12" s="2" t="s">
         <v>52</v>
       </c>
@@ -5460,9 +5460,9 @@
       </c>
     </row>
     <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="118"/>
-      <c r="B13" s="119"/>
-      <c r="C13" s="120"/>
+      <c r="A13" s="112"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="114"/>
       <c r="D13" s="27">
         <v>17</v>
       </c>
@@ -5511,24 +5511,24 @@
       <c r="S13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T13" s="122"/>
-      <c r="U13" s="122"/>
-      <c r="V13" s="125"/>
+      <c r="T13" s="110"/>
+      <c r="U13" s="110"/>
+      <c r="V13" s="104"/>
       <c r="W13" s="23"/>
-      <c r="X13" s="124">
+      <c r="X13" s="103">
         <f>Z11+Z13</f>
         <v>160</v>
       </c>
-      <c r="Y13" s="127"/>
+      <c r="Y13" s="106"/>
       <c r="Z13" s="2">
         <f>SUM(D14:S14)</f>
         <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="118"/>
-      <c r="B14" s="119"/>
-      <c r="C14" s="120"/>
+      <c r="A14" s="112"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="114"/>
       <c r="D14" s="26">
         <v>8</v>
       </c>
@@ -5577,21 +5577,21 @@
       <c r="S14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="123"/>
-      <c r="U14" s="123"/>
-      <c r="V14" s="126"/>
+      <c r="T14" s="111"/>
+      <c r="U14" s="111"/>
+      <c r="V14" s="105"/>
       <c r="W14" s="24"/>
-      <c r="X14" s="126"/>
-      <c r="Y14" s="127"/>
+      <c r="X14" s="105"/>
+      <c r="Y14" s="106"/>
     </row>
     <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="118">
-        <v>2</v>
-      </c>
-      <c r="B15" s="119" t="s">
+      <c r="A15" s="112">
+        <v>2</v>
+      </c>
+      <c r="B15" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="120" t="s">
+      <c r="C15" s="114" t="s">
         <v>65</v>
       </c>
       <c r="D15" s="25">
@@ -5642,20 +5642,20 @@
       <c r="S15" s="25">
         <v>16</v>
       </c>
-      <c r="T15" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="U15" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="V15" s="124" t="s">
+      <c r="T15" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="U15" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="V15" s="103" t="s">
         <v>8</v>
       </c>
       <c r="W15" s="42"/>
-      <c r="X15" s="124">
+      <c r="X15" s="103">
         <v>20</v>
       </c>
-      <c r="Y15" s="127">
+      <c r="Y15" s="106">
         <v>6565</v>
       </c>
       <c r="Z15" s="2">
@@ -5664,9 +5664,9 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="118"/>
-      <c r="B16" s="119"/>
-      <c r="C16" s="120"/>
+      <c r="A16" s="112"/>
+      <c r="B16" s="113"/>
+      <c r="C16" s="114"/>
       <c r="D16" s="26">
         <v>8</v>
       </c>
@@ -5715,12 +5715,12 @@
       <c r="S16" s="26">
         <v>8</v>
       </c>
-      <c r="T16" s="122"/>
-      <c r="U16" s="122"/>
-      <c r="V16" s="125"/>
+      <c r="T16" s="110"/>
+      <c r="U16" s="110"/>
+      <c r="V16" s="104"/>
       <c r="W16" s="44"/>
-      <c r="X16" s="126"/>
-      <c r="Y16" s="127"/>
+      <c r="X16" s="105"/>
+      <c r="Y16" s="106"/>
       <c r="Z16" s="2" t="s">
         <v>52</v>
       </c>
@@ -5730,9 +5730,9 @@
       </c>
     </row>
     <row r="17" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="118"/>
-      <c r="B17" s="119"/>
-      <c r="C17" s="120"/>
+      <c r="A17" s="112"/>
+      <c r="B17" s="113"/>
+      <c r="C17" s="114"/>
       <c r="D17" s="27">
         <v>17</v>
       </c>
@@ -5781,24 +5781,24 @@
       <c r="S17" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T17" s="122"/>
-      <c r="U17" s="122"/>
-      <c r="V17" s="125"/>
+      <c r="T17" s="110"/>
+      <c r="U17" s="110"/>
+      <c r="V17" s="104"/>
       <c r="W17" s="44"/>
-      <c r="X17" s="124">
+      <c r="X17" s="103">
         <f>Z15+Z17</f>
         <v>160</v>
       </c>
-      <c r="Y17" s="127"/>
+      <c r="Y17" s="106"/>
       <c r="Z17" s="2">
         <f>SUM(D18:S18)</f>
         <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="118"/>
-      <c r="B18" s="119"/>
-      <c r="C18" s="120"/>
+      <c r="A18" s="112"/>
+      <c r="B18" s="113"/>
+      <c r="C18" s="114"/>
       <c r="D18" s="26">
         <v>8</v>
       </c>
@@ -5847,21 +5847,21 @@
       <c r="S18" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T18" s="123"/>
-      <c r="U18" s="123"/>
-      <c r="V18" s="126"/>
+      <c r="T18" s="111"/>
+      <c r="U18" s="111"/>
+      <c r="V18" s="105"/>
       <c r="W18" s="43"/>
-      <c r="X18" s="126"/>
-      <c r="Y18" s="127"/>
+      <c r="X18" s="105"/>
+      <c r="Y18" s="106"/>
     </row>
     <row r="19" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="118">
+      <c r="A19" s="112">
         <v>3</v>
       </c>
-      <c r="B19" s="119" t="s">
+      <c r="B19" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="120" t="s">
+      <c r="C19" s="114" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="25">
@@ -5912,20 +5912,20 @@
       <c r="S19" s="25">
         <v>16</v>
       </c>
-      <c r="T19" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="U19" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="V19" s="124" t="s">
+      <c r="T19" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="U19" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="V19" s="103" t="s">
         <v>8</v>
       </c>
       <c r="W19" s="53"/>
-      <c r="X19" s="124">
+      <c r="X19" s="103">
         <v>20</v>
       </c>
-      <c r="Y19" s="127">
+      <c r="Y19" s="106">
         <v>6825</v>
       </c>
       <c r="Z19" s="2">
@@ -5934,9 +5934,9 @@
       </c>
     </row>
     <row r="20" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="118"/>
-      <c r="B20" s="119"/>
-      <c r="C20" s="120"/>
+      <c r="A20" s="112"/>
+      <c r="B20" s="113"/>
+      <c r="C20" s="114"/>
       <c r="D20" s="26">
         <v>8</v>
       </c>
@@ -5985,12 +5985,12 @@
       <c r="S20" s="26">
         <v>8</v>
       </c>
-      <c r="T20" s="122"/>
-      <c r="U20" s="122"/>
-      <c r="V20" s="125"/>
+      <c r="T20" s="110"/>
+      <c r="U20" s="110"/>
+      <c r="V20" s="104"/>
       <c r="W20" s="55"/>
-      <c r="X20" s="126"/>
-      <c r="Y20" s="127"/>
+      <c r="X20" s="105"/>
+      <c r="Y20" s="106"/>
       <c r="Z20" s="2" t="s">
         <v>52</v>
       </c>
@@ -6000,9 +6000,9 @@
       </c>
     </row>
     <row r="21" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="118"/>
-      <c r="B21" s="119"/>
-      <c r="C21" s="120"/>
+      <c r="A21" s="112"/>
+      <c r="B21" s="113"/>
+      <c r="C21" s="114"/>
       <c r="D21" s="27">
         <v>17</v>
       </c>
@@ -6051,24 +6051,24 @@
       <c r="S21" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T21" s="122"/>
-      <c r="U21" s="122"/>
-      <c r="V21" s="125"/>
+      <c r="T21" s="110"/>
+      <c r="U21" s="110"/>
+      <c r="V21" s="104"/>
       <c r="W21" s="55"/>
-      <c r="X21" s="124">
+      <c r="X21" s="103">
         <f>Z19+Z21</f>
         <v>160</v>
       </c>
-      <c r="Y21" s="127"/>
+      <c r="Y21" s="106"/>
       <c r="Z21" s="2">
         <f>SUM(D22:S22)</f>
         <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="118"/>
-      <c r="B22" s="119"/>
-      <c r="C22" s="120"/>
+      <c r="A22" s="112"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="114"/>
       <c r="D22" s="26">
         <v>8</v>
       </c>
@@ -6117,21 +6117,21 @@
       <c r="S22" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T22" s="123"/>
-      <c r="U22" s="123"/>
-      <c r="V22" s="126"/>
+      <c r="T22" s="111"/>
+      <c r="U22" s="111"/>
+      <c r="V22" s="105"/>
       <c r="W22" s="54"/>
-      <c r="X22" s="126"/>
-      <c r="Y22" s="127"/>
+      <c r="X22" s="105"/>
+      <c r="Y22" s="106"/>
     </row>
     <row r="23" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="118">
+      <c r="A23" s="112">
         <v>4</v>
       </c>
-      <c r="B23" s="119" t="s">
+      <c r="B23" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="120" t="s">
+      <c r="C23" s="114" t="s">
         <v>32</v>
       </c>
       <c r="D23" s="25">
@@ -6182,20 +6182,20 @@
       <c r="S23" s="25">
         <v>16</v>
       </c>
-      <c r="T23" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="U23" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="V23" s="124" t="s">
+      <c r="T23" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="U23" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="V23" s="103" t="s">
         <v>8</v>
       </c>
       <c r="W23" s="53"/>
-      <c r="X23" s="124">
+      <c r="X23" s="103">
         <v>20</v>
       </c>
-      <c r="Y23" s="127">
+      <c r="Y23" s="106">
         <v>6565</v>
       </c>
       <c r="Z23" s="2">
@@ -6204,9 +6204,9 @@
       </c>
     </row>
     <row r="24" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="118"/>
-      <c r="B24" s="119"/>
-      <c r="C24" s="120"/>
+      <c r="A24" s="112"/>
+      <c r="B24" s="113"/>
+      <c r="C24" s="114"/>
       <c r="D24" s="26">
         <v>8</v>
       </c>
@@ -6255,12 +6255,12 @@
       <c r="S24" s="26">
         <v>8</v>
       </c>
-      <c r="T24" s="122"/>
-      <c r="U24" s="122"/>
-      <c r="V24" s="125"/>
+      <c r="T24" s="110"/>
+      <c r="U24" s="110"/>
+      <c r="V24" s="104"/>
       <c r="W24" s="55"/>
-      <c r="X24" s="126"/>
-      <c r="Y24" s="127"/>
+      <c r="X24" s="105"/>
+      <c r="Y24" s="106"/>
       <c r="Z24" s="2" t="s">
         <v>52</v>
       </c>
@@ -6270,9 +6270,9 @@
       </c>
     </row>
     <row r="25" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="118"/>
-      <c r="B25" s="119"/>
-      <c r="C25" s="120"/>
+      <c r="A25" s="112"/>
+      <c r="B25" s="113"/>
+      <c r="C25" s="114"/>
       <c r="D25" s="27">
         <v>17</v>
       </c>
@@ -6321,24 +6321,24 @@
       <c r="S25" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T25" s="122"/>
-      <c r="U25" s="122"/>
-      <c r="V25" s="125"/>
+      <c r="T25" s="110"/>
+      <c r="U25" s="110"/>
+      <c r="V25" s="104"/>
       <c r="W25" s="55"/>
-      <c r="X25" s="124">
+      <c r="X25" s="103">
         <f>Z23+Z25</f>
         <v>160</v>
       </c>
-      <c r="Y25" s="127"/>
+      <c r="Y25" s="106"/>
       <c r="Z25" s="2">
         <f>SUM(D26:S26)</f>
         <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="118"/>
-      <c r="B26" s="119"/>
-      <c r="C26" s="120"/>
+      <c r="A26" s="112"/>
+      <c r="B26" s="113"/>
+      <c r="C26" s="114"/>
       <c r="D26" s="26">
         <v>8</v>
       </c>
@@ -6387,15 +6387,15 @@
       <c r="S26" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T26" s="123"/>
-      <c r="U26" s="123"/>
-      <c r="V26" s="126"/>
+      <c r="T26" s="111"/>
+      <c r="U26" s="111"/>
+      <c r="V26" s="105"/>
       <c r="W26" s="54"/>
-      <c r="X26" s="126"/>
-      <c r="Y26" s="127"/>
+      <c r="X26" s="105"/>
+      <c r="Y26" s="106"/>
     </row>
     <row r="27" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="118">
+      <c r="A27" s="112">
         <v>5</v>
       </c>
       <c r="B27" s="130" t="s">
@@ -6452,20 +6452,20 @@
       <c r="S27" s="25">
         <v>16</v>
       </c>
-      <c r="T27" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="U27" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="V27" s="124" t="s">
+      <c r="T27" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="U27" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="V27" s="103" t="s">
         <v>8</v>
       </c>
       <c r="W27" s="53"/>
-      <c r="X27" s="124">
+      <c r="X27" s="103">
         <v>20</v>
       </c>
-      <c r="Y27" s="127">
+      <c r="Y27" s="106">
         <v>6565</v>
       </c>
       <c r="Z27" s="2">
@@ -6474,7 +6474,7 @@
       </c>
     </row>
     <row r="28" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="118"/>
+      <c r="A28" s="112"/>
       <c r="B28" s="130"/>
       <c r="C28" s="131"/>
       <c r="D28" s="26">
@@ -6525,12 +6525,12 @@
       <c r="S28" s="26">
         <v>8</v>
       </c>
-      <c r="T28" s="122"/>
-      <c r="U28" s="122"/>
-      <c r="V28" s="125"/>
+      <c r="T28" s="110"/>
+      <c r="U28" s="110"/>
+      <c r="V28" s="104"/>
       <c r="W28" s="55"/>
-      <c r="X28" s="126"/>
-      <c r="Y28" s="127"/>
+      <c r="X28" s="105"/>
+      <c r="Y28" s="106"/>
       <c r="Z28" s="2" t="s">
         <v>52</v>
       </c>
@@ -6540,7 +6540,7 @@
       </c>
     </row>
     <row r="29" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="118"/>
+      <c r="A29" s="112"/>
       <c r="B29" s="130"/>
       <c r="C29" s="131"/>
       <c r="D29" s="27">
@@ -6591,22 +6591,22 @@
       <c r="S29" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T29" s="122"/>
-      <c r="U29" s="122"/>
-      <c r="V29" s="125"/>
+      <c r="T29" s="110"/>
+      <c r="U29" s="110"/>
+      <c r="V29" s="104"/>
       <c r="W29" s="55"/>
-      <c r="X29" s="124">
+      <c r="X29" s="103">
         <f>Z27+Z29</f>
         <v>160</v>
       </c>
-      <c r="Y29" s="127"/>
+      <c r="Y29" s="106"/>
       <c r="Z29" s="2">
         <f>SUM(D30:S30)</f>
         <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="118"/>
+      <c r="A30" s="112"/>
       <c r="B30" s="130"/>
       <c r="C30" s="131"/>
       <c r="D30" s="26">
@@ -6657,21 +6657,21 @@
       <c r="S30" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T30" s="123"/>
-      <c r="U30" s="123"/>
-      <c r="V30" s="126"/>
+      <c r="T30" s="111"/>
+      <c r="U30" s="111"/>
+      <c r="V30" s="105"/>
       <c r="W30" s="54"/>
-      <c r="X30" s="126"/>
-      <c r="Y30" s="127"/>
+      <c r="X30" s="105"/>
+      <c r="Y30" s="106"/>
     </row>
     <row r="31" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="118">
+      <c r="A31" s="112">
         <v>6</v>
       </c>
-      <c r="B31" s="119" t="s">
+      <c r="B31" s="113" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="120" t="s">
+      <c r="C31" s="114" t="s">
         <v>32</v>
       </c>
       <c r="D31" s="25">
@@ -6722,20 +6722,20 @@
       <c r="S31" s="25">
         <v>16</v>
       </c>
-      <c r="T31" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="U31" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="V31" s="124" t="s">
+      <c r="T31" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="U31" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="V31" s="103" t="s">
         <v>8</v>
       </c>
       <c r="W31" s="45"/>
-      <c r="X31" s="124">
+      <c r="X31" s="103">
         <v>20</v>
       </c>
-      <c r="Y31" s="127">
+      <c r="Y31" s="106">
         <v>6565</v>
       </c>
       <c r="Z31" s="2">
@@ -6744,9 +6744,9 @@
       </c>
     </row>
     <row r="32" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="118"/>
-      <c r="B32" s="119"/>
-      <c r="C32" s="120"/>
+      <c r="A32" s="112"/>
+      <c r="B32" s="113"/>
+      <c r="C32" s="114"/>
       <c r="D32" s="26">
         <v>8</v>
       </c>
@@ -6795,12 +6795,12 @@
       <c r="S32" s="26">
         <v>8</v>
       </c>
-      <c r="T32" s="122"/>
-      <c r="U32" s="122"/>
-      <c r="V32" s="125"/>
+      <c r="T32" s="110"/>
+      <c r="U32" s="110"/>
+      <c r="V32" s="104"/>
       <c r="W32" s="47"/>
-      <c r="X32" s="126"/>
-      <c r="Y32" s="127"/>
+      <c r="X32" s="105"/>
+      <c r="Y32" s="106"/>
       <c r="Z32" s="2" t="s">
         <v>52</v>
       </c>
@@ -6810,9 +6810,9 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="118"/>
-      <c r="B33" s="119"/>
-      <c r="C33" s="120"/>
+      <c r="A33" s="112"/>
+      <c r="B33" s="113"/>
+      <c r="C33" s="114"/>
       <c r="D33" s="27">
         <v>17</v>
       </c>
@@ -6861,24 +6861,24 @@
       <c r="S33" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T33" s="122"/>
-      <c r="U33" s="122"/>
-      <c r="V33" s="125"/>
+      <c r="T33" s="110"/>
+      <c r="U33" s="110"/>
+      <c r="V33" s="104"/>
       <c r="W33" s="47"/>
-      <c r="X33" s="124">
+      <c r="X33" s="103">
         <f>Z31+Z33</f>
         <v>160</v>
       </c>
-      <c r="Y33" s="127"/>
+      <c r="Y33" s="106"/>
       <c r="Z33" s="2">
         <f>SUM(D34:S34)</f>
         <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="118"/>
-      <c r="B34" s="119"/>
-      <c r="C34" s="120"/>
+      <c r="A34" s="112"/>
+      <c r="B34" s="113"/>
+      <c r="C34" s="114"/>
       <c r="D34" s="26">
         <v>8</v>
       </c>
@@ -6927,12 +6927,12 @@
       <c r="S34" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T34" s="123"/>
-      <c r="U34" s="123"/>
-      <c r="V34" s="126"/>
+      <c r="T34" s="111"/>
+      <c r="U34" s="111"/>
+      <c r="V34" s="105"/>
       <c r="W34" s="46"/>
-      <c r="X34" s="126"/>
-      <c r="Y34" s="127"/>
+      <c r="X34" s="105"/>
+      <c r="Y34" s="106"/>
     </row>
     <row r="35" spans="1:26" s="32" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="31"/>
@@ -6947,10 +6947,10 @@
       </c>
     </row>
     <row r="36" spans="1:26" ht="18" x14ac:dyDescent="0.3">
-      <c r="A36" s="128" t="s">
+      <c r="A36" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="128"/>
+      <c r="B36" s="107"/>
       <c r="C36" s="33">
         <v>44621</v>
       </c>
@@ -7016,15 +7016,49 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="U19:U22"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="V15:V18"/>
-    <mergeCell ref="V19:V22"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="T15:T18"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="T11:T14"/>
+    <mergeCell ref="U31:U34"/>
+    <mergeCell ref="V31:V34"/>
+    <mergeCell ref="X31:X32"/>
+    <mergeCell ref="Y31:Y34"/>
+    <mergeCell ref="X33:X34"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="T31:T34"/>
+    <mergeCell ref="Y23:Y26"/>
+    <mergeCell ref="X25:X26"/>
+    <mergeCell ref="Y27:Y30"/>
+    <mergeCell ref="X29:X30"/>
+    <mergeCell ref="X27:X28"/>
+    <mergeCell ref="X23:X24"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="Y19:Y22"/>
+    <mergeCell ref="X21:X22"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y15:Y18"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="V27:V30"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="T27:T30"/>
+    <mergeCell ref="U27:U30"/>
+    <mergeCell ref="V23:V26"/>
+    <mergeCell ref="U23:U26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="T23:T26"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="T19:T22"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A7:W7"/>
@@ -7041,49 +7075,15 @@
     <mergeCell ref="V11:V14"/>
     <mergeCell ref="U11:U14"/>
     <mergeCell ref="U15:U18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="V27:V30"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="T27:T30"/>
-    <mergeCell ref="U27:U30"/>
-    <mergeCell ref="V23:V26"/>
-    <mergeCell ref="U23:U26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="T23:T26"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="T19:T22"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="Y19:Y22"/>
-    <mergeCell ref="X21:X22"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y15:Y18"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="Y23:Y26"/>
-    <mergeCell ref="X25:X26"/>
-    <mergeCell ref="Y27:Y30"/>
-    <mergeCell ref="X29:X30"/>
-    <mergeCell ref="X27:X28"/>
-    <mergeCell ref="X23:X24"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="T31:T34"/>
-    <mergeCell ref="U31:U34"/>
-    <mergeCell ref="V31:V34"/>
-    <mergeCell ref="X31:X32"/>
-    <mergeCell ref="Y31:Y34"/>
-    <mergeCell ref="X33:X34"/>
+    <mergeCell ref="U19:U22"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="V15:V18"/>
+    <mergeCell ref="V19:V22"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="T15:T18"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="T11:T14"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7119,11 +7119,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
       <c r="Q1" s="15" t="s">
         <v>40</v>
       </c>
@@ -7213,142 +7213,142 @@
       <c r="W4" s="95"/>
     </row>
     <row r="5" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="107" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="107"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="107"/>
-      <c r="K5" s="107"/>
-      <c r="L5" s="107"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
-      <c r="U5" s="107"/>
-      <c r="V5" s="107"/>
-      <c r="W5" s="107"/>
+      <c r="A5" s="119" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
+      <c r="K5" s="119"/>
+      <c r="L5" s="119"/>
+      <c r="M5" s="119"/>
+      <c r="N5" s="119"/>
+      <c r="O5" s="119"/>
+      <c r="P5" s="119"/>
+      <c r="Q5" s="119"/>
+      <c r="R5" s="119"/>
+      <c r="S5" s="119"/>
+      <c r="T5" s="119"/>
+      <c r="U5" s="119"/>
+      <c r="V5" s="119"/>
+      <c r="W5" s="119"/>
     </row>
     <row r="6" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A6" s="107" t="str">
+      <c r="A6" s="119" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЛЮТИЙ 2022 р.</v>
       </c>
-      <c r="B6" s="107"/>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="107"/>
-      <c r="K6" s="107"/>
-      <c r="L6" s="107"/>
-      <c r="M6" s="107"/>
-      <c r="N6" s="107"/>
-      <c r="O6" s="107"/>
-      <c r="P6" s="107"/>
-      <c r="Q6" s="107"/>
-      <c r="R6" s="107"/>
-      <c r="S6" s="107"/>
-      <c r="T6" s="107"/>
-      <c r="U6" s="107"/>
-      <c r="V6" s="107"/>
-      <c r="W6" s="107"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="119"/>
+      <c r="L6" s="119"/>
+      <c r="M6" s="119"/>
+      <c r="N6" s="119"/>
+      <c r="O6" s="119"/>
+      <c r="P6" s="119"/>
+      <c r="Q6" s="119"/>
+      <c r="R6" s="119"/>
+      <c r="S6" s="119"/>
+      <c r="T6" s="119"/>
+      <c r="U6" s="119"/>
+      <c r="V6" s="119"/>
+      <c r="W6" s="119"/>
     </row>
     <row r="7" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="109" t="s">
+      <c r="B7" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="109" t="s">
+      <c r="C7" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="111" t="s">
+      <c r="D7" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
-      <c r="H7" s="112"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="112"/>
-      <c r="K7" s="112"/>
-      <c r="L7" s="112"/>
-      <c r="M7" s="112"/>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="112"/>
-      <c r="S7" s="113"/>
-      <c r="T7" s="117" t="s">
+      <c r="E7" s="124"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="124"/>
+      <c r="H7" s="124"/>
+      <c r="I7" s="124"/>
+      <c r="J7" s="124"/>
+      <c r="K7" s="124"/>
+      <c r="L7" s="124"/>
+      <c r="M7" s="124"/>
+      <c r="N7" s="124"/>
+      <c r="O7" s="124"/>
+      <c r="P7" s="124"/>
+      <c r="Q7" s="124"/>
+      <c r="R7" s="124"/>
+      <c r="S7" s="125"/>
+      <c r="T7" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="U7" s="117" t="s">
+      <c r="U7" s="129" t="s">
         <v>49</v>
       </c>
-      <c r="V7" s="117" t="s">
+      <c r="V7" s="129" t="s">
         <v>50</v>
       </c>
-      <c r="W7" s="117" t="s">
+      <c r="W7" s="129" t="s">
         <v>77</v>
       </c>
-      <c r="X7" s="117" t="s">
+      <c r="X7" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="Y7" s="103" t="s">
+      <c r="Y7" s="115" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="109"/>
-      <c r="B8" s="109"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="115"/>
-      <c r="N8" s="115"/>
-      <c r="O8" s="115"/>
-      <c r="P8" s="115"/>
-      <c r="Q8" s="115"/>
-      <c r="R8" s="115"/>
-      <c r="S8" s="116"/>
-      <c r="T8" s="117"/>
-      <c r="U8" s="117"/>
-      <c r="V8" s="117"/>
-      <c r="W8" s="117"/>
-      <c r="X8" s="117"/>
-      <c r="Y8" s="103"/>
+      <c r="A8" s="121"/>
+      <c r="B8" s="121"/>
+      <c r="C8" s="121"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="127"/>
+      <c r="F8" s="127"/>
+      <c r="G8" s="127"/>
+      <c r="H8" s="127"/>
+      <c r="I8" s="127"/>
+      <c r="J8" s="127"/>
+      <c r="K8" s="127"/>
+      <c r="L8" s="127"/>
+      <c r="M8" s="127"/>
+      <c r="N8" s="127"/>
+      <c r="O8" s="127"/>
+      <c r="P8" s="127"/>
+      <c r="Q8" s="127"/>
+      <c r="R8" s="127"/>
+      <c r="S8" s="128"/>
+      <c r="T8" s="129"/>
+      <c r="U8" s="129"/>
+      <c r="V8" s="129"/>
+      <c r="W8" s="129"/>
+      <c r="X8" s="129"/>
+      <c r="Y8" s="115"/>
     </row>
     <row r="9" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="118">
+      <c r="A9" s="112">
         <v>1</v>
       </c>
-      <c r="B9" s="119" t="s">
+      <c r="B9" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="141" t="s">
+      <c r="C9" s="139" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="25">
@@ -7399,29 +7399,29 @@
       <c r="S9" s="25">
         <v>16</v>
       </c>
-      <c r="T9" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="U9" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="V9" s="124" t="s">
-        <v>8</v>
-      </c>
-      <c r="W9" s="124" t="s">
-        <v>8</v>
-      </c>
-      <c r="X9" s="124">
+      <c r="T9" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="U9" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="V9" s="103" t="s">
+        <v>8</v>
+      </c>
+      <c r="W9" s="103" t="s">
+        <v>8</v>
+      </c>
+      <c r="X9" s="103">
         <v>20</v>
       </c>
-      <c r="Y9" s="127">
+      <c r="Y9" s="106">
         <v>6825</v>
       </c>
     </row>
     <row r="10" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="118"/>
-      <c r="B10" s="119"/>
-      <c r="C10" s="142"/>
+      <c r="A10" s="112"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="140"/>
       <c r="D10" s="26">
         <v>8</v>
       </c>
@@ -7470,21 +7470,21 @@
       <c r="S10" s="26">
         <v>8</v>
       </c>
-      <c r="T10" s="122"/>
-      <c r="U10" s="122"/>
-      <c r="V10" s="125"/>
-      <c r="W10" s="125"/>
-      <c r="X10" s="126"/>
-      <c r="Y10" s="127"/>
+      <c r="T10" s="110"/>
+      <c r="U10" s="110"/>
+      <c r="V10" s="104"/>
+      <c r="W10" s="104"/>
+      <c r="X10" s="105"/>
+      <c r="Y10" s="106"/>
       <c r="Z10" s="3">
         <f>SUM(D10:S10)</f>
         <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="118"/>
-      <c r="B11" s="119"/>
-      <c r="C11" s="142"/>
+      <c r="A11" s="112"/>
+      <c r="B11" s="113"/>
+      <c r="C11" s="140"/>
       <c r="D11" s="27">
         <v>17</v>
       </c>
@@ -7533,20 +7533,20 @@
       <c r="S11" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T11" s="122"/>
-      <c r="U11" s="122"/>
-      <c r="V11" s="125"/>
-      <c r="W11" s="125"/>
-      <c r="X11" s="124">
+      <c r="T11" s="110"/>
+      <c r="U11" s="110"/>
+      <c r="V11" s="104"/>
+      <c r="W11" s="104"/>
+      <c r="X11" s="103">
         <f>Z10+Z12</f>
         <v>160</v>
       </c>
-      <c r="Y11" s="127"/>
+      <c r="Y11" s="106"/>
     </row>
     <row r="12" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="118"/>
-      <c r="B12" s="119"/>
-      <c r="C12" s="143"/>
+      <c r="A12" s="112"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="141"/>
       <c r="D12" s="26">
         <v>8</v>
       </c>
@@ -7595,25 +7595,25 @@
       <c r="S12" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T12" s="123"/>
-      <c r="U12" s="123"/>
-      <c r="V12" s="126"/>
-      <c r="W12" s="126"/>
-      <c r="X12" s="126"/>
-      <c r="Y12" s="127"/>
+      <c r="T12" s="111"/>
+      <c r="U12" s="111"/>
+      <c r="V12" s="105"/>
+      <c r="W12" s="105"/>
+      <c r="X12" s="105"/>
+      <c r="Y12" s="106"/>
       <c r="Z12" s="2">
         <f>SUM(D12:S12)</f>
         <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="118">
-        <v>2</v>
-      </c>
-      <c r="B13" s="119" t="s">
+      <c r="A13" s="112">
+        <v>2</v>
+      </c>
+      <c r="B13" s="113" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="120" t="str">
+      <c r="C13" s="114" t="str">
         <f>C9</f>
         <v>лікар-стоматолог</v>
       </c>
@@ -7665,22 +7665,22 @@
       <c r="S13" s="25">
         <v>16</v>
       </c>
-      <c r="T13" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="U13" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="V13" s="124" t="s">
-        <v>8</v>
-      </c>
-      <c r="W13" s="124" t="s">
-        <v>8</v>
-      </c>
-      <c r="X13" s="124">
+      <c r="T13" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="U13" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="V13" s="103" t="s">
+        <v>8</v>
+      </c>
+      <c r="W13" s="103" t="s">
+        <v>8</v>
+      </c>
+      <c r="X13" s="103">
         <v>20</v>
       </c>
-      <c r="Y13" s="127">
+      <c r="Y13" s="106">
         <v>6825</v>
       </c>
       <c r="Z13" s="2" t="s">
@@ -7692,9 +7692,9 @@
       </c>
     </row>
     <row r="14" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="118"/>
-      <c r="B14" s="119"/>
-      <c r="C14" s="120"/>
+      <c r="A14" s="112"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="114"/>
       <c r="D14" s="26">
         <v>8</v>
       </c>
@@ -7743,12 +7743,12 @@
       <c r="S14" s="26">
         <v>8</v>
       </c>
-      <c r="T14" s="122"/>
-      <c r="U14" s="122"/>
-      <c r="V14" s="125"/>
-      <c r="W14" s="125"/>
-      <c r="X14" s="126"/>
-      <c r="Y14" s="127"/>
+      <c r="T14" s="110"/>
+      <c r="U14" s="110"/>
+      <c r="V14" s="104"/>
+      <c r="W14" s="104"/>
+      <c r="X14" s="105"/>
+      <c r="Y14" s="106"/>
       <c r="Z14" s="2">
         <f>SUM(D14:S14)</f>
         <v>96</v>
@@ -7759,9 +7759,9 @@
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="118"/>
-      <c r="B15" s="119"/>
-      <c r="C15" s="120"/>
+      <c r="A15" s="112"/>
+      <c r="B15" s="113"/>
+      <c r="C15" s="114"/>
       <c r="D15" s="27">
         <v>17</v>
       </c>
@@ -7810,20 +7810,20 @@
       <c r="S15" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T15" s="122"/>
-      <c r="U15" s="122"/>
-      <c r="V15" s="125"/>
-      <c r="W15" s="125"/>
-      <c r="X15" s="124">
+      <c r="T15" s="110"/>
+      <c r="U15" s="110"/>
+      <c r="V15" s="104"/>
+      <c r="W15" s="104"/>
+      <c r="X15" s="103">
         <f>Z14+Z16</f>
         <v>160</v>
       </c>
-      <c r="Y15" s="127"/>
+      <c r="Y15" s="106"/>
     </row>
     <row r="16" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="118"/>
-      <c r="B16" s="119"/>
-      <c r="C16" s="120"/>
+      <c r="A16" s="112"/>
+      <c r="B16" s="113"/>
+      <c r="C16" s="114"/>
       <c r="D16" s="26">
         <v>8</v>
       </c>
@@ -7872,12 +7872,12 @@
       <c r="S16" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T16" s="123"/>
-      <c r="U16" s="123"/>
-      <c r="V16" s="126"/>
-      <c r="W16" s="126"/>
-      <c r="X16" s="126"/>
-      <c r="Y16" s="127"/>
+      <c r="T16" s="111"/>
+      <c r="U16" s="111"/>
+      <c r="V16" s="105"/>
+      <c r="W16" s="105"/>
+      <c r="X16" s="105"/>
+      <c r="Y16" s="106"/>
       <c r="Z16" s="2">
         <f>SUM(D16:S16)</f>
         <v>64</v>
@@ -7888,13 +7888,13 @@
       </c>
     </row>
     <row r="17" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="138">
+      <c r="A17" s="148">
         <v>3</v>
       </c>
-      <c r="B17" s="139" t="s">
+      <c r="B17" s="149" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="140" t="s">
+      <c r="C17" s="138" t="s">
         <v>73</v>
       </c>
       <c r="D17" s="25">
@@ -7945,29 +7945,29 @@
       <c r="S17" s="25">
         <v>16</v>
       </c>
-      <c r="T17" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="U17" s="135" t="s">
-        <v>8</v>
-      </c>
-      <c r="V17" s="132" t="s">
-        <v>8</v>
-      </c>
-      <c r="W17" s="132" t="s">
-        <v>8</v>
-      </c>
-      <c r="X17" s="132">
+      <c r="T17" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="U17" s="145" t="s">
+        <v>8</v>
+      </c>
+      <c r="V17" s="142" t="s">
+        <v>8</v>
+      </c>
+      <c r="W17" s="142" t="s">
+        <v>8</v>
+      </c>
+      <c r="X17" s="142">
         <v>20</v>
       </c>
-      <c r="Y17" s="127">
+      <c r="Y17" s="106">
         <v>6565</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="138"/>
-      <c r="B18" s="139"/>
-      <c r="C18" s="140"/>
+      <c r="A18" s="148"/>
+      <c r="B18" s="149"/>
+      <c r="C18" s="138"/>
       <c r="D18" s="26">
         <v>4</v>
       </c>
@@ -8016,21 +8016,21 @@
       <c r="S18" s="26">
         <v>4</v>
       </c>
-      <c r="T18" s="122"/>
-      <c r="U18" s="136"/>
-      <c r="V18" s="133"/>
-      <c r="W18" s="133"/>
-      <c r="X18" s="134"/>
-      <c r="Y18" s="127"/>
+      <c r="T18" s="110"/>
+      <c r="U18" s="146"/>
+      <c r="V18" s="144"/>
+      <c r="W18" s="144"/>
+      <c r="X18" s="143"/>
+      <c r="Y18" s="106"/>
       <c r="Z18" s="2">
         <f>SUM(D18:S18)</f>
         <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="138"/>
-      <c r="B19" s="139"/>
-      <c r="C19" s="140"/>
+      <c r="A19" s="148"/>
+      <c r="B19" s="149"/>
+      <c r="C19" s="138"/>
       <c r="D19" s="27">
         <v>17</v>
       </c>
@@ -8079,20 +8079,20 @@
       <c r="S19" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T19" s="122"/>
-      <c r="U19" s="136"/>
-      <c r="V19" s="133"/>
-      <c r="W19" s="133"/>
-      <c r="X19" s="124">
+      <c r="T19" s="110"/>
+      <c r="U19" s="146"/>
+      <c r="V19" s="144"/>
+      <c r="W19" s="144"/>
+      <c r="X19" s="103">
         <f>Z18+Z20</f>
         <v>80</v>
       </c>
-      <c r="Y19" s="127"/>
+      <c r="Y19" s="106"/>
     </row>
     <row r="20" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="138"/>
-      <c r="B20" s="139"/>
-      <c r="C20" s="140"/>
+      <c r="A20" s="148"/>
+      <c r="B20" s="149"/>
+      <c r="C20" s="138"/>
       <c r="D20" s="26">
         <v>4</v>
       </c>
@@ -8141,25 +8141,25 @@
       <c r="S20" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T20" s="123"/>
-      <c r="U20" s="137"/>
-      <c r="V20" s="134"/>
-      <c r="W20" s="134"/>
-      <c r="X20" s="126"/>
-      <c r="Y20" s="127"/>
+      <c r="T20" s="111"/>
+      <c r="U20" s="147"/>
+      <c r="V20" s="143"/>
+      <c r="W20" s="143"/>
+      <c r="X20" s="105"/>
+      <c r="Y20" s="106"/>
       <c r="Z20" s="2">
         <f>SUM(D20:S20)</f>
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="147">
+      <c r="A21" s="132">
         <v>4</v>
       </c>
-      <c r="B21" s="144" t="s">
+      <c r="B21" s="135" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="140" t="s">
+      <c r="C21" s="138" t="s">
         <v>26</v>
       </c>
       <c r="D21" s="25">
@@ -8210,29 +8210,29 @@
       <c r="S21" s="25">
         <v>16</v>
       </c>
-      <c r="T21" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="U21" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="V21" s="124" t="s">
-        <v>8</v>
-      </c>
-      <c r="W21" s="124" t="s">
-        <v>8</v>
-      </c>
-      <c r="X21" s="124">
+      <c r="T21" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="U21" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="V21" s="103" t="s">
+        <v>8</v>
+      </c>
+      <c r="W21" s="103" t="s">
+        <v>8</v>
+      </c>
+      <c r="X21" s="103">
         <v>20</v>
       </c>
-      <c r="Y21" s="127">
+      <c r="Y21" s="106">
         <v>6565</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="148"/>
-      <c r="B22" s="145"/>
-      <c r="C22" s="140"/>
+      <c r="A22" s="133"/>
+      <c r="B22" s="136"/>
+      <c r="C22" s="138"/>
       <c r="D22" s="26">
         <v>8</v>
       </c>
@@ -8281,21 +8281,21 @@
       <c r="S22" s="26">
         <v>8</v>
       </c>
-      <c r="T22" s="122"/>
-      <c r="U22" s="122"/>
-      <c r="V22" s="125"/>
-      <c r="W22" s="125"/>
-      <c r="X22" s="125"/>
-      <c r="Y22" s="127"/>
+      <c r="T22" s="110"/>
+      <c r="U22" s="110"/>
+      <c r="V22" s="104"/>
+      <c r="W22" s="104"/>
+      <c r="X22" s="104"/>
+      <c r="Y22" s="106"/>
       <c r="Z22" s="2">
         <f>SUM(D22:S22)</f>
         <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="148"/>
-      <c r="B23" s="145"/>
-      <c r="C23" s="140"/>
+      <c r="A23" s="133"/>
+      <c r="B23" s="136"/>
+      <c r="C23" s="138"/>
       <c r="D23" s="27">
         <v>17</v>
       </c>
@@ -8344,20 +8344,20 @@
       <c r="S23" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T23" s="122"/>
-      <c r="U23" s="122"/>
-      <c r="V23" s="125"/>
-      <c r="W23" s="125"/>
-      <c r="X23" s="124">
+      <c r="T23" s="110"/>
+      <c r="U23" s="110"/>
+      <c r="V23" s="104"/>
+      <c r="W23" s="104"/>
+      <c r="X23" s="103">
         <f>Z22+Z24</f>
         <v>160</v>
       </c>
-      <c r="Y23" s="127"/>
+      <c r="Y23" s="106"/>
     </row>
     <row r="24" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="149"/>
-      <c r="B24" s="146"/>
-      <c r="C24" s="140"/>
+      <c r="A24" s="134"/>
+      <c r="B24" s="137"/>
+      <c r="C24" s="138"/>
       <c r="D24" s="26">
         <v>8</v>
       </c>
@@ -8406,25 +8406,25 @@
       <c r="S24" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T24" s="123"/>
-      <c r="U24" s="123"/>
-      <c r="V24" s="126"/>
-      <c r="W24" s="126"/>
-      <c r="X24" s="126"/>
-      <c r="Y24" s="127"/>
+      <c r="T24" s="111"/>
+      <c r="U24" s="111"/>
+      <c r="V24" s="105"/>
+      <c r="W24" s="105"/>
+      <c r="X24" s="105"/>
+      <c r="Y24" s="106"/>
       <c r="Z24" s="2">
         <f>SUM(D24:S24)</f>
         <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="147">
+      <c r="A25" s="132">
         <v>4</v>
       </c>
-      <c r="B25" s="144" t="s">
+      <c r="B25" s="135" t="s">
         <v>100</v>
       </c>
-      <c r="C25" s="140" t="s">
+      <c r="C25" s="138" t="s">
         <v>26</v>
       </c>
       <c r="D25" s="25">
@@ -8475,29 +8475,29 @@
       <c r="S25" s="25">
         <v>16</v>
       </c>
-      <c r="T25" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="U25" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="V25" s="124" t="s">
-        <v>8</v>
-      </c>
-      <c r="W25" s="124" t="s">
-        <v>8</v>
-      </c>
-      <c r="X25" s="124">
+      <c r="T25" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="U25" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="V25" s="103" t="s">
+        <v>8</v>
+      </c>
+      <c r="W25" s="103" t="s">
+        <v>8</v>
+      </c>
+      <c r="X25" s="103">
         <v>20</v>
       </c>
-      <c r="Y25" s="127">
+      <c r="Y25" s="106">
         <v>6565</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="148"/>
-      <c r="B26" s="145"/>
-      <c r="C26" s="140"/>
+      <c r="A26" s="133"/>
+      <c r="B26" s="136"/>
+      <c r="C26" s="138"/>
       <c r="D26" s="26">
         <v>8</v>
       </c>
@@ -8546,21 +8546,21 @@
       <c r="S26" s="26">
         <v>8</v>
       </c>
-      <c r="T26" s="122"/>
-      <c r="U26" s="122"/>
-      <c r="V26" s="125"/>
-      <c r="W26" s="125"/>
-      <c r="X26" s="125"/>
-      <c r="Y26" s="127"/>
+      <c r="T26" s="110"/>
+      <c r="U26" s="110"/>
+      <c r="V26" s="104"/>
+      <c r="W26" s="104"/>
+      <c r="X26" s="104"/>
+      <c r="Y26" s="106"/>
       <c r="Z26" s="2">
         <f>SUM(D26:S26)</f>
         <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="148"/>
-      <c r="B27" s="145"/>
-      <c r="C27" s="140"/>
+      <c r="A27" s="133"/>
+      <c r="B27" s="136"/>
+      <c r="C27" s="138"/>
       <c r="D27" s="27">
         <v>17</v>
       </c>
@@ -8609,20 +8609,20 @@
       <c r="S27" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T27" s="122"/>
-      <c r="U27" s="122"/>
-      <c r="V27" s="125"/>
-      <c r="W27" s="125"/>
-      <c r="X27" s="124">
+      <c r="T27" s="110"/>
+      <c r="U27" s="110"/>
+      <c r="V27" s="104"/>
+      <c r="W27" s="104"/>
+      <c r="X27" s="103">
         <f>Z26+Z28</f>
         <v>160</v>
       </c>
-      <c r="Y27" s="127"/>
+      <c r="Y27" s="106"/>
     </row>
     <row r="28" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="149"/>
-      <c r="B28" s="146"/>
-      <c r="C28" s="140"/>
+      <c r="A28" s="134"/>
+      <c r="B28" s="137"/>
+      <c r="C28" s="138"/>
       <c r="D28" s="26">
         <v>8</v>
       </c>
@@ -8671,12 +8671,12 @@
       <c r="S28" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T28" s="123"/>
-      <c r="U28" s="123"/>
-      <c r="V28" s="126"/>
-      <c r="W28" s="126"/>
-      <c r="X28" s="126"/>
-      <c r="Y28" s="127"/>
+      <c r="T28" s="111"/>
+      <c r="U28" s="111"/>
+      <c r="V28" s="105"/>
+      <c r="W28" s="105"/>
+      <c r="X28" s="105"/>
+      <c r="Y28" s="106"/>
       <c r="Z28" s="2">
         <f>SUM(D28:S28)</f>
         <v>64</v>
@@ -8716,10 +8716,10 @@
       </c>
     </row>
     <row r="30" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="128" t="s">
+      <c r="A30" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="128"/>
+      <c r="B30" s="107"/>
       <c r="C30" s="96">
         <f>Мельницький!C36</f>
         <v>44621</v>
@@ -8880,54 +8880,6 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="V25:V28"/>
-    <mergeCell ref="W25:W28"/>
-    <mergeCell ref="X25:X26"/>
-    <mergeCell ref="Y25:Y28"/>
-    <mergeCell ref="X27:X28"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="T25:T28"/>
-    <mergeCell ref="U25:U28"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="T13:T16"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="T9:T12"/>
-    <mergeCell ref="T21:T24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A5:W5"/>
-    <mergeCell ref="A6:W6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="X21:X22"/>
-    <mergeCell ref="Y21:Y24"/>
-    <mergeCell ref="V21:V24"/>
-    <mergeCell ref="U21:U24"/>
-    <mergeCell ref="X23:X24"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y12"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="Y13:Y16"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="Y17:Y20"/>
-    <mergeCell ref="X19:X20"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="W9:W12"/>
     <mergeCell ref="W17:W20"/>
@@ -8944,6 +8896,54 @@
     <mergeCell ref="V13:V16"/>
     <mergeCell ref="V17:V20"/>
     <mergeCell ref="A9:A12"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="Y13:Y16"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="Y17:Y20"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y12"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="X21:X22"/>
+    <mergeCell ref="Y21:Y24"/>
+    <mergeCell ref="V21:V24"/>
+    <mergeCell ref="U21:U24"/>
+    <mergeCell ref="X23:X24"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A5:W5"/>
+    <mergeCell ref="A6:W6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="T9:T12"/>
+    <mergeCell ref="T21:T24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="T13:T16"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="T25:T28"/>
+    <mergeCell ref="U25:U28"/>
+    <mergeCell ref="V25:V28"/>
+    <mergeCell ref="W25:W28"/>
+    <mergeCell ref="X25:X26"/>
+    <mergeCell ref="Y25:Y28"/>
+    <mergeCell ref="X27:X28"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -9112,63 +9112,63 @@
       <c r="Y5" s="77"/>
     </row>
     <row r="6" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A6" s="107" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="107"/>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="107"/>
-      <c r="K6" s="107"/>
-      <c r="L6" s="107"/>
-      <c r="M6" s="107"/>
-      <c r="N6" s="107"/>
-      <c r="O6" s="107"/>
-      <c r="P6" s="107"/>
-      <c r="Q6" s="107"/>
-      <c r="R6" s="107"/>
-      <c r="S6" s="107"/>
-      <c r="T6" s="107"/>
-      <c r="U6" s="107"/>
-      <c r="V6" s="107"/>
-      <c r="W6" s="107"/>
-      <c r="X6" s="107"/>
-      <c r="Y6" s="107"/>
+      <c r="A6" s="119" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="119"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="119"/>
+      <c r="L6" s="119"/>
+      <c r="M6" s="119"/>
+      <c r="N6" s="119"/>
+      <c r="O6" s="119"/>
+      <c r="P6" s="119"/>
+      <c r="Q6" s="119"/>
+      <c r="R6" s="119"/>
+      <c r="S6" s="119"/>
+      <c r="T6" s="119"/>
+      <c r="U6" s="119"/>
+      <c r="V6" s="119"/>
+      <c r="W6" s="119"/>
+      <c r="X6" s="119"/>
+      <c r="Y6" s="119"/>
     </row>
     <row r="7" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="107" t="str">
+      <c r="A7" s="119" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЛЮТИЙ 2022 р.</v>
       </c>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
-      <c r="S7" s="107"/>
-      <c r="T7" s="107"/>
-      <c r="U7" s="107"/>
-      <c r="V7" s="107"/>
-      <c r="W7" s="107"/>
-      <c r="X7" s="107"/>
-      <c r="Y7" s="107"/>
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="119"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="119"/>
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
+      <c r="S7" s="119"/>
+      <c r="T7" s="119"/>
+      <c r="U7" s="119"/>
+      <c r="V7" s="119"/>
+      <c r="W7" s="119"/>
+      <c r="X7" s="119"/>
+      <c r="Y7" s="119"/>
     </row>
     <row r="8" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="76"/>
@@ -9198,90 +9198,90 @@
       <c r="Y8" s="76"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="121"/>
-      <c r="C9" s="109" t="s">
+      <c r="B9" s="109"/>
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="109" t="s">
+      <c r="D9" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="109" t="s">
+      <c r="E9" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="109"/>
-      <c r="J9" s="109"/>
-      <c r="K9" s="109"/>
-      <c r="L9" s="109"/>
-      <c r="M9" s="109"/>
-      <c r="N9" s="109"/>
-      <c r="O9" s="109"/>
-      <c r="P9" s="109"/>
-      <c r="Q9" s="109"/>
-      <c r="R9" s="109"/>
-      <c r="S9" s="109"/>
-      <c r="T9" s="109"/>
-      <c r="U9" s="117" t="s">
+      <c r="F9" s="121"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="121"/>
+      <c r="K9" s="121"/>
+      <c r="L9" s="121"/>
+      <c r="M9" s="121"/>
+      <c r="N9" s="121"/>
+      <c r="O9" s="121"/>
+      <c r="P9" s="121"/>
+      <c r="Q9" s="121"/>
+      <c r="R9" s="121"/>
+      <c r="S9" s="121"/>
+      <c r="T9" s="121"/>
+      <c r="U9" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="117" t="s">
+      <c r="V9" s="129" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="117" t="s">
+      <c r="W9" s="129" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="117" t="s">
+      <c r="X9" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="117" t="s">
+      <c r="Y9" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="103" t="s">
+      <c r="Z9" s="115" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="109"/>
-      <c r="B10" s="123"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="109"/>
-      <c r="M10" s="109"/>
-      <c r="N10" s="109"/>
-      <c r="O10" s="109"/>
-      <c r="P10" s="109"/>
-      <c r="Q10" s="109"/>
-      <c r="R10" s="109"/>
-      <c r="S10" s="109"/>
-      <c r="T10" s="109"/>
-      <c r="U10" s="117"/>
-      <c r="V10" s="117"/>
-      <c r="W10" s="117"/>
-      <c r="X10" s="117"/>
-      <c r="Y10" s="117"/>
-      <c r="Z10" s="103"/>
+      <c r="A10" s="121"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="121"/>
+      <c r="K10" s="121"/>
+      <c r="L10" s="121"/>
+      <c r="M10" s="121"/>
+      <c r="N10" s="121"/>
+      <c r="O10" s="121"/>
+      <c r="P10" s="121"/>
+      <c r="Q10" s="121"/>
+      <c r="R10" s="121"/>
+      <c r="S10" s="121"/>
+      <c r="T10" s="121"/>
+      <c r="U10" s="129"/>
+      <c r="V10" s="129"/>
+      <c r="W10" s="129"/>
+      <c r="X10" s="129"/>
+      <c r="Y10" s="129"/>
+      <c r="Z10" s="115"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="147">
+      <c r="A11" s="132">
         <v>1</v>
       </c>
-      <c r="B11" s="121"/>
-      <c r="C11" s="121" t="s">
+      <c r="B11" s="109"/>
+      <c r="C11" s="109" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="120" t="s">
+      <c r="D11" s="114" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="25">
@@ -9332,22 +9332,22 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="153"/>
-      <c r="V11" s="153"/>
-      <c r="W11" s="153"/>
-      <c r="X11" s="153"/>
-      <c r="Y11" s="124">
+      <c r="U11" s="150"/>
+      <c r="V11" s="150"/>
+      <c r="W11" s="150"/>
+      <c r="X11" s="150"/>
+      <c r="Y11" s="103">
         <v>19</v>
       </c>
-      <c r="Z11" s="150">
+      <c r="Z11" s="153">
         <v>6565</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="148"/>
-      <c r="B12" s="122"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="120"/>
+      <c r="A12" s="133"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="114"/>
       <c r="E12" s="26">
         <v>4</v>
       </c>
@@ -9396,18 +9396,18 @@
       <c r="T12" s="26">
         <v>4</v>
       </c>
-      <c r="U12" s="154"/>
-      <c r="V12" s="154"/>
-      <c r="W12" s="154"/>
-      <c r="X12" s="154"/>
-      <c r="Y12" s="126"/>
-      <c r="Z12" s="151"/>
+      <c r="U12" s="151"/>
+      <c r="V12" s="151"/>
+      <c r="W12" s="151"/>
+      <c r="X12" s="151"/>
+      <c r="Y12" s="105"/>
+      <c r="Z12" s="154"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="148"/>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="120"/>
+      <c r="A13" s="133"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="114"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -9456,20 +9456,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="154"/>
-      <c r="V13" s="154"/>
-      <c r="W13" s="154"/>
-      <c r="X13" s="154"/>
-      <c r="Y13" s="124">
+      <c r="U13" s="151"/>
+      <c r="V13" s="151"/>
+      <c r="W13" s="151"/>
+      <c r="X13" s="151"/>
+      <c r="Y13" s="103">
         <v>75.5</v>
       </c>
-      <c r="Z13" s="151"/>
+      <c r="Z13" s="154"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="149"/>
-      <c r="B14" s="123"/>
-      <c r="C14" s="123"/>
-      <c r="D14" s="120"/>
+      <c r="A14" s="134"/>
+      <c r="B14" s="111"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="114"/>
       <c r="E14" s="26">
         <v>4</v>
       </c>
@@ -9518,22 +9518,22 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="155"/>
-      <c r="V14" s="155"/>
-      <c r="W14" s="155"/>
-      <c r="X14" s="155"/>
-      <c r="Y14" s="126"/>
-      <c r="Z14" s="152"/>
+      <c r="U14" s="152"/>
+      <c r="V14" s="152"/>
+      <c r="W14" s="152"/>
+      <c r="X14" s="152"/>
+      <c r="Y14" s="105"/>
+      <c r="Z14" s="155"/>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="147">
-        <v>2</v>
-      </c>
-      <c r="B15" s="121"/>
-      <c r="C15" s="121" t="s">
+      <c r="A15" s="132">
+        <v>2</v>
+      </c>
+      <c r="B15" s="109"/>
+      <c r="C15" s="109" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="120" t="s">
+      <c r="D15" s="114" t="s">
         <v>37</v>
       </c>
       <c r="E15" s="25">
@@ -9584,22 +9584,22 @@
       <c r="T15" s="25">
         <v>16</v>
       </c>
-      <c r="U15" s="153"/>
-      <c r="V15" s="153"/>
-      <c r="W15" s="153"/>
-      <c r="X15" s="153"/>
-      <c r="Y15" s="124">
+      <c r="U15" s="150"/>
+      <c r="V15" s="150"/>
+      <c r="W15" s="150"/>
+      <c r="X15" s="150"/>
+      <c r="Y15" s="103">
         <v>19</v>
       </c>
-      <c r="Z15" s="150">
+      <c r="Z15" s="153">
         <v>6565</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="148"/>
-      <c r="B16" s="122"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="120"/>
+      <c r="A16" s="133"/>
+      <c r="B16" s="110"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="114"/>
       <c r="E16" s="26">
         <v>4</v>
       </c>
@@ -9648,18 +9648,18 @@
       <c r="T16" s="26">
         <v>4</v>
       </c>
-      <c r="U16" s="154"/>
-      <c r="V16" s="154"/>
-      <c r="W16" s="154"/>
-      <c r="X16" s="154"/>
-      <c r="Y16" s="126"/>
-      <c r="Z16" s="151"/>
+      <c r="U16" s="151"/>
+      <c r="V16" s="151"/>
+      <c r="W16" s="151"/>
+      <c r="X16" s="151"/>
+      <c r="Y16" s="105"/>
+      <c r="Z16" s="154"/>
     </row>
     <row r="17" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="148"/>
-      <c r="B17" s="122"/>
-      <c r="C17" s="122"/>
-      <c r="D17" s="120"/>
+      <c r="A17" s="133"/>
+      <c r="B17" s="110"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="114"/>
       <c r="E17" s="27">
         <v>17</v>
       </c>
@@ -9708,20 +9708,20 @@
       <c r="T17" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U17" s="154"/>
-      <c r="V17" s="154"/>
-      <c r="W17" s="154"/>
-      <c r="X17" s="154"/>
-      <c r="Y17" s="124">
+      <c r="U17" s="151"/>
+      <c r="V17" s="151"/>
+      <c r="W17" s="151"/>
+      <c r="X17" s="151"/>
+      <c r="Y17" s="103">
         <v>75.5</v>
       </c>
-      <c r="Z17" s="151"/>
+      <c r="Z17" s="154"/>
     </row>
     <row r="18" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="149"/>
-      <c r="B18" s="123"/>
-      <c r="C18" s="123"/>
-      <c r="D18" s="120"/>
+      <c r="A18" s="134"/>
+      <c r="B18" s="111"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="114"/>
       <c r="E18" s="26">
         <v>4</v>
       </c>
@@ -9770,12 +9770,12 @@
       <c r="T18" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U18" s="155"/>
-      <c r="V18" s="155"/>
-      <c r="W18" s="155"/>
-      <c r="X18" s="155"/>
-      <c r="Y18" s="126"/>
-      <c r="Z18" s="152"/>
+      <c r="U18" s="152"/>
+      <c r="V18" s="152"/>
+      <c r="W18" s="152"/>
+      <c r="X18" s="152"/>
+      <c r="Y18" s="105"/>
+      <c r="Z18" s="155"/>
     </row>
     <row r="19" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
@@ -9806,10 +9806,10 @@
       <c r="Z19" s="88"/>
     </row>
     <row r="20" spans="1:26" s="101" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="B20" s="128" t="s">
+      <c r="B20" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="128"/>
+      <c r="C20" s="107"/>
       <c r="D20" s="102">
         <f>Мельницький!C36</f>
         <v>44621</v>
@@ -9873,11 +9873,21 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="Z15:Z18"/>
+    <mergeCell ref="Y17:Y18"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="U15:U18"/>
+    <mergeCell ref="A6:Y6"/>
+    <mergeCell ref="A7:Y7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="B9:B10"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="Z9:Z10"/>
     <mergeCell ref="X9:X10"/>
@@ -9894,21 +9904,11 @@
     <mergeCell ref="W15:W18"/>
     <mergeCell ref="X15:X18"/>
     <mergeCell ref="Y15:Y16"/>
-    <mergeCell ref="A6:Y6"/>
-    <mergeCell ref="A7:Y7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="Z15:Z18"/>
-    <mergeCell ref="Y17:Y18"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="U15:U18"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -9941,11 +9941,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
       <c r="N1" s="15" t="s">
         <v>40</v>
       </c>
@@ -10095,145 +10095,145 @@
       <c r="Z6" s="97"/>
     </row>
     <row r="7" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="107" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
-      <c r="S7" s="107"/>
-      <c r="T7" s="107"/>
-      <c r="U7" s="107"/>
-      <c r="V7" s="107"/>
-      <c r="W7" s="107"/>
+      <c r="A7" s="119" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="119"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="119"/>
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
+      <c r="S7" s="119"/>
+      <c r="T7" s="119"/>
+      <c r="U7" s="119"/>
+      <c r="V7" s="119"/>
+      <c r="W7" s="119"/>
       <c r="X7" s="79"/>
     </row>
     <row r="8" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="108" t="str">
+      <c r="A8" s="120" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЛЮТИЙ 2022 р.</v>
       </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="108"/>
-      <c r="H8" s="108"/>
-      <c r="I8" s="108"/>
-      <c r="J8" s="108"/>
-      <c r="K8" s="108"/>
-      <c r="L8" s="108"/>
-      <c r="M8" s="108"/>
-      <c r="N8" s="108"/>
-      <c r="O8" s="108"/>
-      <c r="P8" s="108"/>
-      <c r="Q8" s="108"/>
-      <c r="R8" s="108"/>
-      <c r="S8" s="108"/>
-      <c r="T8" s="108"/>
-      <c r="U8" s="108"/>
-      <c r="V8" s="108"/>
-      <c r="W8" s="108"/>
-      <c r="X8" s="108"/>
-      <c r="Y8" s="108"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="120"/>
+      <c r="M8" s="120"/>
+      <c r="N8" s="120"/>
+      <c r="O8" s="120"/>
+      <c r="P8" s="120"/>
+      <c r="Q8" s="120"/>
+      <c r="R8" s="120"/>
+      <c r="S8" s="120"/>
+      <c r="T8" s="120"/>
+      <c r="U8" s="120"/>
+      <c r="V8" s="120"/>
+      <c r="W8" s="120"/>
+      <c r="X8" s="120"/>
+      <c r="Y8" s="120"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="109" t="s">
+      <c r="B9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="109" t="s">
+      <c r="C9" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="109" t="s">
+      <c r="D9" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="109"/>
-      <c r="J9" s="109"/>
-      <c r="K9" s="109"/>
-      <c r="L9" s="109"/>
-      <c r="M9" s="109"/>
-      <c r="N9" s="109"/>
-      <c r="O9" s="109"/>
-      <c r="P9" s="109"/>
-      <c r="Q9" s="109"/>
-      <c r="R9" s="109"/>
-      <c r="S9" s="109"/>
-      <c r="T9" s="117" t="s">
+      <c r="E9" s="121"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="121"/>
+      <c r="K9" s="121"/>
+      <c r="L9" s="121"/>
+      <c r="M9" s="121"/>
+      <c r="N9" s="121"/>
+      <c r="O9" s="121"/>
+      <c r="P9" s="121"/>
+      <c r="Q9" s="121"/>
+      <c r="R9" s="121"/>
+      <c r="S9" s="121"/>
+      <c r="T9" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="U9" s="117" t="s">
+      <c r="U9" s="129" t="s">
         <v>49</v>
       </c>
-      <c r="V9" s="117" t="s">
+      <c r="V9" s="129" t="s">
         <v>50</v>
       </c>
-      <c r="W9" s="117" t="s">
+      <c r="W9" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="X9" s="117" t="s">
+      <c r="X9" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="Y9" s="103" t="s">
+      <c r="Y9" s="115" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="109"/>
-      <c r="B10" s="109"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="109"/>
-      <c r="M10" s="109"/>
-      <c r="N10" s="109"/>
-      <c r="O10" s="109"/>
-      <c r="P10" s="109"/>
-      <c r="Q10" s="109"/>
-      <c r="R10" s="109"/>
-      <c r="S10" s="109"/>
-      <c r="T10" s="117"/>
-      <c r="U10" s="117"/>
-      <c r="V10" s="117"/>
-      <c r="W10" s="117"/>
-      <c r="X10" s="117"/>
-      <c r="Y10" s="103"/>
+      <c r="A10" s="121"/>
+      <c r="B10" s="121"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="121"/>
+      <c r="K10" s="121"/>
+      <c r="L10" s="121"/>
+      <c r="M10" s="121"/>
+      <c r="N10" s="121"/>
+      <c r="O10" s="121"/>
+      <c r="P10" s="121"/>
+      <c r="Q10" s="121"/>
+      <c r="R10" s="121"/>
+      <c r="S10" s="121"/>
+      <c r="T10" s="129"/>
+      <c r="U10" s="129"/>
+      <c r="V10" s="129"/>
+      <c r="W10" s="129"/>
+      <c r="X10" s="129"/>
+      <c r="Y10" s="115"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="118">
+      <c r="A11" s="112">
         <v>1</v>
       </c>
-      <c r="B11" s="119" t="s">
+      <c r="B11" s="113" t="s">
         <v>92</v>
       </c>
-      <c r="C11" s="120" t="s">
+      <c r="C11" s="114" t="s">
         <v>93</v>
       </c>
       <c r="D11" s="25">
@@ -10284,28 +10284,28 @@
       <c r="S11" s="25">
         <v>16</v>
       </c>
-      <c r="T11" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="U11" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="124" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="163"/>
-      <c r="X11" s="124">
+      <c r="T11" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="U11" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="103" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="156"/>
+      <c r="X11" s="103">
         <v>22</v>
       </c>
-      <c r="Y11" s="127">
+      <c r="Y11" s="106">
         <v>6000</v>
       </c>
       <c r="Z11" s="99"/>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="118"/>
-      <c r="B12" s="119"/>
-      <c r="C12" s="120"/>
+      <c r="A12" s="112"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="114"/>
       <c r="D12" s="26">
         <v>2</v>
       </c>
@@ -10354,21 +10354,21 @@
       <c r="S12" s="26">
         <v>2</v>
       </c>
-      <c r="T12" s="122"/>
-      <c r="U12" s="122"/>
-      <c r="V12" s="125"/>
-      <c r="W12" s="164"/>
-      <c r="X12" s="126"/>
-      <c r="Y12" s="127"/>
+      <c r="T12" s="110"/>
+      <c r="U12" s="110"/>
+      <c r="V12" s="104"/>
+      <c r="W12" s="157"/>
+      <c r="X12" s="105"/>
+      <c r="Y12" s="106"/>
       <c r="Z12" s="99">
         <f>SUM(D12:S12)</f>
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" s="118"/>
-      <c r="B13" s="119"/>
-      <c r="C13" s="120"/>
+      <c r="A13" s="112"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="114"/>
       <c r="D13" s="27">
         <v>17</v>
       </c>
@@ -10417,20 +10417,20 @@
       <c r="S13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T13" s="122"/>
-      <c r="U13" s="122"/>
-      <c r="V13" s="125"/>
-      <c r="W13" s="164"/>
-      <c r="X13" s="168">
+      <c r="T13" s="110"/>
+      <c r="U13" s="110"/>
+      <c r="V13" s="104"/>
+      <c r="W13" s="157"/>
+      <c r="X13" s="159">
         <f>Z12+Z14</f>
         <v>40</v>
       </c>
-      <c r="Y13" s="127"/>
+      <c r="Y13" s="106"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A14" s="118"/>
-      <c r="B14" s="119"/>
-      <c r="C14" s="120"/>
+      <c r="A14" s="112"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="114"/>
       <c r="D14" s="26">
         <v>2</v>
       </c>
@@ -10479,25 +10479,25 @@
       <c r="S14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="123"/>
-      <c r="U14" s="123"/>
-      <c r="V14" s="126"/>
-      <c r="W14" s="165"/>
-      <c r="X14" s="169"/>
-      <c r="Y14" s="127"/>
+      <c r="T14" s="111"/>
+      <c r="U14" s="111"/>
+      <c r="V14" s="105"/>
+      <c r="W14" s="158"/>
+      <c r="X14" s="160"/>
+      <c r="Y14" s="106"/>
       <c r="Z14" s="98">
         <f>SUM(D14:S14)</f>
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="118">
-        <v>2</v>
-      </c>
-      <c r="B15" s="119" t="s">
+      <c r="A15" s="112">
+        <v>2</v>
+      </c>
+      <c r="B15" s="113" t="s">
         <v>94</v>
       </c>
-      <c r="C15" s="120" t="s">
+      <c r="C15" s="114" t="s">
         <v>95</v>
       </c>
       <c r="D15" s="25">
@@ -10548,28 +10548,28 @@
       <c r="S15" s="25">
         <v>16</v>
       </c>
-      <c r="T15" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="U15" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="V15" s="124" t="s">
-        <v>8</v>
-      </c>
-      <c r="W15" s="163"/>
-      <c r="X15" s="124">
+      <c r="T15" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="U15" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="V15" s="103" t="s">
+        <v>8</v>
+      </c>
+      <c r="W15" s="156"/>
+      <c r="X15" s="103">
         <v>22</v>
       </c>
-      <c r="Y15" s="127">
+      <c r="Y15" s="106">
         <v>6000</v>
       </c>
       <c r="Z15" s="99"/>
     </row>
     <row r="16" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="118"/>
-      <c r="B16" s="119"/>
-      <c r="C16" s="120"/>
+      <c r="A16" s="112"/>
+      <c r="B16" s="113"/>
+      <c r="C16" s="114"/>
       <c r="D16" s="26">
         <v>8</v>
       </c>
@@ -10618,21 +10618,21 @@
       <c r="S16" s="26">
         <v>8</v>
       </c>
-      <c r="T16" s="122"/>
-      <c r="U16" s="122"/>
-      <c r="V16" s="125"/>
-      <c r="W16" s="164"/>
-      <c r="X16" s="126"/>
-      <c r="Y16" s="127"/>
+      <c r="T16" s="110"/>
+      <c r="U16" s="110"/>
+      <c r="V16" s="104"/>
+      <c r="W16" s="157"/>
+      <c r="X16" s="105"/>
+      <c r="Y16" s="106"/>
       <c r="Z16" s="99">
         <f>SUM(D16:S16)</f>
         <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A17" s="118"/>
-      <c r="B17" s="119"/>
-      <c r="C17" s="120"/>
+      <c r="A17" s="112"/>
+      <c r="B17" s="113"/>
+      <c r="C17" s="114"/>
       <c r="D17" s="27">
         <v>17</v>
       </c>
@@ -10681,20 +10681,20 @@
       <c r="S17" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T17" s="122"/>
-      <c r="U17" s="122"/>
-      <c r="V17" s="125"/>
-      <c r="W17" s="164"/>
-      <c r="X17" s="124">
+      <c r="T17" s="110"/>
+      <c r="U17" s="110"/>
+      <c r="V17" s="104"/>
+      <c r="W17" s="157"/>
+      <c r="X17" s="103">
         <f>Z16+Z18</f>
         <v>160</v>
       </c>
-      <c r="Y17" s="127"/>
+      <c r="Y17" s="106"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" s="118"/>
-      <c r="B18" s="119"/>
-      <c r="C18" s="120"/>
+      <c r="A18" s="112"/>
+      <c r="B18" s="113"/>
+      <c r="C18" s="114"/>
       <c r="D18" s="26">
         <v>8</v>
       </c>
@@ -10743,12 +10743,12 @@
       <c r="S18" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T18" s="123"/>
-      <c r="U18" s="123"/>
-      <c r="V18" s="126"/>
-      <c r="W18" s="165"/>
-      <c r="X18" s="126"/>
-      <c r="Y18" s="127"/>
+      <c r="T18" s="111"/>
+      <c r="U18" s="111"/>
+      <c r="V18" s="105"/>
+      <c r="W18" s="158"/>
+      <c r="X18" s="105"/>
+      <c r="Y18" s="106"/>
       <c r="Z18" s="98">
         <f>SUM(D18:S18)</f>
         <v>64</v>
@@ -10858,26 +10858,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="T15:T18"/>
-    <mergeCell ref="U15:U18"/>
-    <mergeCell ref="V15:V18"/>
-    <mergeCell ref="W15:W18"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="Y15:Y18"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="T11:T14"/>
-    <mergeCell ref="U11:U14"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A7:W7"/>
     <mergeCell ref="A8:Y8"/>
@@ -10891,6 +10871,26 @@
     <mergeCell ref="W9:W10"/>
     <mergeCell ref="X9:X10"/>
     <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="T11:T14"/>
+    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="V15:V18"/>
+    <mergeCell ref="W15:W18"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="Y15:Y18"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="T15:T18"/>
+    <mergeCell ref="U15:U18"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -10902,7 +10902,7 @@
   <sheetPr codeName="Лист6"/>
   <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A9" sqref="A9:A10"/>
     </sheetView>
   </sheetViews>
@@ -10918,12 +10918,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
       <c r="R1" s="15" t="s">
         <v>40</v>
       </c>
@@ -11068,147 +11068,147 @@
       <c r="X6" s="17"/>
     </row>
     <row r="7" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="107" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
-      <c r="S7" s="107"/>
-      <c r="T7" s="107"/>
-      <c r="U7" s="107"/>
-      <c r="V7" s="107"/>
-      <c r="W7" s="107"/>
-      <c r="X7" s="107"/>
+      <c r="A7" s="119" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="119"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="119"/>
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
+      <c r="S7" s="119"/>
+      <c r="T7" s="119"/>
+      <c r="U7" s="119"/>
+      <c r="V7" s="119"/>
+      <c r="W7" s="119"/>
+      <c r="X7" s="119"/>
     </row>
     <row r="8" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="107" t="str">
+      <c r="A8" s="119" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЛЮТИЙ 2022 р.</v>
       </c>
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="107"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="107"/>
-      <c r="N8" s="107"/>
-      <c r="O8" s="107"/>
-      <c r="P8" s="107"/>
-      <c r="Q8" s="107"/>
-      <c r="R8" s="107"/>
-      <c r="S8" s="107"/>
-      <c r="T8" s="107"/>
-      <c r="U8" s="107"/>
-      <c r="V8" s="107"/>
-      <c r="W8" s="107"/>
-      <c r="X8" s="107"/>
+      <c r="B8" s="119"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="119"/>
+      <c r="K8" s="119"/>
+      <c r="L8" s="119"/>
+      <c r="M8" s="119"/>
+      <c r="N8" s="119"/>
+      <c r="O8" s="119"/>
+      <c r="P8" s="119"/>
+      <c r="Q8" s="119"/>
+      <c r="R8" s="119"/>
+      <c r="S8" s="119"/>
+      <c r="T8" s="119"/>
+      <c r="U8" s="119"/>
+      <c r="V8" s="119"/>
+      <c r="W8" s="119"/>
+      <c r="X8" s="119"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="110" t="s">
+      <c r="B9" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="109" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="109" t="s">
+      <c r="D9" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="109" t="s">
+      <c r="E9" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="109"/>
-      <c r="J9" s="109"/>
-      <c r="K9" s="109"/>
-      <c r="L9" s="109"/>
-      <c r="M9" s="109"/>
-      <c r="N9" s="109"/>
-      <c r="O9" s="109"/>
-      <c r="P9" s="109"/>
-      <c r="Q9" s="109"/>
-      <c r="R9" s="109"/>
-      <c r="S9" s="109"/>
-      <c r="T9" s="109"/>
-      <c r="U9" s="117" t="s">
+      <c r="F9" s="121"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="121"/>
+      <c r="K9" s="121"/>
+      <c r="L9" s="121"/>
+      <c r="M9" s="121"/>
+      <c r="N9" s="121"/>
+      <c r="O9" s="121"/>
+      <c r="P9" s="121"/>
+      <c r="Q9" s="121"/>
+      <c r="R9" s="121"/>
+      <c r="S9" s="121"/>
+      <c r="T9" s="121"/>
+      <c r="U9" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="117" t="s">
+      <c r="V9" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="W9" s="117" t="s">
+      <c r="W9" s="129" t="s">
         <v>14</v>
       </c>
-      <c r="X9" s="117" t="s">
+      <c r="X9" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="Y9" s="103" t="s">
+      <c r="Y9" s="115" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="109"/>
-      <c r="B10" s="110"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="109"/>
-      <c r="M10" s="109"/>
-      <c r="N10" s="109"/>
-      <c r="O10" s="109"/>
-      <c r="P10" s="109"/>
-      <c r="Q10" s="109"/>
-      <c r="R10" s="109"/>
-      <c r="S10" s="109"/>
-      <c r="T10" s="109"/>
-      <c r="U10" s="117"/>
-      <c r="V10" s="117"/>
-      <c r="W10" s="117"/>
-      <c r="X10" s="117"/>
-      <c r="Y10" s="103"/>
+      <c r="A10" s="121"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="121"/>
+      <c r="K10" s="121"/>
+      <c r="L10" s="121"/>
+      <c r="M10" s="121"/>
+      <c r="N10" s="121"/>
+      <c r="O10" s="121"/>
+      <c r="P10" s="121"/>
+      <c r="Q10" s="121"/>
+      <c r="R10" s="121"/>
+      <c r="S10" s="121"/>
+      <c r="T10" s="121"/>
+      <c r="U10" s="129"/>
+      <c r="V10" s="129"/>
+      <c r="W10" s="129"/>
+      <c r="X10" s="129"/>
+      <c r="Y10" s="115"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="118">
+      <c r="A11" s="112">
         <v>1</v>
       </c>
-      <c r="B11" s="147">
+      <c r="B11" s="132">
         <v>1</v>
       </c>
-      <c r="C11" s="160" t="s">
+      <c r="C11" s="165" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="141" t="s">
+      <c r="D11" s="139" t="s">
         <v>74</v>
       </c>
       <c r="E11" s="25">
@@ -11259,19 +11259,19 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="124" t="s">
-        <v>8</v>
-      </c>
-      <c r="X11" s="124">
+      <c r="U11" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="103" t="s">
+        <v>8</v>
+      </c>
+      <c r="X11" s="103">
         <v>22</v>
       </c>
-      <c r="Y11" s="156">
+      <c r="Y11" s="161">
         <v>6565</v>
       </c>
       <c r="Z11" s="3">
@@ -11280,10 +11280,10 @@
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="118"/>
-      <c r="B12" s="148"/>
-      <c r="C12" s="161"/>
-      <c r="D12" s="142"/>
+      <c r="A12" s="112"/>
+      <c r="B12" s="133"/>
+      <c r="C12" s="166"/>
+      <c r="D12" s="140"/>
       <c r="E12" s="26">
         <v>8</v>
       </c>
@@ -11332,17 +11332,17 @@
       <c r="T12" s="26">
         <v>8</v>
       </c>
-      <c r="U12" s="122"/>
-      <c r="V12" s="122"/>
-      <c r="W12" s="125"/>
-      <c r="X12" s="126"/>
-      <c r="Y12" s="157"/>
+      <c r="U12" s="110"/>
+      <c r="V12" s="110"/>
+      <c r="W12" s="104"/>
+      <c r="X12" s="105"/>
+      <c r="Y12" s="162"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="118"/>
-      <c r="B13" s="148"/>
-      <c r="C13" s="161"/>
-      <c r="D13" s="142"/>
+      <c r="A13" s="112"/>
+      <c r="B13" s="133"/>
+      <c r="C13" s="166"/>
+      <c r="D13" s="140"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -11391,20 +11391,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="122"/>
-      <c r="V13" s="122"/>
-      <c r="W13" s="125"/>
-      <c r="X13" s="124">
+      <c r="U13" s="110"/>
+      <c r="V13" s="110"/>
+      <c r="W13" s="104"/>
+      <c r="X13" s="103">
         <f>Z11+Z14</f>
         <v>160</v>
       </c>
-      <c r="Y13" s="157"/>
+      <c r="Y13" s="162"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="118"/>
-      <c r="B14" s="149"/>
-      <c r="C14" s="162"/>
-      <c r="D14" s="143"/>
+      <c r="A14" s="112"/>
+      <c r="B14" s="134"/>
+      <c r="C14" s="167"/>
+      <c r="D14" s="141"/>
       <c r="E14" s="26">
         <v>8</v>
       </c>
@@ -11453,11 +11453,11 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="123"/>
-      <c r="V14" s="123"/>
-      <c r="W14" s="126"/>
-      <c r="X14" s="126"/>
-      <c r="Y14" s="158"/>
+      <c r="U14" s="111"/>
+      <c r="V14" s="111"/>
+      <c r="W14" s="105"/>
+      <c r="X14" s="105"/>
+      <c r="Y14" s="163"/>
       <c r="Z14" s="3">
         <f>SUM(E14:T14)</f>
         <v>64</v>
@@ -11491,10 +11491,10 @@
     </row>
     <row r="16" spans="1:26" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
-      <c r="B16" s="159" t="s">
+      <c r="B16" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="159"/>
+      <c r="C16" s="164"/>
       <c r="D16" s="5">
         <f>Мельницький!C36</f>
         <v>44621</v>
@@ -11573,12 +11573,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="X13:X14"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A7:X7"/>
     <mergeCell ref="A8:X8"/>
@@ -11589,14 +11591,12 @@
     <mergeCell ref="W9:W10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="U11:U14"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11609,14 +11609,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AB9" sqref="AB9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="3.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="2.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" style="2" customWidth="1"/>
     <col min="5" max="11" width="4.33203125" style="2" customWidth="1"/>
     <col min="12" max="12" width="5" style="2" customWidth="1"/>
@@ -11632,49 +11633,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="105"/>
-      <c r="R1" s="105"/>
-      <c r="S1" s="105"/>
-      <c r="T1" s="105"/>
-      <c r="U1" s="105"/>
-      <c r="V1" s="105"/>
-      <c r="W1" s="105"/>
-      <c r="X1" s="105"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="P1" s="117"/>
+      <c r="Q1" s="117"/>
+      <c r="R1" s="117"/>
+      <c r="S1" s="117"/>
+      <c r="T1" s="117"/>
+      <c r="U1" s="117"/>
+      <c r="V1" s="117"/>
+      <c r="W1" s="117"/>
+      <c r="X1" s="117"/>
     </row>
     <row r="2" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="118" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="106"/>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="106"/>
-      <c r="R2" s="106"/>
-      <c r="S2" s="106"/>
-      <c r="T2" s="106"/>
-      <c r="U2" s="106"/>
-      <c r="V2" s="106"/>
-      <c r="W2" s="106"/>
-      <c r="X2" s="106"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="118"/>
+      <c r="P2" s="118"/>
+      <c r="Q2" s="118"/>
+      <c r="R2" s="118"/>
+      <c r="S2" s="118"/>
+      <c r="T2" s="118"/>
+      <c r="U2" s="118"/>
+      <c r="V2" s="118"/>
+      <c r="W2" s="118"/>
+      <c r="X2" s="118"/>
     </row>
     <row r="3" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="19"/>
@@ -11784,147 +11785,147 @@
       <c r="X6" s="2"/>
     </row>
     <row r="7" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="107" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
-      <c r="S7" s="107"/>
-      <c r="T7" s="107"/>
-      <c r="U7" s="107"/>
-      <c r="V7" s="107"/>
-      <c r="W7" s="107"/>
-      <c r="X7" s="107"/>
+      <c r="A7" s="119" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="119"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="119"/>
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
+      <c r="S7" s="119"/>
+      <c r="T7" s="119"/>
+      <c r="U7" s="119"/>
+      <c r="V7" s="119"/>
+      <c r="W7" s="119"/>
+      <c r="X7" s="119"/>
     </row>
     <row r="8" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="108" t="str">
+      <c r="A8" s="120" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЛЮТИЙ 2022 р.</v>
       </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="108"/>
-      <c r="H8" s="108"/>
-      <c r="I8" s="108"/>
-      <c r="J8" s="108"/>
-      <c r="K8" s="108"/>
-      <c r="L8" s="108"/>
-      <c r="M8" s="108"/>
-      <c r="N8" s="108"/>
-      <c r="O8" s="108"/>
-      <c r="P8" s="108"/>
-      <c r="Q8" s="108"/>
-      <c r="R8" s="108"/>
-      <c r="S8" s="108"/>
-      <c r="T8" s="108"/>
-      <c r="U8" s="108"/>
-      <c r="V8" s="108"/>
-      <c r="W8" s="108"/>
-      <c r="X8" s="108"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="120"/>
+      <c r="M8" s="120"/>
+      <c r="N8" s="120"/>
+      <c r="O8" s="120"/>
+      <c r="P8" s="120"/>
+      <c r="Q8" s="120"/>
+      <c r="R8" s="120"/>
+      <c r="S8" s="120"/>
+      <c r="T8" s="120"/>
+      <c r="U8" s="120"/>
+      <c r="V8" s="120"/>
+      <c r="W8" s="120"/>
+      <c r="X8" s="120"/>
     </row>
     <row r="9" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="110"/>
-      <c r="C9" s="109" t="s">
+      <c r="B9" s="122"/>
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="109" t="s">
+      <c r="D9" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="111" t="s">
+      <c r="E9" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="112"/>
-      <c r="G9" s="112"/>
-      <c r="H9" s="112"/>
-      <c r="I9" s="112"/>
-      <c r="J9" s="112"/>
-      <c r="K9" s="112"/>
-      <c r="L9" s="112"/>
-      <c r="M9" s="112"/>
-      <c r="N9" s="112"/>
-      <c r="O9" s="112"/>
-      <c r="P9" s="112"/>
-      <c r="Q9" s="112"/>
-      <c r="R9" s="112"/>
-      <c r="S9" s="112"/>
-      <c r="T9" s="113"/>
-      <c r="U9" s="117" t="s">
+      <c r="F9" s="124"/>
+      <c r="G9" s="124"/>
+      <c r="H9" s="124"/>
+      <c r="I9" s="124"/>
+      <c r="J9" s="124"/>
+      <c r="K9" s="124"/>
+      <c r="L9" s="124"/>
+      <c r="M9" s="124"/>
+      <c r="N9" s="124"/>
+      <c r="O9" s="124"/>
+      <c r="P9" s="124"/>
+      <c r="Q9" s="124"/>
+      <c r="R9" s="124"/>
+      <c r="S9" s="124"/>
+      <c r="T9" s="125"/>
+      <c r="U9" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="117" t="s">
+      <c r="V9" s="129" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="117" t="s">
+      <c r="W9" s="129" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="117" t="s">
+      <c r="X9" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="117" t="s">
+      <c r="Y9" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="103" t="s">
+      <c r="Z9" s="115" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="109"/>
-      <c r="B10" s="110"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="115"/>
-      <c r="G10" s="115"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="115"/>
-      <c r="J10" s="115"/>
-      <c r="K10" s="115"/>
-      <c r="L10" s="115"/>
-      <c r="M10" s="115"/>
-      <c r="N10" s="115"/>
-      <c r="O10" s="115"/>
-      <c r="P10" s="115"/>
-      <c r="Q10" s="115"/>
-      <c r="R10" s="115"/>
-      <c r="S10" s="115"/>
-      <c r="T10" s="116"/>
-      <c r="U10" s="117"/>
-      <c r="V10" s="117"/>
-      <c r="W10" s="117"/>
-      <c r="X10" s="117"/>
-      <c r="Y10" s="117"/>
-      <c r="Z10" s="103"/>
+      <c r="A10" s="121"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="127"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="127"/>
+      <c r="K10" s="127"/>
+      <c r="L10" s="127"/>
+      <c r="M10" s="127"/>
+      <c r="N10" s="127"/>
+      <c r="O10" s="127"/>
+      <c r="P10" s="127"/>
+      <c r="Q10" s="127"/>
+      <c r="R10" s="127"/>
+      <c r="S10" s="127"/>
+      <c r="T10" s="128"/>
+      <c r="U10" s="129"/>
+      <c r="V10" s="129"/>
+      <c r="W10" s="129"/>
+      <c r="X10" s="129"/>
+      <c r="Y10" s="129"/>
+      <c r="Z10" s="115"/>
     </row>
     <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="118">
+      <c r="A11" s="112">
         <v>1</v>
       </c>
-      <c r="B11" s="118"/>
-      <c r="C11" s="119" t="s">
+      <c r="B11" s="112"/>
+      <c r="C11" s="113" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="120" t="s">
+      <c r="D11" s="114" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="25">
@@ -11975,21 +11976,21 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="124" t="s">
+      <c r="U11" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="103" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="48"/>
-      <c r="Y11" s="124">
+      <c r="Y11" s="103">
         <v>22</v>
       </c>
-      <c r="Z11" s="127">
-        <v>6060</v>
+      <c r="Z11" s="106">
+        <v>6565</v>
       </c>
       <c r="AA11" s="2">
         <f>SUM(E12:T12)</f>
@@ -11997,10 +11998,10 @@
       </c>
     </row>
     <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="118"/>
-      <c r="B12" s="118"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="120"/>
+      <c r="A12" s="112"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="114"/>
       <c r="E12" s="26" t="s">
         <v>13</v>
       </c>
@@ -12049,18 +12050,18 @@
       <c r="T12" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="U12" s="122"/>
-      <c r="V12" s="122"/>
-      <c r="W12" s="125"/>
+      <c r="U12" s="110"/>
+      <c r="V12" s="110"/>
+      <c r="W12" s="104"/>
       <c r="X12" s="50"/>
-      <c r="Y12" s="126"/>
-      <c r="Z12" s="127"/>
+      <c r="Y12" s="105"/>
+      <c r="Z12" s="106"/>
     </row>
     <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="118"/>
-      <c r="B13" s="118"/>
-      <c r="C13" s="119"/>
-      <c r="D13" s="120"/>
+      <c r="A13" s="112"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="114"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -12109,24 +12110,24 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="122"/>
-      <c r="V13" s="122"/>
-      <c r="W13" s="125"/>
+      <c r="U13" s="110"/>
+      <c r="V13" s="110"/>
+      <c r="W13" s="104"/>
       <c r="X13" s="50"/>
-      <c r="Y13" s="124">
+      <c r="Y13" s="103">
         <v>43.5</v>
       </c>
-      <c r="Z13" s="127"/>
+      <c r="Z13" s="106"/>
       <c r="AB13" s="2">
         <f>AA11+AA14</f>
         <v>37.75</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="118"/>
-      <c r="B14" s="118"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="120"/>
+      <c r="A14" s="112"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="114"/>
       <c r="E14" s="26">
         <v>2</v>
       </c>
@@ -12175,12 +12176,12 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="123"/>
-      <c r="V14" s="123"/>
-      <c r="W14" s="126"/>
+      <c r="U14" s="111"/>
+      <c r="V14" s="111"/>
+      <c r="W14" s="105"/>
       <c r="X14" s="49"/>
-      <c r="Y14" s="126"/>
-      <c r="Z14" s="127"/>
+      <c r="Y14" s="105"/>
+      <c r="Z14" s="106"/>
       <c r="AA14" s="2">
         <f>SUM(E14:T14)</f>
         <v>22</v>
@@ -12265,32 +12266,29 @@
       <c r="X17" s="9"/>
     </row>
     <row r="18" spans="1:24" s="39" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="B18" s="128" t="s">
+      <c r="B18" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="128"/>
-      <c r="D18" s="166">
+      <c r="C18" s="107"/>
+      <c r="D18" s="168">
         <f>Мельницький!C36</f>
         <v>44621</v>
       </c>
-      <c r="E18" s="166"/>
-      <c r="F18" s="166"/>
-      <c r="G18" s="166"/>
-      <c r="H18" s="166"/>
+      <c r="E18" s="168"/>
+      <c r="F18" s="168"/>
+      <c r="G18" s="168"/>
+      <c r="H18" s="168"/>
       <c r="L18" s="39" t="s">
         <v>60</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Z11:Z14"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="P1:X1"/>
     <mergeCell ref="A2:X2"/>
@@ -12306,11 +12304,14 @@
     <mergeCell ref="U9:U10"/>
     <mergeCell ref="V9:V10"/>
     <mergeCell ref="W9:W10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Z11:Z14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
@@ -12344,11 +12345,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
       <c r="Q1" s="15" t="s">
         <v>40</v>
       </c>
@@ -12462,141 +12463,141 @@
       <c r="W5" s="70"/>
     </row>
     <row r="6" spans="1:25" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A6" s="107" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="107"/>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="107"/>
-      <c r="K6" s="107"/>
-      <c r="L6" s="107"/>
-      <c r="M6" s="107"/>
-      <c r="N6" s="107"/>
-      <c r="O6" s="107"/>
-      <c r="P6" s="107"/>
-      <c r="Q6" s="107"/>
-      <c r="R6" s="107"/>
-      <c r="S6" s="107"/>
-      <c r="T6" s="107"/>
-      <c r="U6" s="107"/>
-      <c r="V6" s="107"/>
-      <c r="W6" s="107"/>
+      <c r="A6" s="119" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="119"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="119"/>
+      <c r="L6" s="119"/>
+      <c r="M6" s="119"/>
+      <c r="N6" s="119"/>
+      <c r="O6" s="119"/>
+      <c r="P6" s="119"/>
+      <c r="Q6" s="119"/>
+      <c r="R6" s="119"/>
+      <c r="S6" s="119"/>
+      <c r="T6" s="119"/>
+      <c r="U6" s="119"/>
+      <c r="V6" s="119"/>
+      <c r="W6" s="119"/>
     </row>
     <row r="7" spans="1:25" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="107" t="s">
+      <c r="A7" s="119" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
-      <c r="S7" s="107"/>
-      <c r="T7" s="107"/>
-      <c r="U7" s="107"/>
-      <c r="V7" s="107"/>
-      <c r="W7" s="107"/>
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="119"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="119"/>
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
+      <c r="S7" s="119"/>
+      <c r="T7" s="119"/>
+      <c r="U7" s="119"/>
+      <c r="V7" s="119"/>
+      <c r="W7" s="119"/>
     </row>
     <row r="8" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="109" t="s">
+      <c r="B8" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="109" t="s">
+      <c r="C8" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="109" t="s">
+      <c r="D8" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="109"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="109"/>
-      <c r="K8" s="109"/>
-      <c r="L8" s="109"/>
-      <c r="M8" s="109"/>
-      <c r="N8" s="109"/>
-      <c r="O8" s="109"/>
-      <c r="P8" s="109"/>
-      <c r="Q8" s="109"/>
-      <c r="R8" s="109"/>
-      <c r="S8" s="109"/>
-      <c r="T8" s="117" t="s">
+      <c r="E8" s="121"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="121"/>
+      <c r="I8" s="121"/>
+      <c r="J8" s="121"/>
+      <c r="K8" s="121"/>
+      <c r="L8" s="121"/>
+      <c r="M8" s="121"/>
+      <c r="N8" s="121"/>
+      <c r="O8" s="121"/>
+      <c r="P8" s="121"/>
+      <c r="Q8" s="121"/>
+      <c r="R8" s="121"/>
+      <c r="S8" s="121"/>
+      <c r="T8" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="U8" s="117" t="s">
+      <c r="U8" s="129" t="s">
         <v>49</v>
       </c>
-      <c r="V8" s="117" t="s">
+      <c r="V8" s="129" t="s">
         <v>50</v>
       </c>
-      <c r="W8" s="117" t="s">
+      <c r="W8" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="X8" s="117" t="s">
+      <c r="X8" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="Y8" s="103" t="s">
+      <c r="Y8" s="115" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="109"/>
-      <c r="B9" s="109"/>
-      <c r="C9" s="109"/>
-      <c r="D9" s="109"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="109"/>
-      <c r="J9" s="109"/>
-      <c r="K9" s="109"/>
-      <c r="L9" s="109"/>
-      <c r="M9" s="109"/>
-      <c r="N9" s="109"/>
-      <c r="O9" s="109"/>
-      <c r="P9" s="109"/>
-      <c r="Q9" s="109"/>
-      <c r="R9" s="109"/>
-      <c r="S9" s="109"/>
-      <c r="T9" s="117"/>
-      <c r="U9" s="117"/>
-      <c r="V9" s="117"/>
-      <c r="W9" s="117"/>
-      <c r="X9" s="117"/>
-      <c r="Y9" s="103"/>
+      <c r="A9" s="121"/>
+      <c r="B9" s="121"/>
+      <c r="C9" s="121"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="121"/>
+      <c r="K9" s="121"/>
+      <c r="L9" s="121"/>
+      <c r="M9" s="121"/>
+      <c r="N9" s="121"/>
+      <c r="O9" s="121"/>
+      <c r="P9" s="121"/>
+      <c r="Q9" s="121"/>
+      <c r="R9" s="121"/>
+      <c r="S9" s="121"/>
+      <c r="T9" s="129"/>
+      <c r="U9" s="129"/>
+      <c r="V9" s="129"/>
+      <c r="W9" s="129"/>
+      <c r="X9" s="129"/>
+      <c r="Y9" s="115"/>
     </row>
     <row r="10" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="118">
+      <c r="A10" s="112">
         <v>1</v>
       </c>
-      <c r="B10" s="119" t="s">
+      <c r="B10" s="113" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="120" t="s">
+      <c r="C10" s="114" t="s">
         <v>84</v>
       </c>
       <c r="D10" s="25">
@@ -12647,29 +12648,29 @@
       <c r="S10" s="25">
         <v>16</v>
       </c>
-      <c r="T10" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="U10" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="V10" s="124" t="s">
-        <v>8</v>
-      </c>
-      <c r="W10" s="124" t="s">
-        <v>8</v>
-      </c>
-      <c r="X10" s="124" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y10" s="127">
+      <c r="T10" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="U10" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="V10" s="103" t="s">
+        <v>8</v>
+      </c>
+      <c r="W10" s="103" t="s">
+        <v>8</v>
+      </c>
+      <c r="X10" s="103" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y10" s="106">
         <v>4770</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="118"/>
-      <c r="B11" s="119"/>
-      <c r="C11" s="120"/>
+      <c r="A11" s="112"/>
+      <c r="B11" s="113"/>
+      <c r="C11" s="114"/>
       <c r="D11" s="26" t="s">
         <v>88</v>
       </c>
@@ -12718,17 +12719,17 @@
       <c r="S11" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="T11" s="122"/>
-      <c r="U11" s="122"/>
-      <c r="V11" s="125"/>
-      <c r="W11" s="125"/>
-      <c r="X11" s="126"/>
-      <c r="Y11" s="127"/>
+      <c r="T11" s="110"/>
+      <c r="U11" s="110"/>
+      <c r="V11" s="104"/>
+      <c r="W11" s="104"/>
+      <c r="X11" s="105"/>
+      <c r="Y11" s="106"/>
     </row>
     <row r="12" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="118"/>
-      <c r="B12" s="119"/>
-      <c r="C12" s="120"/>
+      <c r="A12" s="112"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="114"/>
       <c r="D12" s="27">
         <v>17</v>
       </c>
@@ -12777,19 +12778,19 @@
       <c r="S12" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T12" s="122"/>
-      <c r="U12" s="122"/>
-      <c r="V12" s="125"/>
-      <c r="W12" s="125"/>
-      <c r="X12" s="124" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y12" s="127"/>
+      <c r="T12" s="110"/>
+      <c r="U12" s="110"/>
+      <c r="V12" s="104"/>
+      <c r="W12" s="104"/>
+      <c r="X12" s="103" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y12" s="106"/>
     </row>
     <row r="13" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="118"/>
-      <c r="B13" s="119"/>
-      <c r="C13" s="120"/>
+      <c r="A13" s="112"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="114"/>
       <c r="D13" s="26" t="s">
         <v>88</v>
       </c>
@@ -12838,12 +12839,12 @@
       <c r="S13" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T13" s="123"/>
-      <c r="U13" s="123"/>
-      <c r="V13" s="126"/>
-      <c r="W13" s="126"/>
-      <c r="X13" s="126"/>
-      <c r="Y13" s="127"/>
+      <c r="T13" s="111"/>
+      <c r="U13" s="111"/>
+      <c r="V13" s="105"/>
+      <c r="W13" s="105"/>
+      <c r="X13" s="105"/>
+      <c r="Y13" s="106"/>
     </row>
     <row r="14" spans="1:25" s="69" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="68"/>
@@ -12858,10 +12859,10 @@
       </c>
     </row>
     <row r="15" spans="1:25" ht="18" x14ac:dyDescent="0.3">
-      <c r="A15" s="128" t="s">
+      <c r="A15" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="128"/>
+      <c r="B15" s="107"/>
       <c r="C15" s="71">
         <f>Мельницький!C36</f>
         <v>44621</v>
@@ -12928,6 +12929,16 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="W10:W13"/>
+    <mergeCell ref="X12:X13"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="T10:T13"/>
+    <mergeCell ref="U10:U13"/>
+    <mergeCell ref="V10:V13"/>
+    <mergeCell ref="X10:X11"/>
     <mergeCell ref="Y10:Y13"/>
     <mergeCell ref="X8:X9"/>
     <mergeCell ref="Y8:Y9"/>
@@ -12942,16 +12953,6 @@
     <mergeCell ref="U8:U9"/>
     <mergeCell ref="V8:V9"/>
     <mergeCell ref="W8:W9"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="W10:W13"/>
-    <mergeCell ref="X12:X13"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="T10:T13"/>
-    <mergeCell ref="U10:U13"/>
-    <mergeCell ref="V10:V13"/>
-    <mergeCell ref="X10:X11"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -13116,63 +13117,63 @@
       <c r="Y5" s="60"/>
     </row>
     <row r="6" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A6" s="107" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="107"/>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="107"/>
-      <c r="K6" s="107"/>
-      <c r="L6" s="107"/>
-      <c r="M6" s="107"/>
-      <c r="N6" s="107"/>
-      <c r="O6" s="107"/>
-      <c r="P6" s="107"/>
-      <c r="Q6" s="107"/>
-      <c r="R6" s="107"/>
-      <c r="S6" s="107"/>
-      <c r="T6" s="107"/>
-      <c r="U6" s="107"/>
-      <c r="V6" s="107"/>
-      <c r="W6" s="107"/>
-      <c r="X6" s="107"/>
-      <c r="Y6" s="107"/>
+      <c r="A6" s="119" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="119"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="119"/>
+      <c r="L6" s="119"/>
+      <c r="M6" s="119"/>
+      <c r="N6" s="119"/>
+      <c r="O6" s="119"/>
+      <c r="P6" s="119"/>
+      <c r="Q6" s="119"/>
+      <c r="R6" s="119"/>
+      <c r="S6" s="119"/>
+      <c r="T6" s="119"/>
+      <c r="U6" s="119"/>
+      <c r="V6" s="119"/>
+      <c r="W6" s="119"/>
+      <c r="X6" s="119"/>
+      <c r="Y6" s="119"/>
     </row>
     <row r="7" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="107" t="str">
+      <c r="A7" s="119" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЛЮТИЙ 2022 р.</v>
       </c>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
-      <c r="S7" s="107"/>
-      <c r="T7" s="107"/>
-      <c r="U7" s="107"/>
-      <c r="V7" s="107"/>
-      <c r="W7" s="107"/>
-      <c r="X7" s="107"/>
-      <c r="Y7" s="107"/>
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="119"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="119"/>
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
+      <c r="S7" s="119"/>
+      <c r="T7" s="119"/>
+      <c r="U7" s="119"/>
+      <c r="V7" s="119"/>
+      <c r="W7" s="119"/>
+      <c r="X7" s="119"/>
+      <c r="Y7" s="119"/>
     </row>
     <row r="8" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="61"/>
@@ -13202,94 +13203,94 @@
       <c r="Y8" s="61"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="110" t="s">
+      <c r="B9" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="109" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="109" t="s">
+      <c r="D9" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="109" t="s">
+      <c r="E9" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="109"/>
-      <c r="J9" s="109"/>
-      <c r="K9" s="109"/>
-      <c r="L9" s="109"/>
-      <c r="M9" s="109"/>
-      <c r="N9" s="109"/>
-      <c r="O9" s="109"/>
-      <c r="P9" s="109"/>
-      <c r="Q9" s="109"/>
-      <c r="R9" s="109"/>
-      <c r="S9" s="109"/>
-      <c r="T9" s="109"/>
-      <c r="U9" s="117" t="s">
+      <c r="F9" s="121"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="121"/>
+      <c r="K9" s="121"/>
+      <c r="L9" s="121"/>
+      <c r="M9" s="121"/>
+      <c r="N9" s="121"/>
+      <c r="O9" s="121"/>
+      <c r="P9" s="121"/>
+      <c r="Q9" s="121"/>
+      <c r="R9" s="121"/>
+      <c r="S9" s="121"/>
+      <c r="T9" s="121"/>
+      <c r="U9" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="117" t="s">
+      <c r="V9" s="129" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="117" t="s">
+      <c r="W9" s="129" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="117" t="s">
+      <c r="X9" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="117" t="s">
+      <c r="Y9" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="103" t="s">
+      <c r="Z9" s="115" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="109"/>
-      <c r="B10" s="110"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="109"/>
-      <c r="M10" s="109"/>
-      <c r="N10" s="109"/>
-      <c r="O10" s="109"/>
-      <c r="P10" s="109"/>
-      <c r="Q10" s="109"/>
-      <c r="R10" s="109"/>
-      <c r="S10" s="109"/>
-      <c r="T10" s="109"/>
-      <c r="U10" s="117"/>
-      <c r="V10" s="117"/>
-      <c r="W10" s="117"/>
-      <c r="X10" s="117"/>
-      <c r="Y10" s="117"/>
-      <c r="Z10" s="103"/>
+      <c r="A10" s="121"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="121"/>
+      <c r="K10" s="121"/>
+      <c r="L10" s="121"/>
+      <c r="M10" s="121"/>
+      <c r="N10" s="121"/>
+      <c r="O10" s="121"/>
+      <c r="P10" s="121"/>
+      <c r="Q10" s="121"/>
+      <c r="R10" s="121"/>
+      <c r="S10" s="121"/>
+      <c r="T10" s="121"/>
+      <c r="U10" s="129"/>
+      <c r="V10" s="129"/>
+      <c r="W10" s="129"/>
+      <c r="X10" s="129"/>
+      <c r="Y10" s="129"/>
+      <c r="Z10" s="115"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="118">
+      <c r="A11" s="112">
         <v>1</v>
       </c>
-      <c r="B11" s="118">
+      <c r="B11" s="112">
         <v>1</v>
       </c>
-      <c r="C11" s="119" t="s">
+      <c r="C11" s="113" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="120" t="s">
+      <c r="D11" s="114" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="25">
@@ -13340,28 +13341,28 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="124" t="s">
-        <v>8</v>
-      </c>
-      <c r="X11" s="163"/>
-      <c r="Y11" s="124">
+      <c r="U11" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="103" t="s">
+        <v>8</v>
+      </c>
+      <c r="X11" s="156"/>
+      <c r="Y11" s="103">
         <v>20</v>
       </c>
-      <c r="Z11" s="167">
+      <c r="Z11" s="169">
         <v>4770</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="118"/>
-      <c r="B12" s="118"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="120"/>
+      <c r="A12" s="112"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="114"/>
       <c r="E12" s="26" t="s">
         <v>88</v>
       </c>
@@ -13410,18 +13411,18 @@
       <c r="T12" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="U12" s="122"/>
-      <c r="V12" s="122"/>
-      <c r="W12" s="125"/>
-      <c r="X12" s="164"/>
-      <c r="Y12" s="126"/>
-      <c r="Z12" s="167"/>
+      <c r="U12" s="110"/>
+      <c r="V12" s="110"/>
+      <c r="W12" s="104"/>
+      <c r="X12" s="157"/>
+      <c r="Y12" s="105"/>
+      <c r="Z12" s="169"/>
     </row>
     <row r="13" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="118"/>
-      <c r="B13" s="118"/>
-      <c r="C13" s="119"/>
-      <c r="D13" s="120"/>
+      <c r="A13" s="112"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="114"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -13470,20 +13471,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="122"/>
-      <c r="V13" s="122"/>
-      <c r="W13" s="125"/>
-      <c r="X13" s="164"/>
-      <c r="Y13" s="124">
+      <c r="U13" s="110"/>
+      <c r="V13" s="110"/>
+      <c r="W13" s="104"/>
+      <c r="X13" s="157"/>
+      <c r="Y13" s="103">
         <v>160</v>
       </c>
-      <c r="Z13" s="167"/>
+      <c r="Z13" s="169"/>
     </row>
     <row r="14" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="118"/>
-      <c r="B14" s="118"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="120"/>
+      <c r="A14" s="112"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="114"/>
       <c r="E14" s="26" t="s">
         <v>88</v>
       </c>
@@ -13532,18 +13533,18 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="123"/>
-      <c r="V14" s="123"/>
-      <c r="W14" s="126"/>
-      <c r="X14" s="165"/>
-      <c r="Y14" s="126"/>
-      <c r="Z14" s="167"/>
+      <c r="U14" s="111"/>
+      <c r="V14" s="111"/>
+      <c r="W14" s="105"/>
+      <c r="X14" s="158"/>
+      <c r="Y14" s="105"/>
+      <c r="Z14" s="169"/>
     </row>
     <row r="15" spans="1:26" s="59" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="128" t="s">
+      <c r="B15" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="128"/>
+      <c r="C15" s="107"/>
       <c r="D15" s="58">
         <f>Мельницький!C36</f>
         <v>44621</v>
@@ -13607,6 +13608,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A6:Y6"/>
+    <mergeCell ref="A7:Y7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="Z9:Z10"/>
     <mergeCell ref="A11:A14"/>
@@ -13620,18 +13633,6 @@
     <mergeCell ref="Y11:Y12"/>
     <mergeCell ref="Z11:Z14"/>
     <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="A6:Y6"/>
-    <mergeCell ref="A7:Y7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>

--- a/Фопи/Зарплата ФОП 2021/Табель ФОП 2022/Табель 02.xlsx
+++ b/Фопи/Зарплата ФОП 2021/Табель ФОП 2022/Табель 02.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="96" windowWidth="15120" windowHeight="7776" tabRatio="874" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="96" windowWidth="15120" windowHeight="7776" tabRatio="874" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Угринчук" sheetId="25" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="106">
   <si>
     <t>Посада</t>
   </si>
@@ -974,6 +974,42 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1019,57 +1055,51 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1085,35 +1115,14 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1123,15 +1132,6 @@
     </xf>
     <xf numFmtId="2" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1504,49 +1504,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="102"/>
-      <c r="S1" s="102"/>
-      <c r="T1" s="102"/>
-      <c r="U1" s="102"/>
-      <c r="V1" s="102"/>
-      <c r="W1" s="102"/>
-      <c r="X1" s="102"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="114"/>
+      <c r="T1" s="114"/>
+      <c r="U1" s="114"/>
+      <c r="V1" s="114"/>
+      <c r="W1" s="114"/>
+      <c r="X1" s="114"/>
     </row>
     <row r="2" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="115" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="103"/>
-      <c r="S2" s="103"/>
-      <c r="T2" s="103"/>
-      <c r="U2" s="103"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="103"/>
-      <c r="X2" s="103"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="115"/>
+      <c r="O2" s="115"/>
+      <c r="P2" s="115"/>
+      <c r="Q2" s="115"/>
+      <c r="R2" s="115"/>
+      <c r="S2" s="115"/>
+      <c r="T2" s="115"/>
+      <c r="U2" s="115"/>
+      <c r="V2" s="115"/>
+      <c r="W2" s="115"/>
+      <c r="X2" s="115"/>
     </row>
     <row r="3" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="90"/>
@@ -1656,147 +1656,147 @@
       <c r="X6" s="2"/>
     </row>
     <row r="7" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="104" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
-      <c r="N7" s="104"/>
-      <c r="O7" s="104"/>
-      <c r="P7" s="104"/>
-      <c r="Q7" s="104"/>
-      <c r="R7" s="104"/>
-      <c r="S7" s="104"/>
-      <c r="T7" s="104"/>
-      <c r="U7" s="104"/>
-      <c r="V7" s="104"/>
-      <c r="W7" s="104"/>
-      <c r="X7" s="104"/>
+      <c r="A7" s="116" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="116"/>
+      <c r="M7" s="116"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
+      <c r="S7" s="116"/>
+      <c r="T7" s="116"/>
+      <c r="U7" s="116"/>
+      <c r="V7" s="116"/>
+      <c r="W7" s="116"/>
+      <c r="X7" s="116"/>
     </row>
     <row r="8" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="105" t="str">
+      <c r="A8" s="117" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЛЮТИЙ 2022 р.</v>
       </c>
-      <c r="B8" s="105"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="105"/>
-      <c r="N8" s="105"/>
-      <c r="O8" s="105"/>
-      <c r="P8" s="105"/>
-      <c r="Q8" s="105"/>
-      <c r="R8" s="105"/>
-      <c r="S8" s="105"/>
-      <c r="T8" s="105"/>
-      <c r="U8" s="105"/>
-      <c r="V8" s="105"/>
-      <c r="W8" s="105"/>
-      <c r="X8" s="105"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
+      <c r="L8" s="117"/>
+      <c r="M8" s="117"/>
+      <c r="N8" s="117"/>
+      <c r="O8" s="117"/>
+      <c r="P8" s="117"/>
+      <c r="Q8" s="117"/>
+      <c r="R8" s="117"/>
+      <c r="S8" s="117"/>
+      <c r="T8" s="117"/>
+      <c r="U8" s="117"/>
+      <c r="V8" s="117"/>
+      <c r="W8" s="117"/>
+      <c r="X8" s="117"/>
     </row>
     <row r="9" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="106" t="s">
+      <c r="A9" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="107"/>
-      <c r="C9" s="106" t="s">
+      <c r="B9" s="119"/>
+      <c r="C9" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="106" t="s">
+      <c r="D9" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="108" t="s">
+      <c r="E9" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="109"/>
-      <c r="J9" s="109"/>
-      <c r="K9" s="109"/>
-      <c r="L9" s="109"/>
-      <c r="M9" s="109"/>
-      <c r="N9" s="109"/>
-      <c r="O9" s="109"/>
-      <c r="P9" s="109"/>
-      <c r="Q9" s="109"/>
-      <c r="R9" s="109"/>
-      <c r="S9" s="109"/>
-      <c r="T9" s="110"/>
-      <c r="U9" s="114" t="s">
+      <c r="F9" s="121"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="121"/>
+      <c r="K9" s="121"/>
+      <c r="L9" s="121"/>
+      <c r="M9" s="121"/>
+      <c r="N9" s="121"/>
+      <c r="O9" s="121"/>
+      <c r="P9" s="121"/>
+      <c r="Q9" s="121"/>
+      <c r="R9" s="121"/>
+      <c r="S9" s="121"/>
+      <c r="T9" s="122"/>
+      <c r="U9" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="114" t="s">
+      <c r="V9" s="126" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="114" t="s">
+      <c r="W9" s="126" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="114" t="s">
+      <c r="X9" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="114" t="s">
+      <c r="Y9" s="126" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="100" t="s">
+      <c r="Z9" s="112" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="106"/>
-      <c r="B10" s="107"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="112"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="112"/>
-      <c r="K10" s="112"/>
-      <c r="L10" s="112"/>
-      <c r="M10" s="112"/>
-      <c r="N10" s="112"/>
-      <c r="O10" s="112"/>
-      <c r="P10" s="112"/>
-      <c r="Q10" s="112"/>
-      <c r="R10" s="112"/>
-      <c r="S10" s="112"/>
-      <c r="T10" s="113"/>
-      <c r="U10" s="114"/>
-      <c r="V10" s="114"/>
-      <c r="W10" s="114"/>
-      <c r="X10" s="114"/>
-      <c r="Y10" s="114"/>
-      <c r="Z10" s="100"/>
+      <c r="A10" s="118"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="124"/>
+      <c r="G10" s="124"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="124"/>
+      <c r="J10" s="124"/>
+      <c r="K10" s="124"/>
+      <c r="L10" s="124"/>
+      <c r="M10" s="124"/>
+      <c r="N10" s="124"/>
+      <c r="O10" s="124"/>
+      <c r="P10" s="124"/>
+      <c r="Q10" s="124"/>
+      <c r="R10" s="124"/>
+      <c r="S10" s="124"/>
+      <c r="T10" s="125"/>
+      <c r="U10" s="126"/>
+      <c r="V10" s="126"/>
+      <c r="W10" s="126"/>
+      <c r="X10" s="126"/>
+      <c r="Y10" s="126"/>
+      <c r="Z10" s="112"/>
     </row>
     <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="115">
+      <c r="A11" s="109">
         <v>1</v>
       </c>
-      <c r="B11" s="115"/>
-      <c r="C11" s="116" t="s">
+      <c r="B11" s="109"/>
+      <c r="C11" s="110" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="117" t="s">
+      <c r="D11" s="111" t="s">
         <v>84</v>
       </c>
       <c r="E11" s="25">
@@ -1847,28 +1847,28 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="121" t="s">
+      <c r="U11" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="100" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="86"/>
-      <c r="Y11" s="121">
+      <c r="Y11" s="100">
         <v>20</v>
       </c>
-      <c r="Z11" s="124">
+      <c r="Z11" s="103">
         <v>6500</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="115"/>
-      <c r="B12" s="115"/>
-      <c r="C12" s="116"/>
-      <c r="D12" s="117"/>
+      <c r="A12" s="109"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="111"/>
       <c r="E12" s="26">
         <v>4</v>
       </c>
@@ -1917,22 +1917,22 @@
       <c r="T12" s="26">
         <v>4</v>
       </c>
-      <c r="U12" s="119"/>
-      <c r="V12" s="119"/>
-      <c r="W12" s="122"/>
+      <c r="U12" s="107"/>
+      <c r="V12" s="107"/>
+      <c r="W12" s="101"/>
       <c r="X12" s="87"/>
-      <c r="Y12" s="123"/>
-      <c r="Z12" s="124"/>
+      <c r="Y12" s="102"/>
+      <c r="Z12" s="103"/>
       <c r="AA12" s="2">
         <f>SUM(E12:T12)</f>
         <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="115"/>
-      <c r="B13" s="115"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="117"/>
+      <c r="A13" s="109"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="111"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -1981,25 +1981,25 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="119"/>
-      <c r="V13" s="119"/>
-      <c r="W13" s="122"/>
+      <c r="U13" s="107"/>
+      <c r="V13" s="107"/>
+      <c r="W13" s="101"/>
       <c r="X13" s="87"/>
-      <c r="Y13" s="121">
+      <c r="Y13" s="100">
         <f>AB13</f>
         <v>80</v>
       </c>
-      <c r="Z13" s="124"/>
+      <c r="Z13" s="103"/>
       <c r="AB13" s="2">
         <f>AA12+AA14</f>
         <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="115"/>
-      <c r="B14" s="115"/>
-      <c r="C14" s="116"/>
-      <c r="D14" s="117"/>
+      <c r="A14" s="109"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="111"/>
       <c r="E14" s="26">
         <v>4</v>
       </c>
@@ -2048,12 +2048,12 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="120"/>
-      <c r="V14" s="120"/>
-      <c r="W14" s="123"/>
+      <c r="U14" s="108"/>
+      <c r="V14" s="108"/>
+      <c r="W14" s="102"/>
       <c r="X14" s="88"/>
-      <c r="Y14" s="123"/>
-      <c r="Z14" s="124"/>
+      <c r="Y14" s="102"/>
+      <c r="Z14" s="103"/>
       <c r="AA14" s="2">
         <f>SUM(E14:T14)</f>
         <v>32</v>
@@ -2138,18 +2138,18 @@
       <c r="X17" s="9"/>
     </row>
     <row r="18" spans="1:24" s="89" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="B18" s="125" t="s">
+      <c r="B18" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="125"/>
-      <c r="D18" s="126">
+      <c r="C18" s="104"/>
+      <c r="D18" s="105">
         <f>Мельницький!C36</f>
         <v>44621</v>
       </c>
-      <c r="E18" s="126"/>
-      <c r="F18" s="126"/>
-      <c r="G18" s="126"/>
-      <c r="H18" s="126"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="105"/>
       <c r="L18" s="89" t="s">
         <v>98</v>
       </c>
@@ -2191,18 +2191,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Z11:Z14"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
     <mergeCell ref="Z9:Z10"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="P1:X1"/>
@@ -2219,6 +2207,18 @@
     <mergeCell ref="W9:W10"/>
     <mergeCell ref="X9:X10"/>
     <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Z11:Z14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="V11:V14"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
@@ -2383,63 +2383,63 @@
       <c r="Y5" s="62"/>
     </row>
     <row r="6" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A6" s="104" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="104"/>
-      <c r="L6" s="104"/>
-      <c r="M6" s="104"/>
-      <c r="N6" s="104"/>
-      <c r="O6" s="104"/>
-      <c r="P6" s="104"/>
-      <c r="Q6" s="104"/>
-      <c r="R6" s="104"/>
-      <c r="S6" s="104"/>
-      <c r="T6" s="104"/>
-      <c r="U6" s="104"/>
-      <c r="V6" s="104"/>
-      <c r="W6" s="104"/>
-      <c r="X6" s="104"/>
-      <c r="Y6" s="104"/>
+      <c r="A6" s="116" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="116"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116"/>
+      <c r="L6" s="116"/>
+      <c r="M6" s="116"/>
+      <c r="N6" s="116"/>
+      <c r="O6" s="116"/>
+      <c r="P6" s="116"/>
+      <c r="Q6" s="116"/>
+      <c r="R6" s="116"/>
+      <c r="S6" s="116"/>
+      <c r="T6" s="116"/>
+      <c r="U6" s="116"/>
+      <c r="V6" s="116"/>
+      <c r="W6" s="116"/>
+      <c r="X6" s="116"/>
+      <c r="Y6" s="116"/>
     </row>
     <row r="7" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="104" t="str">
+      <c r="A7" s="116" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЛЮТИЙ 2022 р.</v>
       </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
-      <c r="N7" s="104"/>
-      <c r="O7" s="104"/>
-      <c r="P7" s="104"/>
-      <c r="Q7" s="104"/>
-      <c r="R7" s="104"/>
-      <c r="S7" s="104"/>
-      <c r="T7" s="104"/>
-      <c r="U7" s="104"/>
-      <c r="V7" s="104"/>
-      <c r="W7" s="104"/>
-      <c r="X7" s="104"/>
-      <c r="Y7" s="104"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="116"/>
+      <c r="M7" s="116"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
+      <c r="S7" s="116"/>
+      <c r="T7" s="116"/>
+      <c r="U7" s="116"/>
+      <c r="V7" s="116"/>
+      <c r="W7" s="116"/>
+      <c r="X7" s="116"/>
+      <c r="Y7" s="116"/>
     </row>
     <row r="8" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="60"/>
@@ -2469,94 +2469,94 @@
       <c r="Y8" s="60"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="106" t="s">
+      <c r="A9" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="107" t="s">
+      <c r="B9" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="106" t="s">
+      <c r="C9" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="106" t="s">
+      <c r="D9" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="106" t="s">
+      <c r="E9" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="106"/>
-      <c r="M9" s="106"/>
-      <c r="N9" s="106"/>
-      <c r="O9" s="106"/>
-      <c r="P9" s="106"/>
-      <c r="Q9" s="106"/>
-      <c r="R9" s="106"/>
-      <c r="S9" s="106"/>
-      <c r="T9" s="106"/>
-      <c r="U9" s="114" t="s">
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="118"/>
+      <c r="M9" s="118"/>
+      <c r="N9" s="118"/>
+      <c r="O9" s="118"/>
+      <c r="P9" s="118"/>
+      <c r="Q9" s="118"/>
+      <c r="R9" s="118"/>
+      <c r="S9" s="118"/>
+      <c r="T9" s="118"/>
+      <c r="U9" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="114" t="s">
+      <c r="V9" s="126" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="114" t="s">
+      <c r="W9" s="126" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="114" t="s">
+      <c r="X9" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="114" t="s">
+      <c r="Y9" s="126" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="100" t="s">
+      <c r="Z9" s="112" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="106"/>
-      <c r="B10" s="107"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="106"/>
-      <c r="L10" s="106"/>
-      <c r="M10" s="106"/>
-      <c r="N10" s="106"/>
-      <c r="O10" s="106"/>
-      <c r="P10" s="106"/>
-      <c r="Q10" s="106"/>
-      <c r="R10" s="106"/>
-      <c r="S10" s="106"/>
-      <c r="T10" s="106"/>
-      <c r="U10" s="114"/>
-      <c r="V10" s="114"/>
-      <c r="W10" s="114"/>
-      <c r="X10" s="114"/>
-      <c r="Y10" s="114"/>
-      <c r="Z10" s="100"/>
+      <c r="A10" s="118"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="118"/>
+      <c r="M10" s="118"/>
+      <c r="N10" s="118"/>
+      <c r="O10" s="118"/>
+      <c r="P10" s="118"/>
+      <c r="Q10" s="118"/>
+      <c r="R10" s="118"/>
+      <c r="S10" s="118"/>
+      <c r="T10" s="118"/>
+      <c r="U10" s="126"/>
+      <c r="V10" s="126"/>
+      <c r="W10" s="126"/>
+      <c r="X10" s="126"/>
+      <c r="Y10" s="126"/>
+      <c r="Z10" s="112"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="115">
+      <c r="A11" s="109">
         <v>1</v>
       </c>
-      <c r="B11" s="115">
+      <c r="B11" s="109">
         <v>1</v>
       </c>
-      <c r="C11" s="116" t="s">
+      <c r="C11" s="110" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="117" t="s">
+      <c r="D11" s="111" t="s">
         <v>74</v>
       </c>
       <c r="E11" s="25">
@@ -2607,17 +2607,17 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="121" t="s">
+      <c r="U11" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="100" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="153"/>
-      <c r="Y11" s="121" t="s">
+      <c r="Y11" s="100" t="s">
         <v>8</v>
       </c>
       <c r="Z11" s="166">
@@ -2625,10 +2625,10 @@
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="115"/>
-      <c r="B12" s="115"/>
-      <c r="C12" s="116"/>
-      <c r="D12" s="117"/>
+      <c r="A12" s="109"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="111"/>
       <c r="E12" s="26" t="s">
         <v>88</v>
       </c>
@@ -2677,18 +2677,18 @@
       <c r="T12" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="U12" s="119"/>
-      <c r="V12" s="119"/>
-      <c r="W12" s="122"/>
+      <c r="U12" s="107"/>
+      <c r="V12" s="107"/>
+      <c r="W12" s="101"/>
       <c r="X12" s="154"/>
-      <c r="Y12" s="123"/>
+      <c r="Y12" s="102"/>
       <c r="Z12" s="166"/>
     </row>
     <row r="13" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="115"/>
-      <c r="B13" s="115"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="117"/>
+      <c r="A13" s="109"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="111"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -2737,20 +2737,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="119"/>
-      <c r="V13" s="119"/>
-      <c r="W13" s="122"/>
+      <c r="U13" s="107"/>
+      <c r="V13" s="107"/>
+      <c r="W13" s="101"/>
       <c r="X13" s="154"/>
-      <c r="Y13" s="121" t="s">
+      <c r="Y13" s="100" t="s">
         <v>8</v>
       </c>
       <c r="Z13" s="166"/>
     </row>
     <row r="14" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="115"/>
-      <c r="B14" s="115"/>
-      <c r="C14" s="116"/>
-      <c r="D14" s="117"/>
+      <c r="A14" s="109"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="111"/>
       <c r="E14" s="26" t="s">
         <v>88</v>
       </c>
@@ -2799,18 +2799,18 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="120"/>
-      <c r="V14" s="120"/>
-      <c r="W14" s="123"/>
+      <c r="U14" s="108"/>
+      <c r="V14" s="108"/>
+      <c r="W14" s="102"/>
       <c r="X14" s="155"/>
-      <c r="Y14" s="123"/>
+      <c r="Y14" s="102"/>
       <c r="Z14" s="166"/>
     </row>
     <row r="15" spans="1:26" s="61" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="125" t="s">
+      <c r="B15" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="125"/>
+      <c r="C15" s="104"/>
       <c r="D15" s="63">
         <f>Мельницький!C36</f>
         <v>44621</v>
@@ -2874,18 +2874,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A6:Y6"/>
-    <mergeCell ref="A7:Y7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="Z9:Z10"/>
     <mergeCell ref="A11:A14"/>
@@ -2899,6 +2887,18 @@
     <mergeCell ref="Y11:Y12"/>
     <mergeCell ref="Z11:Z14"/>
     <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="A6:Y6"/>
+    <mergeCell ref="A7:Y7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -3086,147 +3086,147 @@
       <c r="X6" s="19"/>
     </row>
     <row r="7" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="104" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
-      <c r="N7" s="104"/>
-      <c r="O7" s="104"/>
-      <c r="P7" s="104"/>
-      <c r="Q7" s="104"/>
-      <c r="R7" s="104"/>
-      <c r="S7" s="104"/>
-      <c r="T7" s="104"/>
-      <c r="U7" s="104"/>
-      <c r="V7" s="104"/>
-      <c r="W7" s="104"/>
-      <c r="X7" s="104"/>
+      <c r="A7" s="116" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="116"/>
+      <c r="M7" s="116"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
+      <c r="S7" s="116"/>
+      <c r="T7" s="116"/>
+      <c r="U7" s="116"/>
+      <c r="V7" s="116"/>
+      <c r="W7" s="116"/>
+      <c r="X7" s="116"/>
     </row>
     <row r="8" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="104" t="str">
+      <c r="A8" s="116" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЛЮТИЙ 2022 р.</v>
       </c>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="104"/>
-      <c r="Q8" s="104"/>
-      <c r="R8" s="104"/>
-      <c r="S8" s="104"/>
-      <c r="T8" s="104"/>
-      <c r="U8" s="104"/>
-      <c r="V8" s="104"/>
-      <c r="W8" s="104"/>
-      <c r="X8" s="104"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="116"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="116"/>
+      <c r="N8" s="116"/>
+      <c r="O8" s="116"/>
+      <c r="P8" s="116"/>
+      <c r="Q8" s="116"/>
+      <c r="R8" s="116"/>
+      <c r="S8" s="116"/>
+      <c r="T8" s="116"/>
+      <c r="U8" s="116"/>
+      <c r="V8" s="116"/>
+      <c r="W8" s="116"/>
+      <c r="X8" s="116"/>
     </row>
     <row r="9" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="106" t="s">
+      <c r="A9" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="107" t="s">
+      <c r="B9" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="106" t="s">
+      <c r="C9" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="106" t="s">
+      <c r="D9" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="106" t="s">
+      <c r="E9" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="106"/>
-      <c r="M9" s="106"/>
-      <c r="N9" s="106"/>
-      <c r="O9" s="106"/>
-      <c r="P9" s="106"/>
-      <c r="Q9" s="106"/>
-      <c r="R9" s="106"/>
-      <c r="S9" s="106"/>
-      <c r="T9" s="106"/>
-      <c r="U9" s="114" t="s">
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="118"/>
+      <c r="M9" s="118"/>
+      <c r="N9" s="118"/>
+      <c r="O9" s="118"/>
+      <c r="P9" s="118"/>
+      <c r="Q9" s="118"/>
+      <c r="R9" s="118"/>
+      <c r="S9" s="118"/>
+      <c r="T9" s="118"/>
+      <c r="U9" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="114" t="s">
+      <c r="V9" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="W9" s="114" t="s">
+      <c r="W9" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="X9" s="114" t="s">
+      <c r="X9" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="Y9" s="100" t="s">
+      <c r="Y9" s="112" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="106"/>
-      <c r="B10" s="107"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="106"/>
-      <c r="L10" s="106"/>
-      <c r="M10" s="106"/>
-      <c r="N10" s="106"/>
-      <c r="O10" s="106"/>
-      <c r="P10" s="106"/>
-      <c r="Q10" s="106"/>
-      <c r="R10" s="106"/>
-      <c r="S10" s="106"/>
-      <c r="T10" s="106"/>
-      <c r="U10" s="114"/>
-      <c r="V10" s="114"/>
-      <c r="W10" s="114"/>
-      <c r="X10" s="114"/>
-      <c r="Y10" s="100"/>
+      <c r="A10" s="118"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="118"/>
+      <c r="M10" s="118"/>
+      <c r="N10" s="118"/>
+      <c r="O10" s="118"/>
+      <c r="P10" s="118"/>
+      <c r="Q10" s="118"/>
+      <c r="R10" s="118"/>
+      <c r="S10" s="118"/>
+      <c r="T10" s="118"/>
+      <c r="U10" s="126"/>
+      <c r="V10" s="126"/>
+      <c r="W10" s="126"/>
+      <c r="X10" s="126"/>
+      <c r="Y10" s="112"/>
     </row>
     <row r="11" spans="1:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="115">
+      <c r="A11" s="109">
         <v>1</v>
       </c>
-      <c r="B11" s="115">
+      <c r="B11" s="109">
         <v>1</v>
       </c>
-      <c r="C11" s="116" t="s">
+      <c r="C11" s="110" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="117" t="s">
+      <c r="D11" s="111" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="25">
@@ -3277,29 +3277,29 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="X11" s="121">
+      <c r="U11" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="100" t="s">
+        <v>8</v>
+      </c>
+      <c r="X11" s="100">
         <v>21</v>
       </c>
-      <c r="Y11" s="121"/>
+      <c r="Y11" s="100"/>
       <c r="Z11" s="3">
         <f>SUM(E12:T12)</f>
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="115"/>
-      <c r="B12" s="115"/>
-      <c r="C12" s="116"/>
-      <c r="D12" s="117"/>
+      <c r="A12" s="109"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="111"/>
       <c r="E12" s="26" t="s">
         <v>13</v>
       </c>
@@ -3348,17 +3348,17 @@
       <c r="T12" s="26">
         <v>2</v>
       </c>
-      <c r="U12" s="119"/>
-      <c r="V12" s="119"/>
-      <c r="W12" s="122"/>
-      <c r="X12" s="122"/>
-      <c r="Y12" s="122"/>
+      <c r="U12" s="107"/>
+      <c r="V12" s="107"/>
+      <c r="W12" s="101"/>
+      <c r="X12" s="101"/>
+      <c r="Y12" s="101"/>
     </row>
     <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="115"/>
-      <c r="B13" s="115"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="117"/>
+      <c r="A13" s="109"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="111"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -3407,23 +3407,23 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="119"/>
-      <c r="V13" s="119"/>
-      <c r="W13" s="122"/>
-      <c r="X13" s="122">
+      <c r="U13" s="107"/>
+      <c r="V13" s="107"/>
+      <c r="W13" s="101"/>
+      <c r="X13" s="101">
         <v>42</v>
       </c>
-      <c r="Y13" s="122"/>
+      <c r="Y13" s="101"/>
       <c r="AA13" s="2">
         <f>Z11+Z14</f>
         <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="115"/>
-      <c r="B14" s="115"/>
-      <c r="C14" s="116"/>
-      <c r="D14" s="117"/>
+      <c r="A14" s="109"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="111"/>
       <c r="E14" s="26">
         <v>2</v>
       </c>
@@ -3472,11 +3472,11 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="120"/>
-      <c r="V14" s="120"/>
-      <c r="W14" s="123"/>
-      <c r="X14" s="123"/>
-      <c r="Y14" s="123"/>
+      <c r="U14" s="108"/>
+      <c r="V14" s="108"/>
+      <c r="W14" s="102"/>
+      <c r="X14" s="102"/>
+      <c r="Y14" s="102"/>
       <c r="Z14" s="3">
         <f>SUM(E14:T14)</f>
         <v>22</v>
@@ -3602,6 +3602,20 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
     <mergeCell ref="A7:X7"/>
     <mergeCell ref="A8:X8"/>
     <mergeCell ref="A9:A10"/>
@@ -3611,20 +3625,6 @@
     <mergeCell ref="E9:T10"/>
     <mergeCell ref="U9:U10"/>
     <mergeCell ref="V9:V10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="Y11:Y14"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
@@ -3812,147 +3812,147 @@
       <c r="X6" s="19"/>
     </row>
     <row r="7" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="104" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
-      <c r="N7" s="104"/>
-      <c r="O7" s="104"/>
-      <c r="P7" s="104"/>
-      <c r="Q7" s="104"/>
-      <c r="R7" s="104"/>
-      <c r="S7" s="104"/>
-      <c r="T7" s="104"/>
-      <c r="U7" s="104"/>
-      <c r="V7" s="104"/>
-      <c r="W7" s="104"/>
-      <c r="X7" s="104"/>
+      <c r="A7" s="116" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="116"/>
+      <c r="M7" s="116"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
+      <c r="S7" s="116"/>
+      <c r="T7" s="116"/>
+      <c r="U7" s="116"/>
+      <c r="V7" s="116"/>
+      <c r="W7" s="116"/>
+      <c r="X7" s="116"/>
     </row>
     <row r="8" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="104" t="str">
+      <c r="A8" s="116" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЛЮТИЙ 2022 р.</v>
       </c>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="104"/>
-      <c r="Q8" s="104"/>
-      <c r="R8" s="104"/>
-      <c r="S8" s="104"/>
-      <c r="T8" s="104"/>
-      <c r="U8" s="104"/>
-      <c r="V8" s="104"/>
-      <c r="W8" s="104"/>
-      <c r="X8" s="104"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="116"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="116"/>
+      <c r="N8" s="116"/>
+      <c r="O8" s="116"/>
+      <c r="P8" s="116"/>
+      <c r="Q8" s="116"/>
+      <c r="R8" s="116"/>
+      <c r="S8" s="116"/>
+      <c r="T8" s="116"/>
+      <c r="U8" s="116"/>
+      <c r="V8" s="116"/>
+      <c r="W8" s="116"/>
+      <c r="X8" s="116"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="106" t="s">
+      <c r="A9" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="107" t="s">
+      <c r="B9" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="106" t="s">
+      <c r="C9" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="106" t="s">
+      <c r="D9" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="106" t="s">
+      <c r="E9" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="106"/>
-      <c r="M9" s="106"/>
-      <c r="N9" s="106"/>
-      <c r="O9" s="106"/>
-      <c r="P9" s="106"/>
-      <c r="Q9" s="106"/>
-      <c r="R9" s="106"/>
-      <c r="S9" s="106"/>
-      <c r="T9" s="106"/>
-      <c r="U9" s="114" t="s">
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="118"/>
+      <c r="M9" s="118"/>
+      <c r="N9" s="118"/>
+      <c r="O9" s="118"/>
+      <c r="P9" s="118"/>
+      <c r="Q9" s="118"/>
+      <c r="R9" s="118"/>
+      <c r="S9" s="118"/>
+      <c r="T9" s="118"/>
+      <c r="U9" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="114" t="s">
+      <c r="V9" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="W9" s="114" t="s">
+      <c r="W9" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="X9" s="114" t="s">
+      <c r="X9" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="Y9" s="100" t="s">
+      <c r="Y9" s="112" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="106"/>
-      <c r="B10" s="107"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="106"/>
-      <c r="L10" s="106"/>
-      <c r="M10" s="106"/>
-      <c r="N10" s="106"/>
-      <c r="O10" s="106"/>
-      <c r="P10" s="106"/>
-      <c r="Q10" s="106"/>
-      <c r="R10" s="106"/>
-      <c r="S10" s="106"/>
-      <c r="T10" s="106"/>
-      <c r="U10" s="114"/>
-      <c r="V10" s="114"/>
-      <c r="W10" s="114"/>
-      <c r="X10" s="114"/>
-      <c r="Y10" s="100"/>
+      <c r="A10" s="118"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="118"/>
+      <c r="M10" s="118"/>
+      <c r="N10" s="118"/>
+      <c r="O10" s="118"/>
+      <c r="P10" s="118"/>
+      <c r="Q10" s="118"/>
+      <c r="R10" s="118"/>
+      <c r="S10" s="118"/>
+      <c r="T10" s="118"/>
+      <c r="U10" s="126"/>
+      <c r="V10" s="126"/>
+      <c r="W10" s="126"/>
+      <c r="X10" s="126"/>
+      <c r="Y10" s="112"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="115">
+      <c r="A11" s="109">
         <v>1</v>
       </c>
-      <c r="B11" s="115">
+      <c r="B11" s="109">
         <v>1</v>
       </c>
-      <c r="C11" s="116" t="s">
+      <c r="C11" s="110" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="117" t="s">
+      <c r="D11" s="111" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="25">
@@ -4003,16 +4003,16 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="X11" s="121">
+      <c r="U11" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="100" t="s">
+        <v>8</v>
+      </c>
+      <c r="X11" s="100">
         <v>21</v>
       </c>
       <c r="Y11" s="158"/>
@@ -4022,10 +4022,10 @@
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="115"/>
-      <c r="B12" s="115"/>
-      <c r="C12" s="116"/>
-      <c r="D12" s="117"/>
+      <c r="A12" s="109"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="111"/>
       <c r="E12" s="26" t="s">
         <v>13</v>
       </c>
@@ -4074,17 +4074,17 @@
       <c r="T12" s="26">
         <v>2</v>
       </c>
-      <c r="U12" s="119"/>
-      <c r="V12" s="119"/>
-      <c r="W12" s="122"/>
-      <c r="X12" s="123"/>
+      <c r="U12" s="107"/>
+      <c r="V12" s="107"/>
+      <c r="W12" s="101"/>
+      <c r="X12" s="102"/>
       <c r="Y12" s="159"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="115"/>
-      <c r="B13" s="115"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="117"/>
+      <c r="A13" s="109"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="111"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -4133,20 +4133,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="119"/>
-      <c r="V13" s="119"/>
-      <c r="W13" s="122"/>
-      <c r="X13" s="121">
+      <c r="U13" s="107"/>
+      <c r="V13" s="107"/>
+      <c r="W13" s="101"/>
+      <c r="X13" s="100">
         <f>Z11+Z14</f>
         <v>42</v>
       </c>
       <c r="Y13" s="159"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="115"/>
-      <c r="B14" s="115"/>
-      <c r="C14" s="116"/>
-      <c r="D14" s="117"/>
+      <c r="A14" s="109"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="111"/>
       <c r="E14" s="26">
         <v>2</v>
       </c>
@@ -4195,10 +4195,10 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="120"/>
-      <c r="V14" s="120"/>
-      <c r="W14" s="123"/>
-      <c r="X14" s="123"/>
+      <c r="U14" s="108"/>
+      <c r="V14" s="108"/>
+      <c r="W14" s="102"/>
+      <c r="X14" s="102"/>
       <c r="Y14" s="160"/>
       <c r="Z14" s="3">
         <f>SUM(E14:T14)</f>
@@ -4325,19 +4325,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
     <mergeCell ref="A7:X7"/>
     <mergeCell ref="A8:X8"/>
     <mergeCell ref="A9:A10"/>
@@ -4348,6 +4335,19 @@
     <mergeCell ref="U9:U10"/>
     <mergeCell ref="V9:V10"/>
     <mergeCell ref="W9:W10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="X11:X12"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
@@ -4376,12 +4376,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
       <c r="Q1" s="15" t="s">
         <v>40</v>
       </c>
@@ -4525,149 +4525,149 @@
       <c r="X6" s="19"/>
     </row>
     <row r="7" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="104" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
-      <c r="N7" s="104"/>
-      <c r="O7" s="104"/>
-      <c r="P7" s="104"/>
-      <c r="Q7" s="104"/>
-      <c r="R7" s="104"/>
-      <c r="S7" s="104"/>
-      <c r="T7" s="104"/>
-      <c r="U7" s="104"/>
-      <c r="V7" s="104"/>
-      <c r="W7" s="104"/>
-      <c r="X7" s="104"/>
-      <c r="Y7" s="104"/>
-      <c r="Z7" s="104"/>
+      <c r="A7" s="116" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="116"/>
+      <c r="M7" s="116"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
+      <c r="S7" s="116"/>
+      <c r="T7" s="116"/>
+      <c r="U7" s="116"/>
+      <c r="V7" s="116"/>
+      <c r="W7" s="116"/>
+      <c r="X7" s="116"/>
+      <c r="Y7" s="116"/>
+      <c r="Z7" s="116"/>
     </row>
     <row r="8" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="105" t="str">
+      <c r="A8" s="117" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЛЮТИЙ 2022 р.</v>
       </c>
-      <c r="B8" s="105"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="105"/>
-      <c r="N8" s="105"/>
-      <c r="O8" s="105"/>
-      <c r="P8" s="105"/>
-      <c r="Q8" s="105"/>
-      <c r="R8" s="105"/>
-      <c r="S8" s="105"/>
-      <c r="T8" s="105"/>
-      <c r="U8" s="105"/>
-      <c r="V8" s="105"/>
-      <c r="W8" s="105"/>
-      <c r="X8" s="105"/>
-      <c r="Y8" s="105"/>
-      <c r="Z8" s="105"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
+      <c r="L8" s="117"/>
+      <c r="M8" s="117"/>
+      <c r="N8" s="117"/>
+      <c r="O8" s="117"/>
+      <c r="P8" s="117"/>
+      <c r="Q8" s="117"/>
+      <c r="R8" s="117"/>
+      <c r="S8" s="117"/>
+      <c r="T8" s="117"/>
+      <c r="U8" s="117"/>
+      <c r="V8" s="117"/>
+      <c r="W8" s="117"/>
+      <c r="X8" s="117"/>
+      <c r="Y8" s="117"/>
+      <c r="Z8" s="117"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="106" t="s">
+      <c r="A9" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="107" t="s">
+      <c r="B9" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="106" t="s">
+      <c r="C9" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="106" t="s">
+      <c r="D9" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="106" t="s">
+      <c r="E9" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="106"/>
-      <c r="M9" s="106"/>
-      <c r="N9" s="106"/>
-      <c r="O9" s="106"/>
-      <c r="P9" s="106"/>
-      <c r="Q9" s="106"/>
-      <c r="R9" s="106"/>
-      <c r="S9" s="106"/>
-      <c r="T9" s="106"/>
-      <c r="U9" s="114" t="s">
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="118"/>
+      <c r="M9" s="118"/>
+      <c r="N9" s="118"/>
+      <c r="O9" s="118"/>
+      <c r="P9" s="118"/>
+      <c r="Q9" s="118"/>
+      <c r="R9" s="118"/>
+      <c r="S9" s="118"/>
+      <c r="T9" s="118"/>
+      <c r="U9" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="114" t="s">
+      <c r="V9" s="126" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="114" t="s">
+      <c r="W9" s="126" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="114" t="s">
+      <c r="X9" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="114" t="s">
+      <c r="Y9" s="126" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="100" t="s">
+      <c r="Z9" s="112" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="106"/>
-      <c r="B10" s="107"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="106"/>
-      <c r="L10" s="106"/>
-      <c r="M10" s="106"/>
-      <c r="N10" s="106"/>
-      <c r="O10" s="106"/>
-      <c r="P10" s="106"/>
-      <c r="Q10" s="106"/>
-      <c r="R10" s="106"/>
-      <c r="S10" s="106"/>
-      <c r="T10" s="106"/>
-      <c r="U10" s="114"/>
-      <c r="V10" s="114"/>
-      <c r="W10" s="114"/>
-      <c r="X10" s="114"/>
-      <c r="Y10" s="114"/>
-      <c r="Z10" s="100"/>
+      <c r="A10" s="118"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="118"/>
+      <c r="M10" s="118"/>
+      <c r="N10" s="118"/>
+      <c r="O10" s="118"/>
+      <c r="P10" s="118"/>
+      <c r="Q10" s="118"/>
+      <c r="R10" s="118"/>
+      <c r="S10" s="118"/>
+      <c r="T10" s="118"/>
+      <c r="U10" s="126"/>
+      <c r="V10" s="126"/>
+      <c r="W10" s="126"/>
+      <c r="X10" s="126"/>
+      <c r="Y10" s="126"/>
+      <c r="Z10" s="112"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="115">
+      <c r="A11" s="109">
         <v>1</v>
       </c>
-      <c r="B11" s="115">
+      <c r="B11" s="109">
         <v>2</v>
       </c>
       <c r="C11" s="127" t="s">
@@ -4724,26 +4724,26 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="121" t="s">
+      <c r="U11" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="100" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="22"/>
-      <c r="Y11" s="121">
+      <c r="Y11" s="100">
         <v>21</v>
       </c>
-      <c r="Z11" s="124">
+      <c r="Z11" s="103">
         <v>3232</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="115"/>
-      <c r="B12" s="115"/>
+      <c r="A12" s="109"/>
+      <c r="B12" s="109"/>
       <c r="C12" s="127"/>
       <c r="D12" s="128"/>
       <c r="E12" s="26" t="s">
@@ -4794,16 +4794,16 @@
       <c r="T12" s="26">
         <v>2</v>
       </c>
-      <c r="U12" s="119"/>
-      <c r="V12" s="119"/>
-      <c r="W12" s="122"/>
+      <c r="U12" s="107"/>
+      <c r="V12" s="107"/>
+      <c r="W12" s="101"/>
       <c r="X12" s="23"/>
-      <c r="Y12" s="123"/>
-      <c r="Z12" s="124"/>
+      <c r="Y12" s="102"/>
+      <c r="Z12" s="103"/>
     </row>
     <row r="13" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="115"/>
-      <c r="B13" s="115"/>
+      <c r="A13" s="109"/>
+      <c r="B13" s="109"/>
       <c r="C13" s="127"/>
       <c r="D13" s="128"/>
       <c r="E13" s="27">
@@ -4854,18 +4854,18 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="119"/>
-      <c r="V13" s="119"/>
-      <c r="W13" s="122"/>
+      <c r="U13" s="107"/>
+      <c r="V13" s="107"/>
+      <c r="W13" s="101"/>
       <c r="X13" s="23"/>
-      <c r="Y13" s="121">
+      <c r="Y13" s="100">
         <v>42</v>
       </c>
-      <c r="Z13" s="124"/>
+      <c r="Z13" s="103"/>
     </row>
     <row r="14" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="115"/>
-      <c r="B14" s="115"/>
+      <c r="A14" s="109"/>
+      <c r="B14" s="109"/>
       <c r="C14" s="127"/>
       <c r="D14" s="128"/>
       <c r="E14" s="26">
@@ -4916,18 +4916,18 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="120"/>
-      <c r="V14" s="120"/>
-      <c r="W14" s="123"/>
+      <c r="U14" s="108"/>
+      <c r="V14" s="108"/>
+      <c r="W14" s="102"/>
       <c r="X14" s="24"/>
-      <c r="Y14" s="123"/>
-      <c r="Z14" s="124"/>
+      <c r="Y14" s="102"/>
+      <c r="Z14" s="103"/>
     </row>
     <row r="16" spans="1:26" ht="18" x14ac:dyDescent="0.3">
-      <c r="B16" s="125" t="s">
+      <c r="B16" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="125"/>
+      <c r="C16" s="104"/>
       <c r="D16" s="30">
         <v>42916</v>
       </c>
@@ -5009,6 +5009,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
     <mergeCell ref="Y11:Y12"/>
     <mergeCell ref="Z11:Z14"/>
     <mergeCell ref="Y13:Y14"/>
@@ -5025,15 +5034,6 @@
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="Y9:Y10"/>
     <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -5046,8 +5046,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A2:AA44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y36" sqref="A1:Y36"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -5066,11 +5066,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:27" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
       <c r="Q2" s="15" t="s">
         <v>40</v>
       </c>
@@ -5184,141 +5184,141 @@
       <c r="W6" s="18"/>
     </row>
     <row r="7" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="104" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
-      <c r="N7" s="104"/>
-      <c r="O7" s="104"/>
-      <c r="P7" s="104"/>
-      <c r="Q7" s="104"/>
-      <c r="R7" s="104"/>
-      <c r="S7" s="104"/>
-      <c r="T7" s="104"/>
-      <c r="U7" s="104"/>
-      <c r="V7" s="104"/>
-      <c r="W7" s="104"/>
+      <c r="A7" s="116" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="116"/>
+      <c r="M7" s="116"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
+      <c r="S7" s="116"/>
+      <c r="T7" s="116"/>
+      <c r="U7" s="116"/>
+      <c r="V7" s="116"/>
+      <c r="W7" s="116"/>
     </row>
     <row r="8" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="116" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="104"/>
-      <c r="Q8" s="104"/>
-      <c r="R8" s="104"/>
-      <c r="S8" s="104"/>
-      <c r="T8" s="104"/>
-      <c r="U8" s="104"/>
-      <c r="V8" s="104"/>
-      <c r="W8" s="104"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="116"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="116"/>
+      <c r="N8" s="116"/>
+      <c r="O8" s="116"/>
+      <c r="P8" s="116"/>
+      <c r="Q8" s="116"/>
+      <c r="R8" s="116"/>
+      <c r="S8" s="116"/>
+      <c r="T8" s="116"/>
+      <c r="U8" s="116"/>
+      <c r="V8" s="116"/>
+      <c r="W8" s="116"/>
     </row>
     <row r="9" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="106" t="s">
+      <c r="A9" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="106" t="s">
+      <c r="B9" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="106" t="s">
+      <c r="C9" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="106" t="s">
+      <c r="D9" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="106"/>
-      <c r="M9" s="106"/>
-      <c r="N9" s="106"/>
-      <c r="O9" s="106"/>
-      <c r="P9" s="106"/>
-      <c r="Q9" s="106"/>
-      <c r="R9" s="106"/>
-      <c r="S9" s="106"/>
-      <c r="T9" s="114" t="s">
+      <c r="E9" s="118"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="118"/>
+      <c r="M9" s="118"/>
+      <c r="N9" s="118"/>
+      <c r="O9" s="118"/>
+      <c r="P9" s="118"/>
+      <c r="Q9" s="118"/>
+      <c r="R9" s="118"/>
+      <c r="S9" s="118"/>
+      <c r="T9" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="U9" s="114" t="s">
+      <c r="U9" s="126" t="s">
         <v>49</v>
       </c>
-      <c r="V9" s="114" t="s">
+      <c r="V9" s="126" t="s">
         <v>50</v>
       </c>
-      <c r="W9" s="114" t="s">
+      <c r="W9" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="X9" s="114" t="s">
+      <c r="X9" s="126" t="s">
         <v>46</v>
       </c>
-      <c r="Y9" s="100" t="s">
+      <c r="Y9" s="112" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="106"/>
-      <c r="B10" s="106"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="106"/>
-      <c r="L10" s="106"/>
-      <c r="M10" s="106"/>
-      <c r="N10" s="106"/>
-      <c r="O10" s="106"/>
-      <c r="P10" s="106"/>
-      <c r="Q10" s="106"/>
-      <c r="R10" s="106"/>
-      <c r="S10" s="106"/>
-      <c r="T10" s="114"/>
-      <c r="U10" s="114"/>
-      <c r="V10" s="114"/>
-      <c r="W10" s="114"/>
-      <c r="X10" s="114"/>
-      <c r="Y10" s="100"/>
+      <c r="A10" s="118"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="118"/>
+      <c r="M10" s="118"/>
+      <c r="N10" s="118"/>
+      <c r="O10" s="118"/>
+      <c r="P10" s="118"/>
+      <c r="Q10" s="118"/>
+      <c r="R10" s="118"/>
+      <c r="S10" s="118"/>
+      <c r="T10" s="126"/>
+      <c r="U10" s="126"/>
+      <c r="V10" s="126"/>
+      <c r="W10" s="126"/>
+      <c r="X10" s="126"/>
+      <c r="Y10" s="112"/>
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="115">
+      <c r="A11" s="109">
         <v>1</v>
       </c>
-      <c r="B11" s="116" t="s">
+      <c r="B11" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="117" t="s">
+      <c r="C11" s="111" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="25">
@@ -5369,20 +5369,20 @@
       <c r="S11" s="25">
         <v>16</v>
       </c>
-      <c r="T11" s="118">
+      <c r="T11" s="106">
         <v>24</v>
       </c>
-      <c r="U11" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="121" t="s">
+      <c r="U11" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="100" t="s">
         <v>8</v>
       </c>
       <c r="W11" s="22"/>
-      <c r="X11" s="121">
-        <v>2</v>
-      </c>
-      <c r="Y11" s="124">
+      <c r="X11" s="100">
+        <v>2</v>
+      </c>
+      <c r="Y11" s="103">
         <v>6565</v>
       </c>
       <c r="Z11" s="2">
@@ -5391,9 +5391,9 @@
       </c>
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="115"/>
-      <c r="B12" s="116"/>
-      <c r="C12" s="117"/>
+      <c r="A12" s="109"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="111"/>
       <c r="D12" s="26" t="s">
         <v>105</v>
       </c>
@@ -5442,12 +5442,12 @@
       <c r="S12" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="T12" s="119"/>
-      <c r="U12" s="119"/>
-      <c r="V12" s="122"/>
+      <c r="T12" s="107"/>
+      <c r="U12" s="107"/>
+      <c r="V12" s="101"/>
       <c r="W12" s="23"/>
-      <c r="X12" s="123"/>
-      <c r="Y12" s="124"/>
+      <c r="X12" s="102"/>
+      <c r="Y12" s="103"/>
       <c r="Z12" s="2" t="s">
         <v>52</v>
       </c>
@@ -5457,9 +5457,9 @@
       </c>
     </row>
     <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="115"/>
-      <c r="B13" s="116"/>
-      <c r="C13" s="117"/>
+      <c r="A13" s="109"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="111"/>
       <c r="D13" s="27">
         <v>17</v>
       </c>
@@ -5508,24 +5508,24 @@
       <c r="S13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T13" s="119"/>
-      <c r="U13" s="119"/>
-      <c r="V13" s="122"/>
+      <c r="T13" s="107"/>
+      <c r="U13" s="107"/>
+      <c r="V13" s="101"/>
       <c r="W13" s="23"/>
-      <c r="X13" s="121">
+      <c r="X13" s="100">
         <f>Z11+Z13</f>
         <v>16</v>
       </c>
-      <c r="Y13" s="124"/>
+      <c r="Y13" s="103"/>
       <c r="Z13" s="2">
         <f>SUM(D14:S14)</f>
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="115"/>
-      <c r="B14" s="116"/>
-      <c r="C14" s="117"/>
+      <c r="A14" s="109"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="111"/>
       <c r="D14" s="26" t="s">
         <v>105</v>
       </c>
@@ -5574,21 +5574,21 @@
       <c r="S14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="120"/>
-      <c r="U14" s="120"/>
-      <c r="V14" s="123"/>
+      <c r="T14" s="108"/>
+      <c r="U14" s="108"/>
+      <c r="V14" s="102"/>
       <c r="W14" s="24"/>
-      <c r="X14" s="123"/>
-      <c r="Y14" s="124"/>
+      <c r="X14" s="102"/>
+      <c r="Y14" s="103"/>
     </row>
     <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="115">
-        <v>2</v>
-      </c>
-      <c r="B15" s="116" t="s">
+      <c r="A15" s="109">
+        <v>2</v>
+      </c>
+      <c r="B15" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="117" t="s">
+      <c r="C15" s="111" t="s">
         <v>65</v>
       </c>
       <c r="D15" s="25">
@@ -5639,22 +5639,22 @@
       <c r="S15" s="25">
         <v>16</v>
       </c>
-      <c r="T15" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="U15" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="V15" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="W15" s="121">
+      <c r="T15" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="U15" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="V15" s="100" t="s">
+        <v>8</v>
+      </c>
+      <c r="W15" s="100">
         <v>15</v>
       </c>
-      <c r="X15" s="121">
+      <c r="X15" s="100">
         <v>9</v>
       </c>
-      <c r="Y15" s="124">
+      <c r="Y15" s="103">
         <v>6565</v>
       </c>
       <c r="Z15" s="2">
@@ -5663,9 +5663,9 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="115"/>
-      <c r="B16" s="116"/>
-      <c r="C16" s="117"/>
+      <c r="A16" s="109"/>
+      <c r="B16" s="110"/>
+      <c r="C16" s="111"/>
       <c r="D16" s="26">
         <v>8</v>
       </c>
@@ -5714,12 +5714,12 @@
       <c r="S16" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="T16" s="119"/>
-      <c r="U16" s="119"/>
-      <c r="V16" s="122"/>
-      <c r="W16" s="122"/>
-      <c r="X16" s="123"/>
-      <c r="Y16" s="124"/>
+      <c r="T16" s="107"/>
+      <c r="U16" s="107"/>
+      <c r="V16" s="101"/>
+      <c r="W16" s="101"/>
+      <c r="X16" s="102"/>
+      <c r="Y16" s="103"/>
       <c r="Z16" s="2" t="s">
         <v>52</v>
       </c>
@@ -5729,9 +5729,9 @@
       </c>
     </row>
     <row r="17" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="115"/>
-      <c r="B17" s="116"/>
-      <c r="C17" s="117"/>
+      <c r="A17" s="109"/>
+      <c r="B17" s="110"/>
+      <c r="C17" s="111"/>
       <c r="D17" s="27">
         <v>17</v>
       </c>
@@ -5780,24 +5780,24 @@
       <c r="S17" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T17" s="119"/>
-      <c r="U17" s="119"/>
-      <c r="V17" s="122"/>
-      <c r="W17" s="122"/>
-      <c r="X17" s="121">
+      <c r="T17" s="107"/>
+      <c r="U17" s="107"/>
+      <c r="V17" s="101"/>
+      <c r="W17" s="101"/>
+      <c r="X17" s="100">
         <f>Z15+Z17</f>
         <v>72</v>
       </c>
-      <c r="Y17" s="124"/>
+      <c r="Y17" s="103"/>
       <c r="Z17" s="2">
         <f>SUM(D18:S18)</f>
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="115"/>
-      <c r="B18" s="116"/>
-      <c r="C18" s="117"/>
+      <c r="A18" s="109"/>
+      <c r="B18" s="110"/>
+      <c r="C18" s="111"/>
       <c r="D18" s="26" t="s">
         <v>88</v>
       </c>
@@ -5846,21 +5846,21 @@
       <c r="S18" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T18" s="120"/>
-      <c r="U18" s="120"/>
-      <c r="V18" s="123"/>
-      <c r="W18" s="123"/>
-      <c r="X18" s="123"/>
-      <c r="Y18" s="124"/>
+      <c r="T18" s="108"/>
+      <c r="U18" s="108"/>
+      <c r="V18" s="102"/>
+      <c r="W18" s="102"/>
+      <c r="X18" s="102"/>
+      <c r="Y18" s="103"/>
     </row>
     <row r="19" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="115">
+      <c r="A19" s="109">
         <v>3</v>
       </c>
-      <c r="B19" s="116" t="s">
+      <c r="B19" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="117" t="s">
+      <c r="C19" s="111" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="25">
@@ -5911,20 +5911,20 @@
       <c r="S19" s="25">
         <v>16</v>
       </c>
-      <c r="T19" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="U19" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="V19" s="121" t="s">
+      <c r="T19" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="U19" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="V19" s="100" t="s">
         <v>8</v>
       </c>
       <c r="W19" s="50"/>
-      <c r="X19" s="121">
+      <c r="X19" s="100">
         <v>20</v>
       </c>
-      <c r="Y19" s="124">
+      <c r="Y19" s="103">
         <v>6825</v>
       </c>
       <c r="Z19" s="2">
@@ -5933,9 +5933,9 @@
       </c>
     </row>
     <row r="20" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="115"/>
-      <c r="B20" s="116"/>
-      <c r="C20" s="117"/>
+      <c r="A20" s="109"/>
+      <c r="B20" s="110"/>
+      <c r="C20" s="111"/>
       <c r="D20" s="26">
         <v>8</v>
       </c>
@@ -5984,12 +5984,12 @@
       <c r="S20" s="26">
         <v>8</v>
       </c>
-      <c r="T20" s="119"/>
-      <c r="U20" s="119"/>
-      <c r="V20" s="122"/>
+      <c r="T20" s="107"/>
+      <c r="U20" s="107"/>
+      <c r="V20" s="101"/>
       <c r="W20" s="52"/>
-      <c r="X20" s="123"/>
-      <c r="Y20" s="124"/>
+      <c r="X20" s="102"/>
+      <c r="Y20" s="103"/>
       <c r="Z20" s="2" t="s">
         <v>52</v>
       </c>
@@ -5999,9 +5999,9 @@
       </c>
     </row>
     <row r="21" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="115"/>
-      <c r="B21" s="116"/>
-      <c r="C21" s="117"/>
+      <c r="A21" s="109"/>
+      <c r="B21" s="110"/>
+      <c r="C21" s="111"/>
       <c r="D21" s="27">
         <v>17</v>
       </c>
@@ -6050,24 +6050,24 @@
       <c r="S21" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T21" s="119"/>
-      <c r="U21" s="119"/>
-      <c r="V21" s="122"/>
+      <c r="T21" s="107"/>
+      <c r="U21" s="107"/>
+      <c r="V21" s="101"/>
       <c r="W21" s="52"/>
-      <c r="X21" s="121">
+      <c r="X21" s="100">
         <f>Z19+Z21</f>
         <v>160</v>
       </c>
-      <c r="Y21" s="124"/>
+      <c r="Y21" s="103"/>
       <c r="Z21" s="2">
         <f>SUM(D22:S22)</f>
         <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="115"/>
-      <c r="B22" s="116"/>
-      <c r="C22" s="117"/>
+      <c r="A22" s="109"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="111"/>
       <c r="D22" s="26">
         <v>8</v>
       </c>
@@ -6116,21 +6116,21 @@
       <c r="S22" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T22" s="120"/>
-      <c r="U22" s="120"/>
-      <c r="V22" s="123"/>
+      <c r="T22" s="108"/>
+      <c r="U22" s="108"/>
+      <c r="V22" s="102"/>
       <c r="W22" s="51"/>
-      <c r="X22" s="123"/>
-      <c r="Y22" s="124"/>
+      <c r="X22" s="102"/>
+      <c r="Y22" s="103"/>
     </row>
     <row r="23" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="115">
+      <c r="A23" s="109">
         <v>4</v>
       </c>
-      <c r="B23" s="116" t="s">
+      <c r="B23" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="117" t="s">
+      <c r="C23" s="111" t="s">
         <v>32</v>
       </c>
       <c r="D23" s="25">
@@ -6181,20 +6181,20 @@
       <c r="S23" s="25">
         <v>16</v>
       </c>
-      <c r="T23" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="U23" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="V23" s="121" t="s">
+      <c r="T23" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="U23" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="V23" s="100" t="s">
         <v>8</v>
       </c>
       <c r="W23" s="50"/>
-      <c r="X23" s="121">
+      <c r="X23" s="100">
         <v>20</v>
       </c>
-      <c r="Y23" s="124">
+      <c r="Y23" s="103">
         <v>6565</v>
       </c>
       <c r="Z23" s="2">
@@ -6203,9 +6203,9 @@
       </c>
     </row>
     <row r="24" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="115"/>
-      <c r="B24" s="116"/>
-      <c r="C24" s="117"/>
+      <c r="A24" s="109"/>
+      <c r="B24" s="110"/>
+      <c r="C24" s="111"/>
       <c r="D24" s="26">
         <v>8</v>
       </c>
@@ -6254,12 +6254,12 @@
       <c r="S24" s="26">
         <v>8</v>
       </c>
-      <c r="T24" s="119"/>
-      <c r="U24" s="119"/>
-      <c r="V24" s="122"/>
+      <c r="T24" s="107"/>
+      <c r="U24" s="107"/>
+      <c r="V24" s="101"/>
       <c r="W24" s="52"/>
-      <c r="X24" s="123"/>
-      <c r="Y24" s="124"/>
+      <c r="X24" s="102"/>
+      <c r="Y24" s="103"/>
       <c r="Z24" s="2" t="s">
         <v>52</v>
       </c>
@@ -6269,9 +6269,9 @@
       </c>
     </row>
     <row r="25" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="115"/>
-      <c r="B25" s="116"/>
-      <c r="C25" s="117"/>
+      <c r="A25" s="109"/>
+      <c r="B25" s="110"/>
+      <c r="C25" s="111"/>
       <c r="D25" s="27">
         <v>17</v>
       </c>
@@ -6320,24 +6320,24 @@
       <c r="S25" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T25" s="119"/>
-      <c r="U25" s="119"/>
-      <c r="V25" s="122"/>
+      <c r="T25" s="107"/>
+      <c r="U25" s="107"/>
+      <c r="V25" s="101"/>
       <c r="W25" s="52"/>
-      <c r="X25" s="121">
+      <c r="X25" s="100">
         <f>Z23+Z25</f>
         <v>160</v>
       </c>
-      <c r="Y25" s="124"/>
+      <c r="Y25" s="103"/>
       <c r="Z25" s="2">
         <f>SUM(D26:S26)</f>
         <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="115"/>
-      <c r="B26" s="116"/>
-      <c r="C26" s="117"/>
+      <c r="A26" s="109"/>
+      <c r="B26" s="110"/>
+      <c r="C26" s="111"/>
       <c r="D26" s="26">
         <v>8</v>
       </c>
@@ -6386,15 +6386,15 @@
       <c r="S26" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T26" s="120"/>
-      <c r="U26" s="120"/>
-      <c r="V26" s="123"/>
+      <c r="T26" s="108"/>
+      <c r="U26" s="108"/>
+      <c r="V26" s="102"/>
       <c r="W26" s="51"/>
-      <c r="X26" s="123"/>
-      <c r="Y26" s="124"/>
+      <c r="X26" s="102"/>
+      <c r="Y26" s="103"/>
     </row>
     <row r="27" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="115">
+      <c r="A27" s="109">
         <v>5</v>
       </c>
       <c r="B27" s="127" t="s">
@@ -6451,22 +6451,22 @@
       <c r="S27" s="25">
         <v>16</v>
       </c>
-      <c r="T27" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="U27" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="V27" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="W27" s="121">
+      <c r="T27" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="U27" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="V27" s="100" t="s">
+        <v>8</v>
+      </c>
+      <c r="W27" s="100">
         <v>15</v>
       </c>
-      <c r="X27" s="121">
+      <c r="X27" s="100">
         <v>9</v>
       </c>
-      <c r="Y27" s="124">
+      <c r="Y27" s="103">
         <v>6565</v>
       </c>
       <c r="Z27" s="2">
@@ -6475,7 +6475,7 @@
       </c>
     </row>
     <row r="28" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="115"/>
+      <c r="A28" s="109"/>
       <c r="B28" s="127"/>
       <c r="C28" s="128"/>
       <c r="D28" s="26" t="s">
@@ -6526,12 +6526,12 @@
       <c r="S28" s="26">
         <v>8</v>
       </c>
-      <c r="T28" s="119"/>
-      <c r="U28" s="119"/>
-      <c r="V28" s="122"/>
-      <c r="W28" s="122"/>
-      <c r="X28" s="123"/>
-      <c r="Y28" s="124"/>
+      <c r="T28" s="107"/>
+      <c r="U28" s="107"/>
+      <c r="V28" s="101"/>
+      <c r="W28" s="101"/>
+      <c r="X28" s="102"/>
+      <c r="Y28" s="103"/>
       <c r="Z28" s="2" t="s">
         <v>52</v>
       </c>
@@ -6541,7 +6541,7 @@
       </c>
     </row>
     <row r="29" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="115"/>
+      <c r="A29" s="109"/>
       <c r="B29" s="127"/>
       <c r="C29" s="128"/>
       <c r="D29" s="27">
@@ -6592,22 +6592,22 @@
       <c r="S29" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T29" s="119"/>
-      <c r="U29" s="119"/>
-      <c r="V29" s="122"/>
-      <c r="W29" s="122"/>
-      <c r="X29" s="121">
+      <c r="T29" s="107"/>
+      <c r="U29" s="107"/>
+      <c r="V29" s="101"/>
+      <c r="W29" s="101"/>
+      <c r="X29" s="100">
         <f>Z27+Z29</f>
         <v>72</v>
       </c>
-      <c r="Y29" s="124"/>
+      <c r="Y29" s="103"/>
       <c r="Z29" s="2">
         <f>SUM(D30:S30)</f>
         <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="115"/>
+      <c r="A30" s="109"/>
       <c r="B30" s="127"/>
       <c r="C30" s="128"/>
       <c r="D30" s="26">
@@ -6658,21 +6658,21 @@
       <c r="S30" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T30" s="120"/>
-      <c r="U30" s="120"/>
-      <c r="V30" s="123"/>
-      <c r="W30" s="123"/>
-      <c r="X30" s="123"/>
-      <c r="Y30" s="124"/>
+      <c r="T30" s="108"/>
+      <c r="U30" s="108"/>
+      <c r="V30" s="102"/>
+      <c r="W30" s="102"/>
+      <c r="X30" s="102"/>
+      <c r="Y30" s="103"/>
     </row>
     <row r="31" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="115">
+      <c r="A31" s="109">
         <v>6</v>
       </c>
-      <c r="B31" s="116" t="s">
+      <c r="B31" s="110" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="117" t="s">
+      <c r="C31" s="111" t="s">
         <v>32</v>
       </c>
       <c r="D31" s="25">
@@ -6723,20 +6723,20 @@
       <c r="S31" s="25">
         <v>16</v>
       </c>
-      <c r="T31" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="U31" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="V31" s="121" t="s">
+      <c r="T31" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="U31" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="V31" s="100" t="s">
         <v>8</v>
       </c>
       <c r="W31" s="42"/>
-      <c r="X31" s="121">
+      <c r="X31" s="100">
         <v>20</v>
       </c>
-      <c r="Y31" s="124">
+      <c r="Y31" s="103">
         <v>6565</v>
       </c>
       <c r="Z31" s="2">
@@ -6745,9 +6745,9 @@
       </c>
     </row>
     <row r="32" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="115"/>
-      <c r="B32" s="116"/>
-      <c r="C32" s="117"/>
+      <c r="A32" s="109"/>
+      <c r="B32" s="110"/>
+      <c r="C32" s="111"/>
       <c r="D32" s="26">
         <v>8</v>
       </c>
@@ -6796,12 +6796,12 @@
       <c r="S32" s="26">
         <v>8</v>
       </c>
-      <c r="T32" s="119"/>
-      <c r="U32" s="119"/>
-      <c r="V32" s="122"/>
+      <c r="T32" s="107"/>
+      <c r="U32" s="107"/>
+      <c r="V32" s="101"/>
       <c r="W32" s="44"/>
-      <c r="X32" s="123"/>
-      <c r="Y32" s="124"/>
+      <c r="X32" s="102"/>
+      <c r="Y32" s="103"/>
       <c r="Z32" s="2" t="s">
         <v>52</v>
       </c>
@@ -6811,9 +6811,9 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="115"/>
-      <c r="B33" s="116"/>
-      <c r="C33" s="117"/>
+      <c r="A33" s="109"/>
+      <c r="B33" s="110"/>
+      <c r="C33" s="111"/>
       <c r="D33" s="27">
         <v>17</v>
       </c>
@@ -6862,24 +6862,24 @@
       <c r="S33" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T33" s="119"/>
-      <c r="U33" s="119"/>
-      <c r="V33" s="122"/>
+      <c r="T33" s="107"/>
+      <c r="U33" s="107"/>
+      <c r="V33" s="101"/>
       <c r="W33" s="44"/>
-      <c r="X33" s="121">
+      <c r="X33" s="100">
         <f>Z31+Z33</f>
         <v>160</v>
       </c>
-      <c r="Y33" s="124"/>
+      <c r="Y33" s="103"/>
       <c r="Z33" s="2">
         <f>SUM(D34:S34)</f>
         <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="115"/>
-      <c r="B34" s="116"/>
-      <c r="C34" s="117"/>
+      <c r="A34" s="109"/>
+      <c r="B34" s="110"/>
+      <c r="C34" s="111"/>
       <c r="D34" s="26">
         <v>8</v>
       </c>
@@ -6928,12 +6928,12 @@
       <c r="S34" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T34" s="120"/>
-      <c r="U34" s="120"/>
-      <c r="V34" s="123"/>
+      <c r="T34" s="108"/>
+      <c r="U34" s="108"/>
+      <c r="V34" s="102"/>
       <c r="W34" s="43"/>
-      <c r="X34" s="123"/>
-      <c r="Y34" s="124"/>
+      <c r="X34" s="102"/>
+      <c r="Y34" s="103"/>
     </row>
     <row r="35" spans="1:26" s="32" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="31"/>
@@ -6948,10 +6948,10 @@
       </c>
     </row>
     <row r="36" spans="1:26" ht="18" x14ac:dyDescent="0.3">
-      <c r="A36" s="125" t="s">
+      <c r="A36" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="125"/>
+      <c r="B36" s="104"/>
       <c r="C36" s="33">
         <v>44621</v>
       </c>
@@ -7017,17 +7017,49 @@
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="W15:W18"/>
-    <mergeCell ref="W27:W30"/>
-    <mergeCell ref="U19:U22"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="V15:V18"/>
-    <mergeCell ref="V19:V22"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="T15:T18"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="T11:T14"/>
+    <mergeCell ref="U31:U34"/>
+    <mergeCell ref="V31:V34"/>
+    <mergeCell ref="X31:X32"/>
+    <mergeCell ref="Y31:Y34"/>
+    <mergeCell ref="X33:X34"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="T31:T34"/>
+    <mergeCell ref="Y23:Y26"/>
+    <mergeCell ref="X25:X26"/>
+    <mergeCell ref="Y27:Y30"/>
+    <mergeCell ref="X29:X30"/>
+    <mergeCell ref="X27:X28"/>
+    <mergeCell ref="X23:X24"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="Y19:Y22"/>
+    <mergeCell ref="X21:X22"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y15:Y18"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="V27:V30"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="T27:T30"/>
+    <mergeCell ref="U27:U30"/>
+    <mergeCell ref="V23:V26"/>
+    <mergeCell ref="U23:U26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="T23:T26"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="T19:T22"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A7:W7"/>
@@ -7044,49 +7076,17 @@
     <mergeCell ref="V11:V14"/>
     <mergeCell ref="U11:U14"/>
     <mergeCell ref="U15:U18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="V27:V30"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="T27:T30"/>
-    <mergeCell ref="U27:U30"/>
-    <mergeCell ref="V23:V26"/>
-    <mergeCell ref="U23:U26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="T23:T26"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="T19:T22"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="Y19:Y22"/>
-    <mergeCell ref="X21:X22"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y15:Y18"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="Y23:Y26"/>
-    <mergeCell ref="X25:X26"/>
-    <mergeCell ref="Y27:Y30"/>
-    <mergeCell ref="X29:X30"/>
-    <mergeCell ref="X27:X28"/>
-    <mergeCell ref="X23:X24"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="T31:T34"/>
-    <mergeCell ref="U31:U34"/>
-    <mergeCell ref="V31:V34"/>
-    <mergeCell ref="X31:X32"/>
-    <mergeCell ref="Y31:Y34"/>
-    <mergeCell ref="X33:X34"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="T15:T18"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="T11:T14"/>
+    <mergeCell ref="W15:W18"/>
+    <mergeCell ref="W27:W30"/>
+    <mergeCell ref="U19:U22"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="V15:V18"/>
+    <mergeCell ref="V19:V22"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7100,8 +7100,8 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:AD49"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="99" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:S20"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="99" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Y39" sqref="A1:Y39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -7122,11 +7122,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
       <c r="Q1" s="15" t="s">
         <v>40</v>
       </c>
@@ -7216,142 +7216,142 @@
       <c r="W4" s="92"/>
     </row>
     <row r="5" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="104" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
-      <c r="J5" s="104"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="104"/>
-      <c r="M5" s="104"/>
-      <c r="N5" s="104"/>
-      <c r="O5" s="104"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="104"/>
-      <c r="R5" s="104"/>
-      <c r="S5" s="104"/>
-      <c r="T5" s="104"/>
-      <c r="U5" s="104"/>
-      <c r="V5" s="104"/>
-      <c r="W5" s="104"/>
+      <c r="A5" s="116" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="116"/>
+      <c r="L5" s="116"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
+      <c r="U5" s="116"/>
+      <c r="V5" s="116"/>
+      <c r="W5" s="116"/>
     </row>
     <row r="6" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A6" s="104" t="str">
+      <c r="A6" s="116" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЛЮТИЙ 2022 р.</v>
       </c>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="104"/>
-      <c r="L6" s="104"/>
-      <c r="M6" s="104"/>
-      <c r="N6" s="104"/>
-      <c r="O6" s="104"/>
-      <c r="P6" s="104"/>
-      <c r="Q6" s="104"/>
-      <c r="R6" s="104"/>
-      <c r="S6" s="104"/>
-      <c r="T6" s="104"/>
-      <c r="U6" s="104"/>
-      <c r="V6" s="104"/>
-      <c r="W6" s="104"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116"/>
+      <c r="L6" s="116"/>
+      <c r="M6" s="116"/>
+      <c r="N6" s="116"/>
+      <c r="O6" s="116"/>
+      <c r="P6" s="116"/>
+      <c r="Q6" s="116"/>
+      <c r="R6" s="116"/>
+      <c r="S6" s="116"/>
+      <c r="T6" s="116"/>
+      <c r="U6" s="116"/>
+      <c r="V6" s="116"/>
+      <c r="W6" s="116"/>
     </row>
     <row r="7" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="106" t="s">
+      <c r="A7" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="106" t="s">
+      <c r="B7" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="106" t="s">
+      <c r="C7" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="108" t="s">
+      <c r="D7" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
-      <c r="H7" s="109"/>
-      <c r="I7" s="109"/>
-      <c r="J7" s="109"/>
-      <c r="K7" s="109"/>
-      <c r="L7" s="109"/>
-      <c r="M7" s="109"/>
-      <c r="N7" s="109"/>
-      <c r="O7" s="109"/>
-      <c r="P7" s="109"/>
-      <c r="Q7" s="109"/>
-      <c r="R7" s="109"/>
-      <c r="S7" s="110"/>
-      <c r="T7" s="114" t="s">
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="121"/>
+      <c r="L7" s="121"/>
+      <c r="M7" s="121"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="121"/>
+      <c r="Q7" s="121"/>
+      <c r="R7" s="121"/>
+      <c r="S7" s="122"/>
+      <c r="T7" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="U7" s="114" t="s">
+      <c r="U7" s="126" t="s">
         <v>49</v>
       </c>
-      <c r="V7" s="114" t="s">
+      <c r="V7" s="126" t="s">
         <v>50</v>
       </c>
-      <c r="W7" s="114" t="s">
+      <c r="W7" s="126" t="s">
         <v>77</v>
       </c>
-      <c r="X7" s="114" t="s">
+      <c r="X7" s="126" t="s">
         <v>46</v>
       </c>
-      <c r="Y7" s="100" t="s">
+      <c r="Y7" s="112" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="106"/>
-      <c r="B8" s="106"/>
-      <c r="C8" s="106"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="112"/>
-      <c r="G8" s="112"/>
-      <c r="H8" s="112"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="112"/>
-      <c r="K8" s="112"/>
-      <c r="L8" s="112"/>
-      <c r="M8" s="112"/>
-      <c r="N8" s="112"/>
-      <c r="O8" s="112"/>
-      <c r="P8" s="112"/>
-      <c r="Q8" s="112"/>
-      <c r="R8" s="112"/>
-      <c r="S8" s="113"/>
-      <c r="T8" s="114"/>
-      <c r="U8" s="114"/>
-      <c r="V8" s="114"/>
-      <c r="W8" s="114"/>
-      <c r="X8" s="114"/>
-      <c r="Y8" s="100"/>
+      <c r="A8" s="118"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="123"/>
+      <c r="E8" s="124"/>
+      <c r="F8" s="124"/>
+      <c r="G8" s="124"/>
+      <c r="H8" s="124"/>
+      <c r="I8" s="124"/>
+      <c r="J8" s="124"/>
+      <c r="K8" s="124"/>
+      <c r="L8" s="124"/>
+      <c r="M8" s="124"/>
+      <c r="N8" s="124"/>
+      <c r="O8" s="124"/>
+      <c r="P8" s="124"/>
+      <c r="Q8" s="124"/>
+      <c r="R8" s="124"/>
+      <c r="S8" s="125"/>
+      <c r="T8" s="126"/>
+      <c r="U8" s="126"/>
+      <c r="V8" s="126"/>
+      <c r="W8" s="126"/>
+      <c r="X8" s="126"/>
+      <c r="Y8" s="112"/>
     </row>
     <row r="9" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="115">
+      <c r="A9" s="109">
         <v>1</v>
       </c>
-      <c r="B9" s="116" t="s">
+      <c r="B9" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="138" t="s">
+      <c r="C9" s="136" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="25">
@@ -7402,92 +7402,92 @@
       <c r="S9" s="25">
         <v>16</v>
       </c>
-      <c r="T9" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="U9" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="V9" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="W9" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="X9" s="121">
+      <c r="T9" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="U9" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="V9" s="100" t="s">
+        <v>8</v>
+      </c>
+      <c r="W9" s="100">
+        <v>15</v>
+      </c>
+      <c r="X9" s="100">
         <v>20</v>
       </c>
-      <c r="Y9" s="124">
+      <c r="Y9" s="103">
         <v>6825</v>
       </c>
     </row>
     <row r="10" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="115"/>
-      <c r="B10" s="116"/>
-      <c r="C10" s="139"/>
-      <c r="D10" s="26">
-        <v>8</v>
-      </c>
-      <c r="E10" s="26">
-        <v>8</v>
-      </c>
-      <c r="F10" s="26">
-        <v>8</v>
-      </c>
-      <c r="G10" s="26">
-        <v>8</v>
+      <c r="A10" s="109"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="137"/>
+      <c r="D10" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>88</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="I10" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="26">
-        <v>8</v>
-      </c>
-      <c r="K10" s="26">
-        <v>8</v>
-      </c>
-      <c r="L10" s="26">
-        <v>8</v>
-      </c>
-      <c r="M10" s="26">
-        <v>8</v>
-      </c>
-      <c r="N10" s="26">
-        <v>8</v>
+        <v>88</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="K10" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="M10" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="N10" s="26" t="s">
+        <v>88</v>
       </c>
       <c r="O10" s="26" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="P10" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q10" s="26">
-        <v>8</v>
-      </c>
-      <c r="R10" s="26">
-        <v>8</v>
+        <v>88</v>
+      </c>
+      <c r="Q10" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="R10" s="26" t="s">
+        <v>88</v>
       </c>
       <c r="S10" s="26">
         <v>8</v>
       </c>
-      <c r="T10" s="119"/>
-      <c r="U10" s="119"/>
-      <c r="V10" s="122"/>
-      <c r="W10" s="122"/>
-      <c r="X10" s="123"/>
-      <c r="Y10" s="124"/>
+      <c r="T10" s="107"/>
+      <c r="U10" s="107"/>
+      <c r="V10" s="101"/>
+      <c r="W10" s="101"/>
+      <c r="X10" s="102"/>
+      <c r="Y10" s="103"/>
       <c r="Z10" s="3">
         <f>SUM(D10:S10)</f>
-        <v>96</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="115"/>
-      <c r="B11" s="116"/>
-      <c r="C11" s="139"/>
+      <c r="A11" s="109"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="137"/>
       <c r="D11" s="27">
         <v>17</v>
       </c>
@@ -7536,20 +7536,20 @@
       <c r="S11" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T11" s="119"/>
-      <c r="U11" s="119"/>
-      <c r="V11" s="122"/>
-      <c r="W11" s="122"/>
-      <c r="X11" s="121">
+      <c r="T11" s="107"/>
+      <c r="U11" s="107"/>
+      <c r="V11" s="101"/>
+      <c r="W11" s="101"/>
+      <c r="X11" s="100">
         <f>Z10+Z12</f>
-        <v>160</v>
-      </c>
-      <c r="Y11" s="124"/>
+        <v>72</v>
+      </c>
+      <c r="Y11" s="103"/>
     </row>
     <row r="12" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="115"/>
-      <c r="B12" s="116"/>
-      <c r="C12" s="140"/>
+      <c r="A12" s="109"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="138"/>
       <c r="D12" s="26">
         <v>8</v>
       </c>
@@ -7598,25 +7598,25 @@
       <c r="S12" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T12" s="120"/>
-      <c r="U12" s="120"/>
-      <c r="V12" s="123"/>
-      <c r="W12" s="123"/>
-      <c r="X12" s="123"/>
-      <c r="Y12" s="124"/>
+      <c r="T12" s="108"/>
+      <c r="U12" s="108"/>
+      <c r="V12" s="102"/>
+      <c r="W12" s="102"/>
+      <c r="X12" s="102"/>
+      <c r="Y12" s="103"/>
       <c r="Z12" s="2">
         <f>SUM(D12:S12)</f>
         <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="115">
-        <v>2</v>
-      </c>
-      <c r="B13" s="116" t="s">
+      <c r="A13" s="109">
+        <v>2</v>
+      </c>
+      <c r="B13" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="117" t="str">
+      <c r="C13" s="111" t="str">
         <f>C9</f>
         <v>лікар-стоматолог</v>
       </c>
@@ -7668,22 +7668,22 @@
       <c r="S13" s="25">
         <v>16</v>
       </c>
-      <c r="T13" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="U13" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="V13" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="W13" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="X13" s="121">
+      <c r="T13" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="U13" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="V13" s="100" t="s">
+        <v>8</v>
+      </c>
+      <c r="W13" s="100">
+        <v>15</v>
+      </c>
+      <c r="X13" s="100">
         <v>20</v>
       </c>
-      <c r="Y13" s="124">
+      <c r="Y13" s="103">
         <v>6825</v>
       </c>
       <c r="Z13" s="2" t="s">
@@ -7691,80 +7691,80 @@
       </c>
       <c r="AA13" s="2">
         <f>SUM(E14:T14)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="109"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="26">
+        <v>8</v>
+      </c>
+      <c r="E14" s="26">
+        <v>8</v>
+      </c>
+      <c r="F14" s="26">
+        <v>8</v>
+      </c>
+      <c r="G14" s="26">
+        <v>8</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="26">
+        <v>8</v>
+      </c>
+      <c r="K14" s="26">
+        <v>8</v>
+      </c>
+      <c r="L14" s="26">
+        <v>8</v>
+      </c>
+      <c r="M14" s="26">
+        <v>8</v>
+      </c>
+      <c r="N14" s="26">
+        <v>8</v>
+      </c>
+      <c r="O14" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="P14" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q14" s="26" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="115"/>
-      <c r="B14" s="116"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="26">
-        <v>8</v>
-      </c>
-      <c r="E14" s="26">
-        <v>8</v>
-      </c>
-      <c r="F14" s="26">
-        <v>8</v>
-      </c>
-      <c r="G14" s="26">
-        <v>8</v>
-      </c>
-      <c r="H14" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14" s="26">
-        <v>8</v>
-      </c>
-      <c r="K14" s="26">
-        <v>8</v>
-      </c>
-      <c r="L14" s="26">
-        <v>8</v>
-      </c>
-      <c r="M14" s="26">
-        <v>8</v>
-      </c>
-      <c r="N14" s="26">
-        <v>8</v>
-      </c>
-      <c r="O14" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="P14" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q14" s="26">
-        <v>8</v>
-      </c>
-      <c r="R14" s="26">
-        <v>8</v>
-      </c>
-      <c r="S14" s="26">
-        <v>8</v>
-      </c>
-      <c r="T14" s="119"/>
-      <c r="U14" s="119"/>
-      <c r="V14" s="122"/>
-      <c r="W14" s="122"/>
-      <c r="X14" s="123"/>
-      <c r="Y14" s="124"/>
+      <c r="R14" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="S14" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="T14" s="107"/>
+      <c r="U14" s="107"/>
+      <c r="V14" s="101"/>
+      <c r="W14" s="101"/>
+      <c r="X14" s="102"/>
+      <c r="Y14" s="103"/>
       <c r="Z14" s="2">
         <f>SUM(D14:S14)</f>
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="AB14" s="2">
         <f>AA13+AA16</f>
-        <v>144</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="115"/>
-      <c r="B15" s="116"/>
-      <c r="C15" s="117"/>
+      <c r="A15" s="109"/>
+      <c r="B15" s="110"/>
+      <c r="C15" s="111"/>
       <c r="D15" s="27">
         <v>17</v>
       </c>
@@ -7813,55 +7813,55 @@
       <c r="S15" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T15" s="119"/>
-      <c r="U15" s="119"/>
-      <c r="V15" s="122"/>
-      <c r="W15" s="122"/>
-      <c r="X15" s="121">
+      <c r="T15" s="107"/>
+      <c r="U15" s="107"/>
+      <c r="V15" s="101"/>
+      <c r="W15" s="101"/>
+      <c r="X15" s="100">
         <f>Z14+Z16</f>
-        <v>160</v>
-      </c>
-      <c r="Y15" s="124"/>
+        <v>72</v>
+      </c>
+      <c r="Y15" s="103"/>
     </row>
     <row r="16" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="115"/>
-      <c r="B16" s="116"/>
-      <c r="C16" s="117"/>
-      <c r="D16" s="26">
-        <v>8</v>
-      </c>
-      <c r="E16" s="26">
-        <v>8</v>
+      <c r="A16" s="109"/>
+      <c r="B16" s="110"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>88</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="26">
-        <v>8</v>
-      </c>
-      <c r="I16" s="26">
-        <v>8</v>
-      </c>
-      <c r="J16" s="26">
-        <v>8</v>
-      </c>
-      <c r="K16" s="26">
-        <v>8</v>
-      </c>
-      <c r="L16" s="26">
-        <v>8</v>
+        <v>88</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="J16" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="L16" s="26" t="s">
+        <v>88</v>
       </c>
       <c r="M16" s="26" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="N16" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="O16" s="26">
-        <v>8</v>
+        <v>88</v>
+      </c>
+      <c r="O16" s="26" t="s">
+        <v>88</v>
       </c>
       <c r="P16" s="29" t="s">
         <v>10</v>
@@ -7875,29 +7875,29 @@
       <c r="S16" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T16" s="120"/>
-      <c r="U16" s="120"/>
-      <c r="V16" s="123"/>
-      <c r="W16" s="123"/>
-      <c r="X16" s="123"/>
-      <c r="Y16" s="124"/>
+      <c r="T16" s="108"/>
+      <c r="U16" s="108"/>
+      <c r="V16" s="102"/>
+      <c r="W16" s="102"/>
+      <c r="X16" s="102"/>
+      <c r="Y16" s="103"/>
       <c r="Z16" s="2">
         <f>SUM(D16:S16)</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="AA16" s="2">
         <f>SUM(E16:T16)</f>
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="135">
+      <c r="A17" s="145">
         <v>3</v>
       </c>
-      <c r="B17" s="136" t="s">
+      <c r="B17" s="146" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="137" t="s">
+      <c r="C17" s="135" t="s">
         <v>73</v>
       </c>
       <c r="D17" s="25">
@@ -7948,29 +7948,29 @@
       <c r="S17" s="25">
         <v>16</v>
       </c>
-      <c r="T17" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="U17" s="132" t="s">
-        <v>8</v>
-      </c>
-      <c r="V17" s="129" t="s">
-        <v>8</v>
-      </c>
-      <c r="W17" s="129" t="s">
-        <v>8</v>
-      </c>
-      <c r="X17" s="129">
+      <c r="T17" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="U17" s="142" t="s">
+        <v>8</v>
+      </c>
+      <c r="V17" s="139" t="s">
+        <v>8</v>
+      </c>
+      <c r="W17" s="139" t="s">
+        <v>8</v>
+      </c>
+      <c r="X17" s="139">
         <v>20</v>
       </c>
-      <c r="Y17" s="124">
+      <c r="Y17" s="103">
         <v>6565</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="135"/>
-      <c r="B18" s="136"/>
-      <c r="C18" s="137"/>
+      <c r="A18" s="145"/>
+      <c r="B18" s="146"/>
+      <c r="C18" s="135"/>
       <c r="D18" s="26">
         <v>4</v>
       </c>
@@ -8019,21 +8019,21 @@
       <c r="S18" s="26">
         <v>4</v>
       </c>
-      <c r="T18" s="119"/>
-      <c r="U18" s="133"/>
-      <c r="V18" s="130"/>
-      <c r="W18" s="130"/>
-      <c r="X18" s="131"/>
-      <c r="Y18" s="124"/>
+      <c r="T18" s="107"/>
+      <c r="U18" s="143"/>
+      <c r="V18" s="141"/>
+      <c r="W18" s="141"/>
+      <c r="X18" s="140"/>
+      <c r="Y18" s="103"/>
       <c r="Z18" s="2">
         <f>SUM(D18:S18)</f>
         <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="135"/>
-      <c r="B19" s="136"/>
-      <c r="C19" s="137"/>
+      <c r="A19" s="145"/>
+      <c r="B19" s="146"/>
+      <c r="C19" s="135"/>
       <c r="D19" s="27">
         <v>17</v>
       </c>
@@ -8082,20 +8082,20 @@
       <c r="S19" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T19" s="119"/>
-      <c r="U19" s="133"/>
-      <c r="V19" s="130"/>
-      <c r="W19" s="130"/>
-      <c r="X19" s="121">
+      <c r="T19" s="107"/>
+      <c r="U19" s="143"/>
+      <c r="V19" s="141"/>
+      <c r="W19" s="141"/>
+      <c r="X19" s="100">
         <f>Z18+Z20</f>
         <v>80</v>
       </c>
-      <c r="Y19" s="124"/>
+      <c r="Y19" s="103"/>
     </row>
     <row r="20" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="135"/>
-      <c r="B20" s="136"/>
-      <c r="C20" s="137"/>
+      <c r="A20" s="145"/>
+      <c r="B20" s="146"/>
+      <c r="C20" s="135"/>
       <c r="D20" s="26">
         <v>4</v>
       </c>
@@ -8144,25 +8144,25 @@
       <c r="S20" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T20" s="120"/>
-      <c r="U20" s="134"/>
-      <c r="V20" s="131"/>
-      <c r="W20" s="131"/>
-      <c r="X20" s="123"/>
-      <c r="Y20" s="124"/>
+      <c r="T20" s="108"/>
+      <c r="U20" s="144"/>
+      <c r="V20" s="140"/>
+      <c r="W20" s="140"/>
+      <c r="X20" s="102"/>
+      <c r="Y20" s="103"/>
       <c r="Z20" s="2">
         <f>SUM(D20:S20)</f>
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="144">
+      <c r="A21" s="129">
         <v>4</v>
       </c>
-      <c r="B21" s="141" t="s">
+      <c r="B21" s="132" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="137" t="s">
+      <c r="C21" s="135" t="s">
         <v>26</v>
       </c>
       <c r="D21" s="25">
@@ -8213,29 +8213,29 @@
       <c r="S21" s="25">
         <v>16</v>
       </c>
-      <c r="T21" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="U21" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="V21" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="W21" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="X21" s="121">
+      <c r="T21" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="U21" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="V21" s="100" t="s">
+        <v>8</v>
+      </c>
+      <c r="W21" s="100" t="s">
+        <v>8</v>
+      </c>
+      <c r="X21" s="100">
         <v>20</v>
       </c>
-      <c r="Y21" s="124">
+      <c r="Y21" s="103">
         <v>6565</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="145"/>
-      <c r="B22" s="142"/>
-      <c r="C22" s="137"/>
+      <c r="A22" s="130"/>
+      <c r="B22" s="133"/>
+      <c r="C22" s="135"/>
       <c r="D22" s="26">
         <v>8</v>
       </c>
@@ -8284,21 +8284,21 @@
       <c r="S22" s="26">
         <v>8</v>
       </c>
-      <c r="T22" s="119"/>
-      <c r="U22" s="119"/>
-      <c r="V22" s="122"/>
-      <c r="W22" s="122"/>
-      <c r="X22" s="122"/>
-      <c r="Y22" s="124"/>
+      <c r="T22" s="107"/>
+      <c r="U22" s="107"/>
+      <c r="V22" s="101"/>
+      <c r="W22" s="101"/>
+      <c r="X22" s="101"/>
+      <c r="Y22" s="103"/>
       <c r="Z22" s="2">
         <f>SUM(D22:S22)</f>
         <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="145"/>
-      <c r="B23" s="142"/>
-      <c r="C23" s="137"/>
+      <c r="A23" s="130"/>
+      <c r="B23" s="133"/>
+      <c r="C23" s="135"/>
       <c r="D23" s="27">
         <v>17</v>
       </c>
@@ -8347,20 +8347,20 @@
       <c r="S23" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T23" s="119"/>
-      <c r="U23" s="119"/>
-      <c r="V23" s="122"/>
-      <c r="W23" s="122"/>
-      <c r="X23" s="121">
+      <c r="T23" s="107"/>
+      <c r="U23" s="107"/>
+      <c r="V23" s="101"/>
+      <c r="W23" s="101"/>
+      <c r="X23" s="100">
         <f>Z22+Z24</f>
         <v>160</v>
       </c>
-      <c r="Y23" s="124"/>
+      <c r="Y23" s="103"/>
     </row>
     <row r="24" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="146"/>
-      <c r="B24" s="143"/>
-      <c r="C24" s="137"/>
+      <c r="A24" s="131"/>
+      <c r="B24" s="134"/>
+      <c r="C24" s="135"/>
       <c r="D24" s="26">
         <v>8</v>
       </c>
@@ -8409,25 +8409,25 @@
       <c r="S24" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T24" s="120"/>
-      <c r="U24" s="120"/>
-      <c r="V24" s="123"/>
-      <c r="W24" s="123"/>
-      <c r="X24" s="123"/>
-      <c r="Y24" s="124"/>
+      <c r="T24" s="108"/>
+      <c r="U24" s="108"/>
+      <c r="V24" s="102"/>
+      <c r="W24" s="102"/>
+      <c r="X24" s="102"/>
+      <c r="Y24" s="103"/>
       <c r="Z24" s="2">
         <f>SUM(D24:S24)</f>
         <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="144">
+      <c r="A25" s="129">
         <v>5</v>
       </c>
-      <c r="B25" s="141" t="s">
+      <c r="B25" s="132" t="s">
         <v>100</v>
       </c>
-      <c r="C25" s="137" t="s">
+      <c r="C25" s="135" t="s">
         <v>26</v>
       </c>
       <c r="D25" s="25">
@@ -8478,29 +8478,29 @@
       <c r="S25" s="25">
         <v>16</v>
       </c>
-      <c r="T25" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="U25" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="V25" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="W25" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="X25" s="121">
+      <c r="T25" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="U25" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="V25" s="100" t="s">
+        <v>8</v>
+      </c>
+      <c r="W25" s="100" t="s">
+        <v>8</v>
+      </c>
+      <c r="X25" s="100">
         <v>20</v>
       </c>
-      <c r="Y25" s="124">
+      <c r="Y25" s="103">
         <v>6565</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="145"/>
-      <c r="B26" s="142"/>
-      <c r="C26" s="137"/>
+      <c r="A26" s="130"/>
+      <c r="B26" s="133"/>
+      <c r="C26" s="135"/>
       <c r="D26" s="26">
         <v>8</v>
       </c>
@@ -8549,21 +8549,21 @@
       <c r="S26" s="26">
         <v>8</v>
       </c>
-      <c r="T26" s="119"/>
-      <c r="U26" s="119"/>
-      <c r="V26" s="122"/>
-      <c r="W26" s="122"/>
-      <c r="X26" s="122"/>
-      <c r="Y26" s="124"/>
+      <c r="T26" s="107"/>
+      <c r="U26" s="107"/>
+      <c r="V26" s="101"/>
+      <c r="W26" s="101"/>
+      <c r="X26" s="101"/>
+      <c r="Y26" s="103"/>
       <c r="Z26" s="2">
         <f>SUM(D26:S26)</f>
         <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="145"/>
-      <c r="B27" s="142"/>
-      <c r="C27" s="137"/>
+      <c r="A27" s="130"/>
+      <c r="B27" s="133"/>
+      <c r="C27" s="135"/>
       <c r="D27" s="27">
         <v>17</v>
       </c>
@@ -8612,20 +8612,20 @@
       <c r="S27" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T27" s="119"/>
-      <c r="U27" s="119"/>
-      <c r="V27" s="122"/>
-      <c r="W27" s="122"/>
-      <c r="X27" s="121">
+      <c r="T27" s="107"/>
+      <c r="U27" s="107"/>
+      <c r="V27" s="101"/>
+      <c r="W27" s="101"/>
+      <c r="X27" s="100">
         <f>Z26+Z28</f>
         <v>160</v>
       </c>
-      <c r="Y27" s="124"/>
+      <c r="Y27" s="103"/>
     </row>
     <row r="28" spans="1:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="146"/>
-      <c r="B28" s="143"/>
-      <c r="C28" s="137"/>
+      <c r="A28" s="131"/>
+      <c r="B28" s="134"/>
+      <c r="C28" s="135"/>
       <c r="D28" s="26">
         <v>8</v>
       </c>
@@ -8674,25 +8674,25 @@
       <c r="S28" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T28" s="120"/>
-      <c r="U28" s="120"/>
-      <c r="V28" s="123"/>
-      <c r="W28" s="123"/>
-      <c r="X28" s="123"/>
-      <c r="Y28" s="124"/>
+      <c r="T28" s="108"/>
+      <c r="U28" s="108"/>
+      <c r="V28" s="102"/>
+      <c r="W28" s="102"/>
+      <c r="X28" s="102"/>
+      <c r="Y28" s="103"/>
       <c r="Z28" s="2">
         <f>SUM(D28:S28)</f>
         <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="144">
-        <v>5</v>
-      </c>
-      <c r="B29" s="141" t="s">
+      <c r="A29" s="129">
+        <v>6</v>
+      </c>
+      <c r="B29" s="132" t="s">
         <v>104</v>
       </c>
-      <c r="C29" s="137" t="s">
+      <c r="C29" s="135" t="s">
         <v>26</v>
       </c>
       <c r="D29" s="25">
@@ -8743,29 +8743,29 @@
       <c r="S29" s="25">
         <v>16</v>
       </c>
-      <c r="T29" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="U29" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="V29" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="W29" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="X29" s="121">
+      <c r="T29" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="100" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="100" t="s">
+        <v>8</v>
+      </c>
+      <c r="X29" s="100">
         <v>20</v>
       </c>
-      <c r="Y29" s="124">
+      <c r="Y29" s="103">
         <v>6565</v>
       </c>
     </row>
     <row r="30" spans="1:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="145"/>
-      <c r="B30" s="142"/>
-      <c r="C30" s="137"/>
+      <c r="A30" s="130"/>
+      <c r="B30" s="133"/>
+      <c r="C30" s="135"/>
       <c r="D30" s="26">
         <v>8</v>
       </c>
@@ -8814,21 +8814,21 @@
       <c r="S30" s="26">
         <v>8</v>
       </c>
-      <c r="T30" s="119"/>
-      <c r="U30" s="119"/>
-      <c r="V30" s="122"/>
-      <c r="W30" s="122"/>
-      <c r="X30" s="122"/>
-      <c r="Y30" s="124"/>
+      <c r="T30" s="107"/>
+      <c r="U30" s="107"/>
+      <c r="V30" s="101"/>
+      <c r="W30" s="101"/>
+      <c r="X30" s="101"/>
+      <c r="Y30" s="103"/>
       <c r="Z30" s="2">
         <f>SUM(D30:S30)</f>
         <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="145"/>
-      <c r="B31" s="142"/>
-      <c r="C31" s="137"/>
+      <c r="A31" s="130"/>
+      <c r="B31" s="133"/>
+      <c r="C31" s="135"/>
       <c r="D31" s="27">
         <v>17</v>
       </c>
@@ -8877,20 +8877,20 @@
       <c r="S31" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T31" s="119"/>
-      <c r="U31" s="119"/>
-      <c r="V31" s="122"/>
-      <c r="W31" s="122"/>
-      <c r="X31" s="121">
+      <c r="T31" s="107"/>
+      <c r="U31" s="107"/>
+      <c r="V31" s="101"/>
+      <c r="W31" s="101"/>
+      <c r="X31" s="100">
         <f>Z30+Z32</f>
         <v>160</v>
       </c>
-      <c r="Y31" s="124"/>
+      <c r="Y31" s="103"/>
     </row>
     <row r="32" spans="1:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="146"/>
-      <c r="B32" s="143"/>
-      <c r="C32" s="137"/>
+      <c r="A32" s="131"/>
+      <c r="B32" s="134"/>
+      <c r="C32" s="135"/>
       <c r="D32" s="26">
         <v>8</v>
       </c>
@@ -8939,12 +8939,12 @@
       <c r="S32" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T32" s="120"/>
-      <c r="U32" s="120"/>
-      <c r="V32" s="123"/>
-      <c r="W32" s="123"/>
-      <c r="X32" s="123"/>
-      <c r="Y32" s="124"/>
+      <c r="T32" s="108"/>
+      <c r="U32" s="108"/>
+      <c r="V32" s="102"/>
+      <c r="W32" s="102"/>
+      <c r="X32" s="102"/>
+      <c r="Y32" s="103"/>
       <c r="Z32" s="2">
         <f>SUM(D32:S32)</f>
         <v>64</v>
@@ -8976,7 +8976,7 @@
       <c r="W33" s="9"/>
       <c r="X33" s="9">
         <f>SUM(X11+X15+X19+X23)</f>
-        <v>560</v>
+        <v>384</v>
       </c>
       <c r="Y33" s="35">
         <f>SUM(Y9:Y24)</f>
@@ -8984,10 +8984,10 @@
       </c>
     </row>
     <row r="34" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="125" t="s">
+      <c r="A34" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="125"/>
+      <c r="B34" s="104"/>
       <c r="C34" s="93">
         <f>Мельницький!C36</f>
         <v>44621</v>
@@ -9147,64 +9147,6 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="V29:V32"/>
-    <mergeCell ref="W29:W32"/>
-    <mergeCell ref="X29:X30"/>
-    <mergeCell ref="Y29:Y32"/>
-    <mergeCell ref="X31:X32"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="T29:T32"/>
-    <mergeCell ref="U29:U32"/>
-    <mergeCell ref="V25:V28"/>
-    <mergeCell ref="W25:W28"/>
-    <mergeCell ref="X25:X26"/>
-    <mergeCell ref="Y25:Y28"/>
-    <mergeCell ref="X27:X28"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="T25:T28"/>
-    <mergeCell ref="U25:U28"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="T13:T16"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="T9:T12"/>
-    <mergeCell ref="T21:T24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A5:W5"/>
-    <mergeCell ref="A6:W6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="X21:X22"/>
-    <mergeCell ref="Y21:Y24"/>
-    <mergeCell ref="V21:V24"/>
-    <mergeCell ref="U21:U24"/>
-    <mergeCell ref="X23:X24"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y12"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="Y13:Y16"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="Y17:Y20"/>
-    <mergeCell ref="X19:X20"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="W9:W12"/>
     <mergeCell ref="W17:W20"/>
@@ -9221,6 +9163,64 @@
     <mergeCell ref="V13:V16"/>
     <mergeCell ref="V17:V20"/>
     <mergeCell ref="A9:A12"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="Y13:Y16"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="Y17:Y20"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y12"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="X21:X22"/>
+    <mergeCell ref="Y21:Y24"/>
+    <mergeCell ref="V21:V24"/>
+    <mergeCell ref="U21:U24"/>
+    <mergeCell ref="X23:X24"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A5:W5"/>
+    <mergeCell ref="A6:W6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="T9:T12"/>
+    <mergeCell ref="T21:T24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="T13:T16"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="T25:T28"/>
+    <mergeCell ref="U25:U28"/>
+    <mergeCell ref="V25:V28"/>
+    <mergeCell ref="W25:W28"/>
+    <mergeCell ref="X25:X26"/>
+    <mergeCell ref="Y25:Y28"/>
+    <mergeCell ref="X27:X28"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="T29:T32"/>
+    <mergeCell ref="U29:U32"/>
+    <mergeCell ref="V29:V32"/>
+    <mergeCell ref="W29:W32"/>
+    <mergeCell ref="X29:X30"/>
+    <mergeCell ref="Y29:Y32"/>
+    <mergeCell ref="X31:X32"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -9389,63 +9389,63 @@
       <c r="Y5" s="74"/>
     </row>
     <row r="6" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A6" s="104" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="104"/>
-      <c r="L6" s="104"/>
-      <c r="M6" s="104"/>
-      <c r="N6" s="104"/>
-      <c r="O6" s="104"/>
-      <c r="P6" s="104"/>
-      <c r="Q6" s="104"/>
-      <c r="R6" s="104"/>
-      <c r="S6" s="104"/>
-      <c r="T6" s="104"/>
-      <c r="U6" s="104"/>
-      <c r="V6" s="104"/>
-      <c r="W6" s="104"/>
-      <c r="X6" s="104"/>
-      <c r="Y6" s="104"/>
+      <c r="A6" s="116" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="116"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116"/>
+      <c r="L6" s="116"/>
+      <c r="M6" s="116"/>
+      <c r="N6" s="116"/>
+      <c r="O6" s="116"/>
+      <c r="P6" s="116"/>
+      <c r="Q6" s="116"/>
+      <c r="R6" s="116"/>
+      <c r="S6" s="116"/>
+      <c r="T6" s="116"/>
+      <c r="U6" s="116"/>
+      <c r="V6" s="116"/>
+      <c r="W6" s="116"/>
+      <c r="X6" s="116"/>
+      <c r="Y6" s="116"/>
     </row>
     <row r="7" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="104" t="str">
+      <c r="A7" s="116" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЛЮТИЙ 2022 р.</v>
       </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
-      <c r="N7" s="104"/>
-      <c r="O7" s="104"/>
-      <c r="P7" s="104"/>
-      <c r="Q7" s="104"/>
-      <c r="R7" s="104"/>
-      <c r="S7" s="104"/>
-      <c r="T7" s="104"/>
-      <c r="U7" s="104"/>
-      <c r="V7" s="104"/>
-      <c r="W7" s="104"/>
-      <c r="X7" s="104"/>
-      <c r="Y7" s="104"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="116"/>
+      <c r="M7" s="116"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
+      <c r="S7" s="116"/>
+      <c r="T7" s="116"/>
+      <c r="U7" s="116"/>
+      <c r="V7" s="116"/>
+      <c r="W7" s="116"/>
+      <c r="X7" s="116"/>
+      <c r="Y7" s="116"/>
     </row>
     <row r="8" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="73"/>
@@ -9475,90 +9475,90 @@
       <c r="Y8" s="73"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="106" t="s">
+      <c r="A9" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="118"/>
-      <c r="C9" s="106" t="s">
+      <c r="B9" s="106"/>
+      <c r="C9" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="106" t="s">
+      <c r="D9" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="106" t="s">
+      <c r="E9" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="106"/>
-      <c r="M9" s="106"/>
-      <c r="N9" s="106"/>
-      <c r="O9" s="106"/>
-      <c r="P9" s="106"/>
-      <c r="Q9" s="106"/>
-      <c r="R9" s="106"/>
-      <c r="S9" s="106"/>
-      <c r="T9" s="106"/>
-      <c r="U9" s="114" t="s">
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="118"/>
+      <c r="M9" s="118"/>
+      <c r="N9" s="118"/>
+      <c r="O9" s="118"/>
+      <c r="P9" s="118"/>
+      <c r="Q9" s="118"/>
+      <c r="R9" s="118"/>
+      <c r="S9" s="118"/>
+      <c r="T9" s="118"/>
+      <c r="U9" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="114" t="s">
+      <c r="V9" s="126" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="114" t="s">
+      <c r="W9" s="126" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="114" t="s">
+      <c r="X9" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="114" t="s">
+      <c r="Y9" s="126" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="100" t="s">
+      <c r="Z9" s="112" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="106"/>
-      <c r="B10" s="120"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="106"/>
-      <c r="L10" s="106"/>
-      <c r="M10" s="106"/>
-      <c r="N10" s="106"/>
-      <c r="O10" s="106"/>
-      <c r="P10" s="106"/>
-      <c r="Q10" s="106"/>
-      <c r="R10" s="106"/>
-      <c r="S10" s="106"/>
-      <c r="T10" s="106"/>
-      <c r="U10" s="114"/>
-      <c r="V10" s="114"/>
-      <c r="W10" s="114"/>
-      <c r="X10" s="114"/>
-      <c r="Y10" s="114"/>
-      <c r="Z10" s="100"/>
+      <c r="A10" s="118"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="118"/>
+      <c r="M10" s="118"/>
+      <c r="N10" s="118"/>
+      <c r="O10" s="118"/>
+      <c r="P10" s="118"/>
+      <c r="Q10" s="118"/>
+      <c r="R10" s="118"/>
+      <c r="S10" s="118"/>
+      <c r="T10" s="118"/>
+      <c r="U10" s="126"/>
+      <c r="V10" s="126"/>
+      <c r="W10" s="126"/>
+      <c r="X10" s="126"/>
+      <c r="Y10" s="126"/>
+      <c r="Z10" s="112"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="144">
+      <c r="A11" s="129">
         <v>1</v>
       </c>
-      <c r="B11" s="118"/>
-      <c r="C11" s="118" t="s">
+      <c r="B11" s="106"/>
+      <c r="C11" s="106" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="117" t="s">
+      <c r="D11" s="111" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="25">
@@ -9609,22 +9609,22 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="150"/>
-      <c r="V11" s="150"/>
-      <c r="W11" s="150"/>
-      <c r="X11" s="150"/>
-      <c r="Y11" s="121">
+      <c r="U11" s="147"/>
+      <c r="V11" s="147"/>
+      <c r="W11" s="147"/>
+      <c r="X11" s="147"/>
+      <c r="Y11" s="100">
         <v>20</v>
       </c>
-      <c r="Z11" s="147">
+      <c r="Z11" s="150">
         <v>6565</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="145"/>
-      <c r="B12" s="119"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="117"/>
+      <c r="A12" s="130"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="111"/>
       <c r="E12" s="26">
         <v>4</v>
       </c>
@@ -9673,18 +9673,18 @@
       <c r="T12" s="26">
         <v>4</v>
       </c>
-      <c r="U12" s="151"/>
-      <c r="V12" s="151"/>
-      <c r="W12" s="151"/>
-      <c r="X12" s="151"/>
-      <c r="Y12" s="123"/>
-      <c r="Z12" s="148"/>
+      <c r="U12" s="148"/>
+      <c r="V12" s="148"/>
+      <c r="W12" s="148"/>
+      <c r="X12" s="148"/>
+      <c r="Y12" s="102"/>
+      <c r="Z12" s="151"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="145"/>
-      <c r="B13" s="119"/>
-      <c r="C13" s="119"/>
-      <c r="D13" s="117"/>
+      <c r="A13" s="130"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="111"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -9733,20 +9733,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="151"/>
-      <c r="V13" s="151"/>
-      <c r="W13" s="151"/>
-      <c r="X13" s="151"/>
-      <c r="Y13" s="121">
+      <c r="U13" s="148"/>
+      <c r="V13" s="148"/>
+      <c r="W13" s="148"/>
+      <c r="X13" s="148"/>
+      <c r="Y13" s="100">
         <v>80</v>
       </c>
-      <c r="Z13" s="148"/>
+      <c r="Z13" s="151"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="146"/>
-      <c r="B14" s="120"/>
-      <c r="C14" s="120"/>
-      <c r="D14" s="117"/>
+      <c r="A14" s="131"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="111"/>
       <c r="E14" s="26">
         <v>4</v>
       </c>
@@ -9795,22 +9795,22 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="152"/>
-      <c r="V14" s="152"/>
-      <c r="W14" s="152"/>
-      <c r="X14" s="152"/>
-      <c r="Y14" s="123"/>
-      <c r="Z14" s="149"/>
+      <c r="U14" s="149"/>
+      <c r="V14" s="149"/>
+      <c r="W14" s="149"/>
+      <c r="X14" s="149"/>
+      <c r="Y14" s="102"/>
+      <c r="Z14" s="152"/>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="144">
-        <v>2</v>
-      </c>
-      <c r="B15" s="118"/>
-      <c r="C15" s="118" t="s">
+      <c r="A15" s="129">
+        <v>2</v>
+      </c>
+      <c r="B15" s="106"/>
+      <c r="C15" s="106" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="117" t="s">
+      <c r="D15" s="111" t="s">
         <v>37</v>
       </c>
       <c r="E15" s="25">
@@ -9861,22 +9861,22 @@
       <c r="T15" s="25">
         <v>16</v>
       </c>
-      <c r="U15" s="150"/>
-      <c r="V15" s="150"/>
-      <c r="W15" s="150"/>
-      <c r="X15" s="150"/>
-      <c r="Y15" s="121">
+      <c r="U15" s="147"/>
+      <c r="V15" s="147"/>
+      <c r="W15" s="147"/>
+      <c r="X15" s="147"/>
+      <c r="Y15" s="100">
         <v>20</v>
       </c>
-      <c r="Z15" s="147">
+      <c r="Z15" s="150">
         <v>6565</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="145"/>
-      <c r="B16" s="119"/>
-      <c r="C16" s="119"/>
-      <c r="D16" s="117"/>
+      <c r="A16" s="130"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="111"/>
       <c r="E16" s="26">
         <v>4</v>
       </c>
@@ -9925,18 +9925,18 @@
       <c r="T16" s="26">
         <v>4</v>
       </c>
-      <c r="U16" s="151"/>
-      <c r="V16" s="151"/>
-      <c r="W16" s="151"/>
-      <c r="X16" s="151"/>
-      <c r="Y16" s="123"/>
-      <c r="Z16" s="148"/>
+      <c r="U16" s="148"/>
+      <c r="V16" s="148"/>
+      <c r="W16" s="148"/>
+      <c r="X16" s="148"/>
+      <c r="Y16" s="102"/>
+      <c r="Z16" s="151"/>
     </row>
     <row r="17" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="145"/>
-      <c r="B17" s="119"/>
-      <c r="C17" s="119"/>
-      <c r="D17" s="117"/>
+      <c r="A17" s="130"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="111"/>
       <c r="E17" s="27">
         <v>17</v>
       </c>
@@ -9985,20 +9985,20 @@
       <c r="T17" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U17" s="151"/>
-      <c r="V17" s="151"/>
-      <c r="W17" s="151"/>
-      <c r="X17" s="151"/>
-      <c r="Y17" s="121">
+      <c r="U17" s="148"/>
+      <c r="V17" s="148"/>
+      <c r="W17" s="148"/>
+      <c r="X17" s="148"/>
+      <c r="Y17" s="100">
         <v>80</v>
       </c>
-      <c r="Z17" s="148"/>
+      <c r="Z17" s="151"/>
     </row>
     <row r="18" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="146"/>
-      <c r="B18" s="120"/>
-      <c r="C18" s="120"/>
-      <c r="D18" s="117"/>
+      <c r="A18" s="131"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="111"/>
       <c r="E18" s="26">
         <v>4</v>
       </c>
@@ -10047,12 +10047,12 @@
       <c r="T18" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U18" s="152"/>
-      <c r="V18" s="152"/>
-      <c r="W18" s="152"/>
-      <c r="X18" s="152"/>
-      <c r="Y18" s="123"/>
-      <c r="Z18" s="149"/>
+      <c r="U18" s="149"/>
+      <c r="V18" s="149"/>
+      <c r="W18" s="149"/>
+      <c r="X18" s="149"/>
+      <c r="Y18" s="102"/>
+      <c r="Z18" s="152"/>
     </row>
     <row r="19" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
@@ -10083,10 +10083,10 @@
       <c r="Z19" s="85"/>
     </row>
     <row r="20" spans="1:26" s="98" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="B20" s="125" t="s">
+      <c r="B20" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="125"/>
+      <c r="C20" s="104"/>
       <c r="D20" s="99">
         <f>Мельницький!C36</f>
         <v>44621</v>
@@ -10150,11 +10150,21 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="Z15:Z18"/>
+    <mergeCell ref="Y17:Y18"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="U15:U18"/>
+    <mergeCell ref="A6:Y6"/>
+    <mergeCell ref="A7:Y7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="B9:B10"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="Z9:Z10"/>
     <mergeCell ref="X9:X10"/>
@@ -10171,21 +10181,11 @@
     <mergeCell ref="W15:W18"/>
     <mergeCell ref="X15:X18"/>
     <mergeCell ref="Y15:Y16"/>
-    <mergeCell ref="A6:Y6"/>
-    <mergeCell ref="A7:Y7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="Z15:Z18"/>
-    <mergeCell ref="Y17:Y18"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="U15:U18"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -10218,11 +10218,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
       <c r="N1" s="15" t="s">
         <v>40</v>
       </c>
@@ -10372,145 +10372,145 @@
       <c r="Z6" s="94"/>
     </row>
     <row r="7" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="104" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
-      <c r="N7" s="104"/>
-      <c r="O7" s="104"/>
-      <c r="P7" s="104"/>
-      <c r="Q7" s="104"/>
-      <c r="R7" s="104"/>
-      <c r="S7" s="104"/>
-      <c r="T7" s="104"/>
-      <c r="U7" s="104"/>
-      <c r="V7" s="104"/>
-      <c r="W7" s="104"/>
+      <c r="A7" s="116" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="116"/>
+      <c r="M7" s="116"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
+      <c r="S7" s="116"/>
+      <c r="T7" s="116"/>
+      <c r="U7" s="116"/>
+      <c r="V7" s="116"/>
+      <c r="W7" s="116"/>
       <c r="X7" s="76"/>
     </row>
     <row r="8" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="105" t="str">
+      <c r="A8" s="117" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЛЮТИЙ 2022 р.</v>
       </c>
-      <c r="B8" s="105"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="105"/>
-      <c r="N8" s="105"/>
-      <c r="O8" s="105"/>
-      <c r="P8" s="105"/>
-      <c r="Q8" s="105"/>
-      <c r="R8" s="105"/>
-      <c r="S8" s="105"/>
-      <c r="T8" s="105"/>
-      <c r="U8" s="105"/>
-      <c r="V8" s="105"/>
-      <c r="W8" s="105"/>
-      <c r="X8" s="105"/>
-      <c r="Y8" s="105"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
+      <c r="L8" s="117"/>
+      <c r="M8" s="117"/>
+      <c r="N8" s="117"/>
+      <c r="O8" s="117"/>
+      <c r="P8" s="117"/>
+      <c r="Q8" s="117"/>
+      <c r="R8" s="117"/>
+      <c r="S8" s="117"/>
+      <c r="T8" s="117"/>
+      <c r="U8" s="117"/>
+      <c r="V8" s="117"/>
+      <c r="W8" s="117"/>
+      <c r="X8" s="117"/>
+      <c r="Y8" s="117"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A9" s="106" t="s">
+      <c r="A9" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="106" t="s">
+      <c r="B9" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="106" t="s">
+      <c r="C9" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="106" t="s">
+      <c r="D9" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="106"/>
-      <c r="M9" s="106"/>
-      <c r="N9" s="106"/>
-      <c r="O9" s="106"/>
-      <c r="P9" s="106"/>
-      <c r="Q9" s="106"/>
-      <c r="R9" s="106"/>
-      <c r="S9" s="106"/>
-      <c r="T9" s="114" t="s">
+      <c r="E9" s="118"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="118"/>
+      <c r="M9" s="118"/>
+      <c r="N9" s="118"/>
+      <c r="O9" s="118"/>
+      <c r="P9" s="118"/>
+      <c r="Q9" s="118"/>
+      <c r="R9" s="118"/>
+      <c r="S9" s="118"/>
+      <c r="T9" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="U9" s="114" t="s">
+      <c r="U9" s="126" t="s">
         <v>49</v>
       </c>
-      <c r="V9" s="114" t="s">
+      <c r="V9" s="126" t="s">
         <v>50</v>
       </c>
-      <c r="W9" s="114" t="s">
+      <c r="W9" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="X9" s="114" t="s">
+      <c r="X9" s="126" t="s">
         <v>46</v>
       </c>
-      <c r="Y9" s="100" t="s">
+      <c r="Y9" s="112" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="106"/>
-      <c r="B10" s="106"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="106"/>
-      <c r="L10" s="106"/>
-      <c r="M10" s="106"/>
-      <c r="N10" s="106"/>
-      <c r="O10" s="106"/>
-      <c r="P10" s="106"/>
-      <c r="Q10" s="106"/>
-      <c r="R10" s="106"/>
-      <c r="S10" s="106"/>
-      <c r="T10" s="114"/>
-      <c r="U10" s="114"/>
-      <c r="V10" s="114"/>
-      <c r="W10" s="114"/>
-      <c r="X10" s="114"/>
-      <c r="Y10" s="100"/>
+      <c r="A10" s="118"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="118"/>
+      <c r="M10" s="118"/>
+      <c r="N10" s="118"/>
+      <c r="O10" s="118"/>
+      <c r="P10" s="118"/>
+      <c r="Q10" s="118"/>
+      <c r="R10" s="118"/>
+      <c r="S10" s="118"/>
+      <c r="T10" s="126"/>
+      <c r="U10" s="126"/>
+      <c r="V10" s="126"/>
+      <c r="W10" s="126"/>
+      <c r="X10" s="126"/>
+      <c r="Y10" s="112"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="115">
+      <c r="A11" s="109">
         <v>1</v>
       </c>
-      <c r="B11" s="116" t="s">
+      <c r="B11" s="110" t="s">
         <v>92</v>
       </c>
-      <c r="C11" s="117" t="s">
+      <c r="C11" s="111" t="s">
         <v>93</v>
       </c>
       <c r="D11" s="25">
@@ -10561,28 +10561,28 @@
       <c r="S11" s="25">
         <v>16</v>
       </c>
-      <c r="T11" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="U11" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="121" t="s">
+      <c r="T11" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="U11" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="100" t="s">
         <v>8</v>
       </c>
       <c r="W11" s="153"/>
-      <c r="X11" s="121">
+      <c r="X11" s="100">
         <v>22</v>
       </c>
-      <c r="Y11" s="124">
+      <c r="Y11" s="103">
         <v>6000</v>
       </c>
       <c r="Z11" s="96"/>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="115"/>
-      <c r="B12" s="116"/>
-      <c r="C12" s="117"/>
+      <c r="A12" s="109"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="111"/>
       <c r="D12" s="26">
         <v>2</v>
       </c>
@@ -10631,21 +10631,21 @@
       <c r="S12" s="26">
         <v>2</v>
       </c>
-      <c r="T12" s="119"/>
-      <c r="U12" s="119"/>
-      <c r="V12" s="122"/>
+      <c r="T12" s="107"/>
+      <c r="U12" s="107"/>
+      <c r="V12" s="101"/>
       <c r="W12" s="154"/>
-      <c r="X12" s="123"/>
-      <c r="Y12" s="124"/>
+      <c r="X12" s="102"/>
+      <c r="Y12" s="103"/>
       <c r="Z12" s="96">
         <f>SUM(D12:S12)</f>
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" s="115"/>
-      <c r="B13" s="116"/>
-      <c r="C13" s="117"/>
+      <c r="A13" s="109"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="111"/>
       <c r="D13" s="27">
         <v>17</v>
       </c>
@@ -10694,20 +10694,20 @@
       <c r="S13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T13" s="119"/>
-      <c r="U13" s="119"/>
-      <c r="V13" s="122"/>
+      <c r="T13" s="107"/>
+      <c r="U13" s="107"/>
+      <c r="V13" s="101"/>
       <c r="W13" s="154"/>
       <c r="X13" s="156">
         <f>Z12+Z14</f>
         <v>40</v>
       </c>
-      <c r="Y13" s="124"/>
+      <c r="Y13" s="103"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A14" s="115"/>
-      <c r="B14" s="116"/>
-      <c r="C14" s="117"/>
+      <c r="A14" s="109"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="111"/>
       <c r="D14" s="26">
         <v>2</v>
       </c>
@@ -10756,25 +10756,25 @@
       <c r="S14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="120"/>
-      <c r="U14" s="120"/>
-      <c r="V14" s="123"/>
+      <c r="T14" s="108"/>
+      <c r="U14" s="108"/>
+      <c r="V14" s="102"/>
       <c r="W14" s="155"/>
       <c r="X14" s="157"/>
-      <c r="Y14" s="124"/>
+      <c r="Y14" s="103"/>
       <c r="Z14" s="95">
         <f>SUM(D14:S14)</f>
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="115">
-        <v>2</v>
-      </c>
-      <c r="B15" s="116" t="s">
+      <c r="A15" s="109">
+        <v>2</v>
+      </c>
+      <c r="B15" s="110" t="s">
         <v>94</v>
       </c>
-      <c r="C15" s="117" t="s">
+      <c r="C15" s="111" t="s">
         <v>95</v>
       </c>
       <c r="D15" s="25">
@@ -10825,28 +10825,28 @@
       <c r="S15" s="25">
         <v>16</v>
       </c>
-      <c r="T15" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="U15" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="V15" s="121" t="s">
+      <c r="T15" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="U15" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="V15" s="100" t="s">
         <v>8</v>
       </c>
       <c r="W15" s="153"/>
-      <c r="X15" s="121">
+      <c r="X15" s="100">
         <v>22</v>
       </c>
-      <c r="Y15" s="124">
+      <c r="Y15" s="103">
         <v>6000</v>
       </c>
       <c r="Z15" s="96"/>
     </row>
     <row r="16" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="115"/>
-      <c r="B16" s="116"/>
-      <c r="C16" s="117"/>
+      <c r="A16" s="109"/>
+      <c r="B16" s="110"/>
+      <c r="C16" s="111"/>
       <c r="D16" s="26">
         <v>8</v>
       </c>
@@ -10895,21 +10895,21 @@
       <c r="S16" s="26">
         <v>8</v>
       </c>
-      <c r="T16" s="119"/>
-      <c r="U16" s="119"/>
-      <c r="V16" s="122"/>
+      <c r="T16" s="107"/>
+      <c r="U16" s="107"/>
+      <c r="V16" s="101"/>
       <c r="W16" s="154"/>
-      <c r="X16" s="123"/>
-      <c r="Y16" s="124"/>
+      <c r="X16" s="102"/>
+      <c r="Y16" s="103"/>
       <c r="Z16" s="96">
         <f>SUM(D16:S16)</f>
         <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A17" s="115"/>
-      <c r="B17" s="116"/>
-      <c r="C17" s="117"/>
+      <c r="A17" s="109"/>
+      <c r="B17" s="110"/>
+      <c r="C17" s="111"/>
       <c r="D17" s="27">
         <v>17</v>
       </c>
@@ -10958,20 +10958,20 @@
       <c r="S17" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T17" s="119"/>
-      <c r="U17" s="119"/>
-      <c r="V17" s="122"/>
+      <c r="T17" s="107"/>
+      <c r="U17" s="107"/>
+      <c r="V17" s="101"/>
       <c r="W17" s="154"/>
-      <c r="X17" s="121">
+      <c r="X17" s="100">
         <f>Z16+Z18</f>
         <v>160</v>
       </c>
-      <c r="Y17" s="124"/>
+      <c r="Y17" s="103"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" s="115"/>
-      <c r="B18" s="116"/>
-      <c r="C18" s="117"/>
+      <c r="A18" s="109"/>
+      <c r="B18" s="110"/>
+      <c r="C18" s="111"/>
       <c r="D18" s="26">
         <v>8</v>
       </c>
@@ -11020,12 +11020,12 @@
       <c r="S18" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T18" s="120"/>
-      <c r="U18" s="120"/>
-      <c r="V18" s="123"/>
+      <c r="T18" s="108"/>
+      <c r="U18" s="108"/>
+      <c r="V18" s="102"/>
       <c r="W18" s="155"/>
-      <c r="X18" s="123"/>
-      <c r="Y18" s="124"/>
+      <c r="X18" s="102"/>
+      <c r="Y18" s="103"/>
       <c r="Z18" s="95">
         <f>SUM(D18:S18)</f>
         <v>64</v>
@@ -11135,26 +11135,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="T15:T18"/>
-    <mergeCell ref="U15:U18"/>
-    <mergeCell ref="V15:V18"/>
-    <mergeCell ref="W15:W18"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="Y15:Y18"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="T11:T14"/>
-    <mergeCell ref="U11:U14"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A7:W7"/>
     <mergeCell ref="A8:Y8"/>
@@ -11168,6 +11148,26 @@
     <mergeCell ref="W9:W10"/>
     <mergeCell ref="X9:X10"/>
     <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="T11:T14"/>
+    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="V15:V18"/>
+    <mergeCell ref="W15:W18"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="Y15:Y18"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="T15:T18"/>
+    <mergeCell ref="U15:U18"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -11195,12 +11195,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
       <c r="R1" s="15" t="s">
         <v>40</v>
       </c>
@@ -11345,147 +11345,147 @@
       <c r="X6" s="17"/>
     </row>
     <row r="7" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="104" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
-      <c r="N7" s="104"/>
-      <c r="O7" s="104"/>
-      <c r="P7" s="104"/>
-      <c r="Q7" s="104"/>
-      <c r="R7" s="104"/>
-      <c r="S7" s="104"/>
-      <c r="T7" s="104"/>
-      <c r="U7" s="104"/>
-      <c r="V7" s="104"/>
-      <c r="W7" s="104"/>
-      <c r="X7" s="104"/>
+      <c r="A7" s="116" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="116"/>
+      <c r="M7" s="116"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
+      <c r="S7" s="116"/>
+      <c r="T7" s="116"/>
+      <c r="U7" s="116"/>
+      <c r="V7" s="116"/>
+      <c r="W7" s="116"/>
+      <c r="X7" s="116"/>
     </row>
     <row r="8" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="104" t="str">
+      <c r="A8" s="116" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЛЮТИЙ 2022 р.</v>
       </c>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="104"/>
-      <c r="Q8" s="104"/>
-      <c r="R8" s="104"/>
-      <c r="S8" s="104"/>
-      <c r="T8" s="104"/>
-      <c r="U8" s="104"/>
-      <c r="V8" s="104"/>
-      <c r="W8" s="104"/>
-      <c r="X8" s="104"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="116"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="116"/>
+      <c r="N8" s="116"/>
+      <c r="O8" s="116"/>
+      <c r="P8" s="116"/>
+      <c r="Q8" s="116"/>
+      <c r="R8" s="116"/>
+      <c r="S8" s="116"/>
+      <c r="T8" s="116"/>
+      <c r="U8" s="116"/>
+      <c r="V8" s="116"/>
+      <c r="W8" s="116"/>
+      <c r="X8" s="116"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="106" t="s">
+      <c r="A9" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="107" t="s">
+      <c r="B9" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="106" t="s">
+      <c r="C9" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="106" t="s">
+      <c r="D9" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="106" t="s">
+      <c r="E9" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="106"/>
-      <c r="M9" s="106"/>
-      <c r="N9" s="106"/>
-      <c r="O9" s="106"/>
-      <c r="P9" s="106"/>
-      <c r="Q9" s="106"/>
-      <c r="R9" s="106"/>
-      <c r="S9" s="106"/>
-      <c r="T9" s="106"/>
-      <c r="U9" s="114" t="s">
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="118"/>
+      <c r="M9" s="118"/>
+      <c r="N9" s="118"/>
+      <c r="O9" s="118"/>
+      <c r="P9" s="118"/>
+      <c r="Q9" s="118"/>
+      <c r="R9" s="118"/>
+      <c r="S9" s="118"/>
+      <c r="T9" s="118"/>
+      <c r="U9" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="114" t="s">
+      <c r="V9" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="W9" s="114" t="s">
+      <c r="W9" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="X9" s="114" t="s">
+      <c r="X9" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="Y9" s="100" t="s">
+      <c r="Y9" s="112" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="106"/>
-      <c r="B10" s="107"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="106"/>
-      <c r="L10" s="106"/>
-      <c r="M10" s="106"/>
-      <c r="N10" s="106"/>
-      <c r="O10" s="106"/>
-      <c r="P10" s="106"/>
-      <c r="Q10" s="106"/>
-      <c r="R10" s="106"/>
-      <c r="S10" s="106"/>
-      <c r="T10" s="106"/>
-      <c r="U10" s="114"/>
-      <c r="V10" s="114"/>
-      <c r="W10" s="114"/>
-      <c r="X10" s="114"/>
-      <c r="Y10" s="100"/>
+      <c r="A10" s="118"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="118"/>
+      <c r="M10" s="118"/>
+      <c r="N10" s="118"/>
+      <c r="O10" s="118"/>
+      <c r="P10" s="118"/>
+      <c r="Q10" s="118"/>
+      <c r="R10" s="118"/>
+      <c r="S10" s="118"/>
+      <c r="T10" s="118"/>
+      <c r="U10" s="126"/>
+      <c r="V10" s="126"/>
+      <c r="W10" s="126"/>
+      <c r="X10" s="126"/>
+      <c r="Y10" s="112"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="115">
+      <c r="A11" s="109">
         <v>1</v>
       </c>
-      <c r="B11" s="144">
+      <c r="B11" s="129">
         <v>1</v>
       </c>
       <c r="C11" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="138" t="s">
+      <c r="D11" s="136" t="s">
         <v>74</v>
       </c>
       <c r="E11" s="25">
@@ -11536,16 +11536,16 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="X11" s="121">
+      <c r="U11" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="100" t="s">
+        <v>8</v>
+      </c>
+      <c r="X11" s="100">
         <v>20</v>
       </c>
       <c r="Y11" s="158">
@@ -11557,10 +11557,10 @@
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="115"/>
-      <c r="B12" s="145"/>
+      <c r="A12" s="109"/>
+      <c r="B12" s="130"/>
       <c r="C12" s="163"/>
-      <c r="D12" s="139"/>
+      <c r="D12" s="137"/>
       <c r="E12" s="26">
         <v>8</v>
       </c>
@@ -11609,17 +11609,17 @@
       <c r="T12" s="26">
         <v>8</v>
       </c>
-      <c r="U12" s="119"/>
-      <c r="V12" s="119"/>
-      <c r="W12" s="122"/>
-      <c r="X12" s="123"/>
+      <c r="U12" s="107"/>
+      <c r="V12" s="107"/>
+      <c r="W12" s="101"/>
+      <c r="X12" s="102"/>
       <c r="Y12" s="159"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="115"/>
-      <c r="B13" s="145"/>
+      <c r="A13" s="109"/>
+      <c r="B13" s="130"/>
       <c r="C13" s="163"/>
-      <c r="D13" s="139"/>
+      <c r="D13" s="137"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -11668,20 +11668,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="119"/>
-      <c r="V13" s="119"/>
-      <c r="W13" s="122"/>
-      <c r="X13" s="121">
+      <c r="U13" s="107"/>
+      <c r="V13" s="107"/>
+      <c r="W13" s="101"/>
+      <c r="X13" s="100">
         <f>Z11+Z14</f>
         <v>160</v>
       </c>
       <c r="Y13" s="159"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="115"/>
-      <c r="B14" s="146"/>
+      <c r="A14" s="109"/>
+      <c r="B14" s="131"/>
       <c r="C14" s="164"/>
-      <c r="D14" s="140"/>
+      <c r="D14" s="138"/>
       <c r="E14" s="26">
         <v>8</v>
       </c>
@@ -11730,10 +11730,10 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="120"/>
-      <c r="V14" s="120"/>
-      <c r="W14" s="123"/>
-      <c r="X14" s="123"/>
+      <c r="U14" s="108"/>
+      <c r="V14" s="108"/>
+      <c r="W14" s="102"/>
+      <c r="X14" s="102"/>
       <c r="Y14" s="160"/>
       <c r="Z14" s="3">
         <f>SUM(E14:T14)</f>
@@ -11850,12 +11850,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="X13:X14"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A7:X7"/>
     <mergeCell ref="A8:X8"/>
@@ -11866,14 +11868,12 @@
     <mergeCell ref="W9:W10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="U11:U14"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11910,49 +11910,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="102"/>
-      <c r="S1" s="102"/>
-      <c r="T1" s="102"/>
-      <c r="U1" s="102"/>
-      <c r="V1" s="102"/>
-      <c r="W1" s="102"/>
-      <c r="X1" s="102"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="114"/>
+      <c r="T1" s="114"/>
+      <c r="U1" s="114"/>
+      <c r="V1" s="114"/>
+      <c r="W1" s="114"/>
+      <c r="X1" s="114"/>
     </row>
     <row r="2" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="115" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="103"/>
-      <c r="S2" s="103"/>
-      <c r="T2" s="103"/>
-      <c r="U2" s="103"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="103"/>
-      <c r="X2" s="103"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="115"/>
+      <c r="O2" s="115"/>
+      <c r="P2" s="115"/>
+      <c r="Q2" s="115"/>
+      <c r="R2" s="115"/>
+      <c r="S2" s="115"/>
+      <c r="T2" s="115"/>
+      <c r="U2" s="115"/>
+      <c r="V2" s="115"/>
+      <c r="W2" s="115"/>
+      <c r="X2" s="115"/>
     </row>
     <row r="3" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="19"/>
@@ -12062,147 +12062,147 @@
       <c r="X6" s="2"/>
     </row>
     <row r="7" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="104" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
-      <c r="N7" s="104"/>
-      <c r="O7" s="104"/>
-      <c r="P7" s="104"/>
-      <c r="Q7" s="104"/>
-      <c r="R7" s="104"/>
-      <c r="S7" s="104"/>
-      <c r="T7" s="104"/>
-      <c r="U7" s="104"/>
-      <c r="V7" s="104"/>
-      <c r="W7" s="104"/>
-      <c r="X7" s="104"/>
+      <c r="A7" s="116" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="116"/>
+      <c r="M7" s="116"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
+      <c r="S7" s="116"/>
+      <c r="T7" s="116"/>
+      <c r="U7" s="116"/>
+      <c r="V7" s="116"/>
+      <c r="W7" s="116"/>
+      <c r="X7" s="116"/>
     </row>
     <row r="8" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="105" t="str">
+      <c r="A8" s="117" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЛЮТИЙ 2022 р.</v>
       </c>
-      <c r="B8" s="105"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="105"/>
-      <c r="N8" s="105"/>
-      <c r="O8" s="105"/>
-      <c r="P8" s="105"/>
-      <c r="Q8" s="105"/>
-      <c r="R8" s="105"/>
-      <c r="S8" s="105"/>
-      <c r="T8" s="105"/>
-      <c r="U8" s="105"/>
-      <c r="V8" s="105"/>
-      <c r="W8" s="105"/>
-      <c r="X8" s="105"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
+      <c r="L8" s="117"/>
+      <c r="M8" s="117"/>
+      <c r="N8" s="117"/>
+      <c r="O8" s="117"/>
+      <c r="P8" s="117"/>
+      <c r="Q8" s="117"/>
+      <c r="R8" s="117"/>
+      <c r="S8" s="117"/>
+      <c r="T8" s="117"/>
+      <c r="U8" s="117"/>
+      <c r="V8" s="117"/>
+      <c r="W8" s="117"/>
+      <c r="X8" s="117"/>
     </row>
     <row r="9" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="106" t="s">
+      <c r="A9" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="107"/>
-      <c r="C9" s="106" t="s">
+      <c r="B9" s="119"/>
+      <c r="C9" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="106" t="s">
+      <c r="D9" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="108" t="s">
+      <c r="E9" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="109"/>
-      <c r="J9" s="109"/>
-      <c r="K9" s="109"/>
-      <c r="L9" s="109"/>
-      <c r="M9" s="109"/>
-      <c r="N9" s="109"/>
-      <c r="O9" s="109"/>
-      <c r="P9" s="109"/>
-      <c r="Q9" s="109"/>
-      <c r="R9" s="109"/>
-      <c r="S9" s="109"/>
-      <c r="T9" s="110"/>
-      <c r="U9" s="114" t="s">
+      <c r="F9" s="121"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="121"/>
+      <c r="K9" s="121"/>
+      <c r="L9" s="121"/>
+      <c r="M9" s="121"/>
+      <c r="N9" s="121"/>
+      <c r="O9" s="121"/>
+      <c r="P9" s="121"/>
+      <c r="Q9" s="121"/>
+      <c r="R9" s="121"/>
+      <c r="S9" s="121"/>
+      <c r="T9" s="122"/>
+      <c r="U9" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="114" t="s">
+      <c r="V9" s="126" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="114" t="s">
+      <c r="W9" s="126" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="114" t="s">
+      <c r="X9" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="114" t="s">
+      <c r="Y9" s="126" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="100" t="s">
+      <c r="Z9" s="112" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="106"/>
-      <c r="B10" s="107"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="112"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="112"/>
-      <c r="K10" s="112"/>
-      <c r="L10" s="112"/>
-      <c r="M10" s="112"/>
-      <c r="N10" s="112"/>
-      <c r="O10" s="112"/>
-      <c r="P10" s="112"/>
-      <c r="Q10" s="112"/>
-      <c r="R10" s="112"/>
-      <c r="S10" s="112"/>
-      <c r="T10" s="113"/>
-      <c r="U10" s="114"/>
-      <c r="V10" s="114"/>
-      <c r="W10" s="114"/>
-      <c r="X10" s="114"/>
-      <c r="Y10" s="114"/>
-      <c r="Z10" s="100"/>
+      <c r="A10" s="118"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="124"/>
+      <c r="G10" s="124"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="124"/>
+      <c r="J10" s="124"/>
+      <c r="K10" s="124"/>
+      <c r="L10" s="124"/>
+      <c r="M10" s="124"/>
+      <c r="N10" s="124"/>
+      <c r="O10" s="124"/>
+      <c r="P10" s="124"/>
+      <c r="Q10" s="124"/>
+      <c r="R10" s="124"/>
+      <c r="S10" s="124"/>
+      <c r="T10" s="125"/>
+      <c r="U10" s="126"/>
+      <c r="V10" s="126"/>
+      <c r="W10" s="126"/>
+      <c r="X10" s="126"/>
+      <c r="Y10" s="126"/>
+      <c r="Z10" s="112"/>
     </row>
     <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="115">
+      <c r="A11" s="109">
         <v>1</v>
       </c>
-      <c r="B11" s="115"/>
-      <c r="C11" s="116" t="s">
+      <c r="B11" s="109"/>
+      <c r="C11" s="110" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="117" t="s">
+      <c r="D11" s="111" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="25">
@@ -12253,20 +12253,20 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="121" t="s">
+      <c r="U11" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="100" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="45"/>
-      <c r="Y11" s="121">
+      <c r="Y11" s="100">
         <v>22</v>
       </c>
-      <c r="Z11" s="124">
+      <c r="Z11" s="103">
         <v>6565</v>
       </c>
       <c r="AA11" s="2">
@@ -12275,10 +12275,10 @@
       </c>
     </row>
     <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="115"/>
-      <c r="B12" s="115"/>
-      <c r="C12" s="116"/>
-      <c r="D12" s="117"/>
+      <c r="A12" s="109"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="111"/>
       <c r="E12" s="26" t="s">
         <v>13</v>
       </c>
@@ -12327,18 +12327,18 @@
       <c r="T12" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="U12" s="119"/>
-      <c r="V12" s="119"/>
-      <c r="W12" s="122"/>
+      <c r="U12" s="107"/>
+      <c r="V12" s="107"/>
+      <c r="W12" s="101"/>
       <c r="X12" s="47"/>
-      <c r="Y12" s="123"/>
-      <c r="Z12" s="124"/>
+      <c r="Y12" s="102"/>
+      <c r="Z12" s="103"/>
     </row>
     <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="115"/>
-      <c r="B13" s="115"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="117"/>
+      <c r="A13" s="109"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="111"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -12387,24 +12387,24 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="119"/>
-      <c r="V13" s="119"/>
-      <c r="W13" s="122"/>
+      <c r="U13" s="107"/>
+      <c r="V13" s="107"/>
+      <c r="W13" s="101"/>
       <c r="X13" s="47"/>
-      <c r="Y13" s="121">
+      <c r="Y13" s="100">
         <v>43.5</v>
       </c>
-      <c r="Z13" s="124"/>
+      <c r="Z13" s="103"/>
       <c r="AB13" s="2">
         <f>AA11+AA14</f>
         <v>37.75</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="115"/>
-      <c r="B14" s="115"/>
-      <c r="C14" s="116"/>
-      <c r="D14" s="117"/>
+      <c r="A14" s="109"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="111"/>
       <c r="E14" s="26">
         <v>2</v>
       </c>
@@ -12453,12 +12453,12 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="120"/>
-      <c r="V14" s="120"/>
-      <c r="W14" s="123"/>
+      <c r="U14" s="108"/>
+      <c r="V14" s="108"/>
+      <c r="W14" s="102"/>
       <c r="X14" s="46"/>
-      <c r="Y14" s="123"/>
-      <c r="Z14" s="124"/>
+      <c r="Y14" s="102"/>
+      <c r="Z14" s="103"/>
       <c r="AA14" s="2">
         <f>SUM(E14:T14)</f>
         <v>22</v>
@@ -12543,10 +12543,10 @@
       <c r="X17" s="9"/>
     </row>
     <row r="18" spans="1:24" s="39" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="B18" s="125" t="s">
+      <c r="B18" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="125"/>
+      <c r="C18" s="104"/>
       <c r="D18" s="165">
         <f>Мельницький!C36</f>
         <v>44621</v>
@@ -12561,14 +12561,11 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Z11:Z14"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="P1:X1"/>
     <mergeCell ref="A2:X2"/>
@@ -12584,11 +12581,14 @@
     <mergeCell ref="U9:U10"/>
     <mergeCell ref="V9:V10"/>
     <mergeCell ref="W9:W10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Z11:Z14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
@@ -12622,11 +12622,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
       <c r="Q1" s="15" t="s">
         <v>40</v>
       </c>
@@ -12740,141 +12740,141 @@
       <c r="W5" s="67"/>
     </row>
     <row r="6" spans="1:25" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A6" s="104" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="104"/>
-      <c r="L6" s="104"/>
-      <c r="M6" s="104"/>
-      <c r="N6" s="104"/>
-      <c r="O6" s="104"/>
-      <c r="P6" s="104"/>
-      <c r="Q6" s="104"/>
-      <c r="R6" s="104"/>
-      <c r="S6" s="104"/>
-      <c r="T6" s="104"/>
-      <c r="U6" s="104"/>
-      <c r="V6" s="104"/>
-      <c r="W6" s="104"/>
+      <c r="A6" s="116" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="116"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116"/>
+      <c r="L6" s="116"/>
+      <c r="M6" s="116"/>
+      <c r="N6" s="116"/>
+      <c r="O6" s="116"/>
+      <c r="P6" s="116"/>
+      <c r="Q6" s="116"/>
+      <c r="R6" s="116"/>
+      <c r="S6" s="116"/>
+      <c r="T6" s="116"/>
+      <c r="U6" s="116"/>
+      <c r="V6" s="116"/>
+      <c r="W6" s="116"/>
     </row>
     <row r="7" spans="1:25" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="116" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
-      <c r="N7" s="104"/>
-      <c r="O7" s="104"/>
-      <c r="P7" s="104"/>
-      <c r="Q7" s="104"/>
-      <c r="R7" s="104"/>
-      <c r="S7" s="104"/>
-      <c r="T7" s="104"/>
-      <c r="U7" s="104"/>
-      <c r="V7" s="104"/>
-      <c r="W7" s="104"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="116"/>
+      <c r="M7" s="116"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
+      <c r="S7" s="116"/>
+      <c r="T7" s="116"/>
+      <c r="U7" s="116"/>
+      <c r="V7" s="116"/>
+      <c r="W7" s="116"/>
     </row>
     <row r="8" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="106" t="s">
+      <c r="A8" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="106" t="s">
+      <c r="B8" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="106" t="s">
+      <c r="C8" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="106" t="s">
+      <c r="D8" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="106"/>
-      <c r="L8" s="106"/>
-      <c r="M8" s="106"/>
-      <c r="N8" s="106"/>
-      <c r="O8" s="106"/>
-      <c r="P8" s="106"/>
-      <c r="Q8" s="106"/>
-      <c r="R8" s="106"/>
-      <c r="S8" s="106"/>
-      <c r="T8" s="114" t="s">
+      <c r="E8" s="118"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="118"/>
+      <c r="I8" s="118"/>
+      <c r="J8" s="118"/>
+      <c r="K8" s="118"/>
+      <c r="L8" s="118"/>
+      <c r="M8" s="118"/>
+      <c r="N8" s="118"/>
+      <c r="O8" s="118"/>
+      <c r="P8" s="118"/>
+      <c r="Q8" s="118"/>
+      <c r="R8" s="118"/>
+      <c r="S8" s="118"/>
+      <c r="T8" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="U8" s="114" t="s">
+      <c r="U8" s="126" t="s">
         <v>49</v>
       </c>
-      <c r="V8" s="114" t="s">
+      <c r="V8" s="126" t="s">
         <v>50</v>
       </c>
-      <c r="W8" s="114" t="s">
+      <c r="W8" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="X8" s="114" t="s">
+      <c r="X8" s="126" t="s">
         <v>46</v>
       </c>
-      <c r="Y8" s="100" t="s">
+      <c r="Y8" s="112" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="106"/>
-      <c r="B9" s="106"/>
-      <c r="C9" s="106"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="106"/>
-      <c r="M9" s="106"/>
-      <c r="N9" s="106"/>
-      <c r="O9" s="106"/>
-      <c r="P9" s="106"/>
-      <c r="Q9" s="106"/>
-      <c r="R9" s="106"/>
-      <c r="S9" s="106"/>
-      <c r="T9" s="114"/>
-      <c r="U9" s="114"/>
-      <c r="V9" s="114"/>
-      <c r="W9" s="114"/>
-      <c r="X9" s="114"/>
-      <c r="Y9" s="100"/>
+      <c r="A9" s="118"/>
+      <c r="B9" s="118"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="118"/>
+      <c r="M9" s="118"/>
+      <c r="N9" s="118"/>
+      <c r="O9" s="118"/>
+      <c r="P9" s="118"/>
+      <c r="Q9" s="118"/>
+      <c r="R9" s="118"/>
+      <c r="S9" s="118"/>
+      <c r="T9" s="126"/>
+      <c r="U9" s="126"/>
+      <c r="V9" s="126"/>
+      <c r="W9" s="126"/>
+      <c r="X9" s="126"/>
+      <c r="Y9" s="112"/>
     </row>
     <row r="10" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="115">
+      <c r="A10" s="109">
         <v>1</v>
       </c>
-      <c r="B10" s="116" t="s">
+      <c r="B10" s="110" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="117" t="s">
+      <c r="C10" s="111" t="s">
         <v>84</v>
       </c>
       <c r="D10" s="25">
@@ -12925,29 +12925,29 @@
       <c r="S10" s="25">
         <v>16</v>
       </c>
-      <c r="T10" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="U10" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="V10" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="W10" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="X10" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y10" s="124">
+      <c r="T10" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="U10" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="V10" s="100" t="s">
+        <v>8</v>
+      </c>
+      <c r="W10" s="100" t="s">
+        <v>8</v>
+      </c>
+      <c r="X10" s="100" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y10" s="103">
         <v>4770</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="115"/>
-      <c r="B11" s="116"/>
-      <c r="C11" s="117"/>
+      <c r="A11" s="109"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="111"/>
       <c r="D11" s="26" t="s">
         <v>88</v>
       </c>
@@ -12996,17 +12996,17 @@
       <c r="S11" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="T11" s="119"/>
-      <c r="U11" s="119"/>
-      <c r="V11" s="122"/>
-      <c r="W11" s="122"/>
-      <c r="X11" s="123"/>
-      <c r="Y11" s="124"/>
+      <c r="T11" s="107"/>
+      <c r="U11" s="107"/>
+      <c r="V11" s="101"/>
+      <c r="W11" s="101"/>
+      <c r="X11" s="102"/>
+      <c r="Y11" s="103"/>
     </row>
     <row r="12" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="115"/>
-      <c r="B12" s="116"/>
-      <c r="C12" s="117"/>
+      <c r="A12" s="109"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="111"/>
       <c r="D12" s="27">
         <v>17</v>
       </c>
@@ -13055,19 +13055,19 @@
       <c r="S12" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T12" s="119"/>
-      <c r="U12" s="119"/>
-      <c r="V12" s="122"/>
-      <c r="W12" s="122"/>
-      <c r="X12" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y12" s="124"/>
+      <c r="T12" s="107"/>
+      <c r="U12" s="107"/>
+      <c r="V12" s="101"/>
+      <c r="W12" s="101"/>
+      <c r="X12" s="100" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y12" s="103"/>
     </row>
     <row r="13" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="115"/>
-      <c r="B13" s="116"/>
-      <c r="C13" s="117"/>
+      <c r="A13" s="109"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="111"/>
       <c r="D13" s="26" t="s">
         <v>88</v>
       </c>
@@ -13116,12 +13116,12 @@
       <c r="S13" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T13" s="120"/>
-      <c r="U13" s="120"/>
-      <c r="V13" s="123"/>
-      <c r="W13" s="123"/>
-      <c r="X13" s="123"/>
-      <c r="Y13" s="124"/>
+      <c r="T13" s="108"/>
+      <c r="U13" s="108"/>
+      <c r="V13" s="102"/>
+      <c r="W13" s="102"/>
+      <c r="X13" s="102"/>
+      <c r="Y13" s="103"/>
     </row>
     <row r="14" spans="1:25" s="66" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="65"/>
@@ -13136,10 +13136,10 @@
       </c>
     </row>
     <row r="15" spans="1:25" ht="18" x14ac:dyDescent="0.3">
-      <c r="A15" s="125" t="s">
+      <c r="A15" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="125"/>
+      <c r="B15" s="104"/>
       <c r="C15" s="68">
         <f>Мельницький!C36</f>
         <v>44621</v>
@@ -13206,6 +13206,16 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="W10:W13"/>
+    <mergeCell ref="X12:X13"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="T10:T13"/>
+    <mergeCell ref="U10:U13"/>
+    <mergeCell ref="V10:V13"/>
+    <mergeCell ref="X10:X11"/>
     <mergeCell ref="Y10:Y13"/>
     <mergeCell ref="X8:X9"/>
     <mergeCell ref="Y8:Y9"/>
@@ -13220,16 +13230,6 @@
     <mergeCell ref="U8:U9"/>
     <mergeCell ref="V8:V9"/>
     <mergeCell ref="W8:W9"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="W10:W13"/>
-    <mergeCell ref="X12:X13"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="T10:T13"/>
-    <mergeCell ref="U10:U13"/>
-    <mergeCell ref="V10:V13"/>
-    <mergeCell ref="X10:X11"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -13394,63 +13394,63 @@
       <c r="Y5" s="57"/>
     </row>
     <row r="6" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A6" s="104" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="104"/>
-      <c r="L6" s="104"/>
-      <c r="M6" s="104"/>
-      <c r="N6" s="104"/>
-      <c r="O6" s="104"/>
-      <c r="P6" s="104"/>
-      <c r="Q6" s="104"/>
-      <c r="R6" s="104"/>
-      <c r="S6" s="104"/>
-      <c r="T6" s="104"/>
-      <c r="U6" s="104"/>
-      <c r="V6" s="104"/>
-      <c r="W6" s="104"/>
-      <c r="X6" s="104"/>
-      <c r="Y6" s="104"/>
+      <c r="A6" s="116" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="116"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116"/>
+      <c r="L6" s="116"/>
+      <c r="M6" s="116"/>
+      <c r="N6" s="116"/>
+      <c r="O6" s="116"/>
+      <c r="P6" s="116"/>
+      <c r="Q6" s="116"/>
+      <c r="R6" s="116"/>
+      <c r="S6" s="116"/>
+      <c r="T6" s="116"/>
+      <c r="U6" s="116"/>
+      <c r="V6" s="116"/>
+      <c r="W6" s="116"/>
+      <c r="X6" s="116"/>
+      <c r="Y6" s="116"/>
     </row>
     <row r="7" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="104" t="str">
+      <c r="A7" s="116" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЛЮТИЙ 2022 р.</v>
       </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
-      <c r="N7" s="104"/>
-      <c r="O7" s="104"/>
-      <c r="P7" s="104"/>
-      <c r="Q7" s="104"/>
-      <c r="R7" s="104"/>
-      <c r="S7" s="104"/>
-      <c r="T7" s="104"/>
-      <c r="U7" s="104"/>
-      <c r="V7" s="104"/>
-      <c r="W7" s="104"/>
-      <c r="X7" s="104"/>
-      <c r="Y7" s="104"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="116"/>
+      <c r="M7" s="116"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
+      <c r="S7" s="116"/>
+      <c r="T7" s="116"/>
+      <c r="U7" s="116"/>
+      <c r="V7" s="116"/>
+      <c r="W7" s="116"/>
+      <c r="X7" s="116"/>
+      <c r="Y7" s="116"/>
     </row>
     <row r="8" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="58"/>
@@ -13480,94 +13480,94 @@
       <c r="Y8" s="58"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="106" t="s">
+      <c r="A9" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="107" t="s">
+      <c r="B9" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="106" t="s">
+      <c r="C9" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="106" t="s">
+      <c r="D9" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="106" t="s">
+      <c r="E9" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="106"/>
-      <c r="M9" s="106"/>
-      <c r="N9" s="106"/>
-      <c r="O9" s="106"/>
-      <c r="P9" s="106"/>
-      <c r="Q9" s="106"/>
-      <c r="R9" s="106"/>
-      <c r="S9" s="106"/>
-      <c r="T9" s="106"/>
-      <c r="U9" s="114" t="s">
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="118"/>
+      <c r="M9" s="118"/>
+      <c r="N9" s="118"/>
+      <c r="O9" s="118"/>
+      <c r="P9" s="118"/>
+      <c r="Q9" s="118"/>
+      <c r="R9" s="118"/>
+      <c r="S9" s="118"/>
+      <c r="T9" s="118"/>
+      <c r="U9" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="114" t="s">
+      <c r="V9" s="126" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="114" t="s">
+      <c r="W9" s="126" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="114" t="s">
+      <c r="X9" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="114" t="s">
+      <c r="Y9" s="126" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="100" t="s">
+      <c r="Z9" s="112" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="106"/>
-      <c r="B10" s="107"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="106"/>
-      <c r="L10" s="106"/>
-      <c r="M10" s="106"/>
-      <c r="N10" s="106"/>
-      <c r="O10" s="106"/>
-      <c r="P10" s="106"/>
-      <c r="Q10" s="106"/>
-      <c r="R10" s="106"/>
-      <c r="S10" s="106"/>
-      <c r="T10" s="106"/>
-      <c r="U10" s="114"/>
-      <c r="V10" s="114"/>
-      <c r="W10" s="114"/>
-      <c r="X10" s="114"/>
-      <c r="Y10" s="114"/>
-      <c r="Z10" s="100"/>
+      <c r="A10" s="118"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="118"/>
+      <c r="M10" s="118"/>
+      <c r="N10" s="118"/>
+      <c r="O10" s="118"/>
+      <c r="P10" s="118"/>
+      <c r="Q10" s="118"/>
+      <c r="R10" s="118"/>
+      <c r="S10" s="118"/>
+      <c r="T10" s="118"/>
+      <c r="U10" s="126"/>
+      <c r="V10" s="126"/>
+      <c r="W10" s="126"/>
+      <c r="X10" s="126"/>
+      <c r="Y10" s="126"/>
+      <c r="Z10" s="112"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="115">
+      <c r="A11" s="109">
         <v>1</v>
       </c>
-      <c r="B11" s="115">
+      <c r="B11" s="109">
         <v>1</v>
       </c>
-      <c r="C11" s="116" t="s">
+      <c r="C11" s="110" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="117" t="s">
+      <c r="D11" s="111" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="25">
@@ -13618,17 +13618,17 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="121" t="s">
+      <c r="U11" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="100" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="153"/>
-      <c r="Y11" s="121">
+      <c r="Y11" s="100">
         <v>20</v>
       </c>
       <c r="Z11" s="166">
@@ -13636,10 +13636,10 @@
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="115"/>
-      <c r="B12" s="115"/>
-      <c r="C12" s="116"/>
-      <c r="D12" s="117"/>
+      <c r="A12" s="109"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="111"/>
       <c r="E12" s="26" t="s">
         <v>88</v>
       </c>
@@ -13688,18 +13688,18 @@
       <c r="T12" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="U12" s="119"/>
-      <c r="V12" s="119"/>
-      <c r="W12" s="122"/>
+      <c r="U12" s="107"/>
+      <c r="V12" s="107"/>
+      <c r="W12" s="101"/>
       <c r="X12" s="154"/>
-      <c r="Y12" s="123"/>
+      <c r="Y12" s="102"/>
       <c r="Z12" s="166"/>
     </row>
     <row r="13" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="115"/>
-      <c r="B13" s="115"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="117"/>
+      <c r="A13" s="109"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="111"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -13748,20 +13748,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="119"/>
-      <c r="V13" s="119"/>
-      <c r="W13" s="122"/>
+      <c r="U13" s="107"/>
+      <c r="V13" s="107"/>
+      <c r="W13" s="101"/>
       <c r="X13" s="154"/>
-      <c r="Y13" s="121">
+      <c r="Y13" s="100">
         <v>160</v>
       </c>
       <c r="Z13" s="166"/>
     </row>
     <row r="14" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="115"/>
-      <c r="B14" s="115"/>
-      <c r="C14" s="116"/>
-      <c r="D14" s="117"/>
+      <c r="A14" s="109"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="111"/>
       <c r="E14" s="26" t="s">
         <v>88</v>
       </c>
@@ -13810,18 +13810,18 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="120"/>
-      <c r="V14" s="120"/>
-      <c r="W14" s="123"/>
+      <c r="U14" s="108"/>
+      <c r="V14" s="108"/>
+      <c r="W14" s="102"/>
       <c r="X14" s="155"/>
-      <c r="Y14" s="123"/>
+      <c r="Y14" s="102"/>
       <c r="Z14" s="166"/>
     </row>
     <row r="15" spans="1:26" s="56" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="125" t="s">
+      <c r="B15" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="125"/>
+      <c r="C15" s="104"/>
       <c r="D15" s="55">
         <f>Мельницький!C36</f>
         <v>44621</v>
@@ -13885,6 +13885,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A6:Y6"/>
+    <mergeCell ref="A7:Y7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="Z9:Z10"/>
     <mergeCell ref="A11:A14"/>
@@ -13898,18 +13910,6 @@
     <mergeCell ref="Y11:Y12"/>
     <mergeCell ref="Z11:Z14"/>
     <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="A6:Y6"/>
-    <mergeCell ref="A7:Y7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
